--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7188A8A-2BA5-4877-A7E4-0676B0FABEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B36DF-B774-4A8F-A064-8B19FFBD5070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -95,6 +96,226 @@
   </si>
   <si>
     <t>为什么学习公共政策学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的含义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策代表性定义类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策内涵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的产生（三要素）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的发展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从内容特征上来划分：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元政策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按政策内容社会性不同的分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标数量不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【有/无行程的规范】和原则可循</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【是否改变政策客体】【安德森】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策协调】社会【生活方式】【安德森】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否改变客观对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西奥多洛维政策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策属于【始创】还是【调整】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策结果的【可预测性】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主体期望人们【行为】的范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策主体对政策问题发展所做的【预测】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策从形式上来划分：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策权利横向种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由【政治体制决定】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策从横向形式划分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政决策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代中国的行政决策几种形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策【横向形式构成】的主要【差别】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总统领导下的行政机构分为四类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国司法决策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国的司法决策主要形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国纵向政策类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共【政策】与【法】共同点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策与法的差异：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧重点不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利和义务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否动用国家强制力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性，连续性相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干预范围相关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策和法的相互关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的【基本功能】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】与【理论】关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策】与【实践】关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策的【社会本质】：【公共性】与【偏好性】的统一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的【基本特征】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是政策工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策工具的类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究的主体是学术取向的职业学问家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策研究是一门学科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究的目的推动学科发展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成果得到社会的肯定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究分析的主体是政府机构的专业人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究活动关注的重点是为了政策分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是为了解决社会问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成果是为了达到预期效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +342,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -147,9 +392,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,82 +695,106 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -556,6 +832,266 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB0330D-97BB-495D-99B4-272E70F7B5D0}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B36DF-B774-4A8F-A064-8B19FFBD5070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -37,48 +26,132 @@
     <t>公共政策学定义</t>
   </si>
   <si>
+    <t>政策研究</t>
+  </si>
+  <si>
+    <t>政策分析</t>
+  </si>
+  <si>
+    <t>公共政策内涵</t>
+  </si>
+  <si>
     <t>公共政策学内涵</t>
   </si>
   <si>
+    <t>研究主体是学问家</t>
+  </si>
+  <si>
+    <t>政策分析的主体是政府机关的专业人员</t>
+  </si>
+  <si>
+    <t>学科研究对象是公共决策</t>
+  </si>
+  <si>
     <t>公共政策的学科要素</t>
   </si>
   <si>
+    <t>政策研究是一门学科</t>
+  </si>
+  <si>
+    <t>研究的重点是为了政策分析</t>
+  </si>
+  <si>
+    <t>有准学科的特征，崇尚理性不拒绝非理性，强调定量定性分析，注重经验积累</t>
+  </si>
+  <si>
     <t>公共政策学的研究对象</t>
   </si>
   <si>
+    <t>政策研究的目的是为了推进学科发展</t>
+  </si>
+  <si>
+    <t>研究目的是解决社会问题</t>
+  </si>
+  <si>
+    <t>涉及范围是所有领域</t>
+  </si>
+  <si>
     <t>公共政策从哪些方面去研究这种现象</t>
   </si>
   <si>
+    <t>成果是在学术界得到肯定</t>
+  </si>
+  <si>
+    <t>成果是达到预期效果</t>
+  </si>
+  <si>
+    <t>学术与应用相结合，理论与识记相结合，知识创造与权力运作结合</t>
+  </si>
+  <si>
     <t>公共政策三个层次</t>
   </si>
   <si>
     <t>政策群和政策链</t>
   </si>
   <si>
+    <t>研究对象</t>
+  </si>
+  <si>
+    <t>行为，决策行为</t>
+  </si>
+  <si>
     <t>政策一般</t>
   </si>
   <si>
+    <t>研究方法</t>
+  </si>
+  <si>
+    <t>结果取向，公共政策</t>
+  </si>
+  <si>
     <t>公共政策系统内部结构</t>
   </si>
   <si>
+    <t>概念体系</t>
+  </si>
+  <si>
     <t>公共政策学的研究方法三个方面</t>
   </si>
   <si>
+    <t>具体的个别政策</t>
+  </si>
+  <si>
     <t>研究程序的设计</t>
   </si>
   <si>
+    <t>政策群，政策链</t>
+  </si>
+  <si>
+    <t>政策群：不同内容，理念一样，导向相近的政策合体（改革和开放政策）</t>
+  </si>
+  <si>
     <t>资料收集方法</t>
   </si>
   <si>
+    <t>政策链：同一个政策问题，制定一些列政策，内容一致，功能上有差异的政策</t>
+  </si>
+  <si>
     <t>一手资料获取方法</t>
   </si>
   <si>
+    <t>公共政策</t>
+  </si>
+  <si>
     <t>二手资料获取方法</t>
   </si>
   <si>
+    <t>政策系统</t>
+  </si>
+  <si>
+    <t>从多个政策中抽离出来的所有公共政策都具有的本质和属性</t>
+  </si>
+  <si>
     <t>公共政策的系统分析方法</t>
   </si>
   <si>
+    <t>政策过程</t>
+  </si>
+  <si>
     <t>公共政策的矛盾分析方法</t>
   </si>
   <si>
@@ -91,259 +164,216 @@
     <t>从【产业革命】到【20世纪前】半期【西方国家】的政策研究</t>
   </si>
   <si>
+    <t>线性结构</t>
+  </si>
+  <si>
     <t>【20世纪】前半期学科孕育的历史条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能结构</t>
   </si>
   <si>
     <t>为什么学习公共政策学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性参谋结构</t>
+  </si>
+  <si>
+    <t>提出拟定政策的问题</t>
+  </si>
+  <si>
+    <t>矩阵结构</t>
+  </si>
+  <si>
+    <t>确定假设</t>
+  </si>
+  <si>
+    <t>收集资料</t>
+  </si>
+  <si>
+    <t>一手资料</t>
+  </si>
+  <si>
+    <t>二手资料</t>
+  </si>
+  <si>
+    <t>无结构访谈法</t>
+  </si>
+  <si>
+    <t>分析资料</t>
+  </si>
+  <si>
+    <t>操作性的研究</t>
+  </si>
+  <si>
+    <t>研究程序设计</t>
+  </si>
+  <si>
+    <t>撰写报告</t>
+  </si>
+  <si>
+    <t>政策研究资料的收集和研究对象的观察</t>
+  </si>
+  <si>
+    <t>公共政策的研究视角和路径</t>
+  </si>
+  <si>
+    <t>研究视角和研究路径</t>
   </si>
   <si>
     <t>公共政策的含义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共政策代表性定义类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共政策内涵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的产生（三要素）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的发展</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>从内容特征上来划分：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>元政策</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按政策内容社会性不同的分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目标数量不同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【有/无行程的规范】和原则可循</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【是否改变政策客体】【安德森】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【政策协调】社会【生活方式】【安德森】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否改变客观对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>西奥多洛维政策</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策属于【始创】还是【调整】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策结果的【可预测性】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策主体期望人们【行为】的范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策主体对政策问题发展所做的【预测】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策从形式上来划分：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策权利横向种类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>由【政治体制决定】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策从横向形式划分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行政决策</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>当代中国的行政决策几种形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共决策【横向形式构成】的主要【差别】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总统领导下的行政机构分为四类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国司法决策</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美国的司法决策主要形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国纵向政策类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共【政策】与【法】共同点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策与法的差异：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>侧重点不同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权利不同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权利和义务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>适用性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否动用国家强制力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>稳定性，连续性相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>干预范围相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策和法的相互关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的【基本功能】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【政策】与【理论】关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【政策】与【实践】关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策的【社会本质】：【公共性】与【偏好性】的统一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的【基本特征】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>什么是政策工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政策工具的类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究的主体是学术取向的职业学问家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策研究是一门学科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究的目的推动学科发展</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成果得到社会的肯定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究分析的主体是政府机构的专业人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究活动关注的重点是为了政策分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的是为了解决社会问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成果是为了达到预期效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,35 +382,378 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,34 +761,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,7 +1123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -499,7 +1158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,429 +1332,563 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3"/>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4"/>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5"/>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="M6"/>
+      <c r="Q6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="Q7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="11:15">
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="15:19">
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="15:15">
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15">
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB0330D-97BB-495D-99B4-272E70F7B5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -161,15 +161,33 @@
     <t>古代中国政策</t>
   </si>
   <si>
+    <t>核心概念</t>
+  </si>
+  <si>
+    <t>公共政策学持有</t>
+  </si>
+  <si>
     <t>从【产业革命】到【20世纪前】半期【西方国家】的政策研究</t>
   </si>
   <si>
+    <t>次级概念</t>
+  </si>
+  <si>
+    <t>核心概念子概念</t>
+  </si>
+  <si>
     <t>线性结构</t>
   </si>
   <si>
     <t>【20世纪】前半期学科孕育的历史条件</t>
   </si>
   <si>
+    <t>边界概念</t>
+  </si>
+  <si>
+    <t>其他学科</t>
+  </si>
+  <si>
     <t>只能结构</t>
   </si>
   <si>
@@ -215,10 +233,130 @@
     <t>政策研究资料的收集和研究对象的观察</t>
   </si>
   <si>
+    <t>内容分析</t>
+  </si>
+  <si>
     <t>公共政策的研究视角和路径</t>
   </si>
   <si>
+    <t>环境分析</t>
+  </si>
+  <si>
+    <t>实地观察法</t>
+  </si>
+  <si>
+    <t>二次分析</t>
+  </si>
+  <si>
     <t>研究视角和研究路径</t>
+  </si>
+  <si>
+    <t>目标分析</t>
+  </si>
+  <si>
+    <t>非参与观察法</t>
+  </si>
+  <si>
+    <t>现存统计资料分析</t>
+  </si>
+  <si>
+    <t>结构分析</t>
+  </si>
+  <si>
+    <t>参与观察法</t>
+  </si>
+  <si>
+    <t>史官制度</t>
+  </si>
+  <si>
+    <t>司马迁</t>
+  </si>
+  <si>
+    <t>史记</t>
+  </si>
+  <si>
+    <t>司马光</t>
+  </si>
+  <si>
+    <t>资治通鉴</t>
+  </si>
+  <si>
+    <t>策士制度</t>
+  </si>
+  <si>
+    <t>战国策</t>
+  </si>
+  <si>
+    <t>谏议制度</t>
+  </si>
+  <si>
+    <t>谏诤</t>
+  </si>
+  <si>
+    <t>三轮</t>
+  </si>
+  <si>
+    <t>系统论</t>
+  </si>
+  <si>
+    <t>被他</t>
+  </si>
+  <si>
+    <t>18~19</t>
+  </si>
+  <si>
+    <t>西方国家政策研究</t>
+  </si>
+  <si>
+    <t>监控</t>
+  </si>
+  <si>
+    <t>信息论</t>
+  </si>
+  <si>
+    <t>神农</t>
+  </si>
+  <si>
+    <t>亚当斯密，外包</t>
+  </si>
+  <si>
+    <t>科举制度</t>
+  </si>
+  <si>
+    <t>控制论</t>
+  </si>
+  <si>
+    <t>维纳</t>
+  </si>
+  <si>
+    <t>决策科学的行程（丰富了研究手段和方法）</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>改进政策系统，提高政策质量</t>
+  </si>
+  <si>
+    <t>西蒙：管理行为</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>理解公共政策，保护了自身利益和公共利益</t>
+  </si>
+  <si>
+    <t>那是：均衡</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>推送科学研究的公共政策取向</t>
+  </si>
+  <si>
+    <t>凯恩斯扩大领域</t>
   </si>
   <si>
     <t>公共政策的含义</t>
@@ -365,11 +503,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,21 +562,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,113 +689,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -568,19 +699,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,163 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,6 +890,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,32 +941,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,161 +976,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1369,7 +1500,6 @@
       <c r="L3" t="s">
         <v>4</v>
       </c>
-      <c r="M3"/>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1514,6 @@
       <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="M4"/>
       <c r="Q4" t="s">
         <v>9</v>
       </c>
@@ -1399,7 +1528,6 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="M5"/>
       <c r="Q5" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1542,6 @@
       <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="M6"/>
       <c r="Q6" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1615,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
@@ -1499,7 +1626,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
@@ -1507,7 +1634,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I16" t="s">
@@ -1518,7 +1645,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
@@ -1526,77 +1653,95 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
+      <c r="A21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
+      <c r="A23" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="11:15">
       <c r="K24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="15:19">
       <c r="O25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="15:15">
       <c r="O27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="8:15">
@@ -1604,25 +1749,171 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="9:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="9:18">
       <c r="I29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="9:18">
       <c r="I30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s">
+        <v>75</v>
+      </c>
+      <c r="R30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="9:18">
       <c r="I31" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="M31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s">
+        <v>79</v>
+      </c>
+      <c r="R31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="13:16">
+      <c r="M32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12">
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17">
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+      <c r="P35" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="9:17">
+      <c r="I36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="8:16">
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="11:17">
+      <c r="K38" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17">
+      <c r="L39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17">
+      <c r="L40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1649,12 +1940,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1664,227 +1955,227 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DA18B6-35F9-4228-86DF-80A7A645FA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -495,35 +501,27 @@
   </si>
   <si>
     <t>政策工具的类型</t>
+  </si>
+  <si>
+    <t>公共权力机关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择和指定公共问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了解决公共问题，达成目标，实现公共利益的方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -540,351 +538,57 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -892,320 +596,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1463,35 +884,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -1504,8 +925,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -1518,8 +939,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
@@ -1532,8 +953,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
@@ -1546,8 +967,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -1560,13 +981,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
@@ -1576,8 +997,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
@@ -1587,24 +1008,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J13" t="s">
@@ -1614,8 +1035,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
@@ -1625,16 +1046,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I16" t="s">
@@ -1644,26 +1065,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
@@ -1673,8 +1094,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
@@ -1687,8 +1108,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
@@ -1701,8 +1122,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K23" t="s">
@@ -1712,7 +1133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="11:15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
         <v>61</v>
       </c>
@@ -1720,7 +1141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="15:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O25" t="s">
         <v>63</v>
       </c>
@@ -1734,17 +1155,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="15:15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>27</v>
       </c>
@@ -1755,7 +1176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="9:18">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
         <v>71</v>
       </c>
@@ -1766,7 +1187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="9:18">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>73</v>
       </c>
@@ -1780,7 +1201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="9:18">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>77</v>
       </c>
@@ -1794,7 +1215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="13:16">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M32" t="s">
         <v>81</v>
       </c>
@@ -1802,7 +1223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="8:12">
+    <row r="33" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>83</v>
       </c>
@@ -1819,7 +1240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
         <v>88</v>
       </c>
@@ -1827,7 +1248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="8:17">
+    <row r="35" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
         <v>90</v>
       </c>
@@ -1850,7 +1271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="9:17">
+    <row r="36" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>97</v>
       </c>
@@ -1864,7 +1285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="8:16">
+    <row r="37" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
         <v>101</v>
       </c>
@@ -1878,7 +1299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="11:17">
+    <row r="38" spans="8:17" x14ac:dyDescent="0.2">
       <c r="K38" t="s">
         <v>104</v>
       </c>
@@ -1889,7 +1310,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="12:17">
+    <row r="39" spans="8:17" x14ac:dyDescent="0.2">
       <c r="L39" t="s">
         <v>107</v>
       </c>
@@ -1900,7 +1321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="12:17">
+    <row r="40" spans="8:17" x14ac:dyDescent="0.2">
       <c r="L40" t="s">
         <v>110</v>
       </c>
@@ -1911,275 +1332,283 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="8:17" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DA18B6-35F9-4228-86DF-80A7A645FA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A1638-1D51-46EF-97A9-3543BD136D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -512,6 +513,38 @@
   </si>
   <si>
     <t>为了解决公共问题，达成目标，实现公共利益的方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧重于政策主体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧重于政策方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧重于政策结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧重于综合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府机构和周围环境之间的关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策是一个政府选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的【主体】</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +565,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -540,12 +574,14 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -579,6 +615,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -615,6 +659,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1346,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1358,7 +1403,7 @@
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
@@ -1366,7 +1411,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -1374,7 +1419,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1382,67 +1427,85 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
@@ -1605,6 +1668,32 @@
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FEA2BB-0781-4439-9E63-40F2248C2D36}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A1638-1D51-46EF-97A9-3543BD136D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -369,39 +363,99 @@
     <t>公共政策的含义</t>
   </si>
   <si>
+    <t>公共权力机关，由政治过程锁选择和制定的</t>
+  </si>
+  <si>
     <t>公共政策代表性定义类别</t>
   </si>
   <si>
+    <t>为了解决公共问题，达成公共目标，实现公共利益</t>
+  </si>
+  <si>
+    <t>的方案</t>
+  </si>
+  <si>
     <t>公共政策的产生（三要素）</t>
   </si>
   <si>
     <t>公共政策的发展</t>
   </si>
   <si>
+    <t>侧重于主体</t>
+  </si>
+  <si>
+    <t>埃斯顿</t>
+  </si>
+  <si>
+    <t>公共政策是政府与环境之间的关系</t>
+  </si>
+  <si>
     <t>从内容特征上来划分：</t>
   </si>
   <si>
+    <t>戴一</t>
+  </si>
+  <si>
+    <t>公共政策是政府选择做任何事或不做任何事</t>
+  </si>
+  <si>
     <t>元政策</t>
   </si>
   <si>
+    <t>侧重于政策方案</t>
+  </si>
+  <si>
+    <t>拉斯韦尔</t>
+  </si>
+  <si>
+    <t>公共政策是一种有目标，价值，策略的大型计划</t>
+  </si>
+  <si>
     <t>按政策内容社会性不同的分类</t>
   </si>
   <si>
+    <t>侧重于政策结果</t>
+  </si>
+  <si>
+    <t>伊斯顿</t>
+  </si>
+  <si>
+    <t>社会价值的权威分配</t>
+  </si>
+  <si>
     <t>目标数量不同</t>
   </si>
   <si>
+    <t>侧重于综合</t>
+  </si>
+  <si>
+    <t>张金马</t>
+  </si>
+  <si>
+    <t>公共政策是党和政府规范引导有关群体的行动准则</t>
+  </si>
+  <si>
     <t>【有/无行程的规范】和原则可循</t>
   </si>
   <si>
     <t>【是否改变政策客体】【安德森】</t>
   </si>
   <si>
+    <t>公共问题</t>
+  </si>
+  <si>
     <t>【政策协调】社会【生活方式】【安德森】</t>
   </si>
   <si>
+    <t>公共目标</t>
+  </si>
+  <si>
     <t>是否改变客观对象</t>
   </si>
   <si>
+    <t>公共利益</t>
+  </si>
+  <si>
     <t>西奥多洛维政策</t>
   </si>
   <si>
@@ -504,55 +558,20 @@
     <t>政策工具的类型</t>
   </si>
   <si>
-    <t>公共权力机关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择和指定公共问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了解决公共问题，达成目标，实现公共利益的方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧重于政策主体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧重于政策方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧重于政策结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧重于综合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府机构和周围环境之间的关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共政策是一个政府选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>公共政策的【主体】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,11 +580,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -574,65 +619,349 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -640,38 +969,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -929,35 +1546,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -970,8 +1587,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -984,8 +1601,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
@@ -998,8 +1615,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
@@ -1012,8 +1629,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -1026,13 +1643,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
@@ -1042,8 +1659,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
@@ -1053,24 +1670,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J13" t="s">
@@ -1080,8 +1697,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
@@ -1091,16 +1708,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I16" t="s">
@@ -1110,26 +1727,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
@@ -1139,8 +1756,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
@@ -1153,8 +1770,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
@@ -1167,8 +1784,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
       <c r="K23" t="s">
@@ -1178,7 +1795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:15">
       <c r="K24" t="s">
         <v>61</v>
       </c>
@@ -1186,7 +1803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="15:19">
       <c r="O25" t="s">
         <v>63</v>
       </c>
@@ -1200,17 +1817,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:15">
       <c r="O26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:15">
       <c r="O27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:15">
       <c r="H28" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:18">
       <c r="I29" t="s">
         <v>71</v>
       </c>
@@ -1232,7 +1849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:18">
       <c r="I30" t="s">
         <v>73</v>
       </c>
@@ -1246,7 +1863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:18">
       <c r="I31" t="s">
         <v>77</v>
       </c>
@@ -1260,7 +1877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="13:16">
       <c r="M32" t="s">
         <v>81</v>
       </c>
@@ -1268,7 +1885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:12">
       <c r="H33" t="s">
         <v>83</v>
       </c>
@@ -1285,7 +1902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:9">
       <c r="H34" t="s">
         <v>88</v>
       </c>
@@ -1293,7 +1910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:17">
       <c r="H35" t="s">
         <v>90</v>
       </c>
@@ -1316,7 +1933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:17">
       <c r="I36" t="s">
         <v>97</v>
       </c>
@@ -1330,7 +1947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:16">
       <c r="H37" t="s">
         <v>101</v>
       </c>
@@ -1344,7 +1961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:17">
       <c r="K38" t="s">
         <v>104</v>
       </c>
@@ -1355,7 +1972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:17">
       <c r="L39" t="s">
         <v>107</v>
       </c>
@@ -1366,7 +1983,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:17">
       <c r="L40" t="s">
         <v>110</v>
       </c>
@@ -1377,327 +1994,365 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:11">
       <c r="K41" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="4" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="4" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="4" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L5" s="4" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>159</v>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FEA2BB-0781-4439-9E63-40F2248C2D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>170</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07EAE3-7684-499F-9245-3CA50B0524F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="207">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -559,19 +565,113 @@
   </si>
   <si>
     <t>公共政策的【主体】</t>
+  </si>
+  <si>
+    <t>【政策系统】与【政策行为者】的关系</t>
+  </si>
+  <si>
+    <t>政策【行为者】</t>
+  </si>
+  <si>
+    <t>公共政策的主体分类</t>
+  </si>
+  <si>
+    <t>公共政策的【主体系统】</t>
+  </si>
+  <si>
+    <t>政策网络</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策网络形成的原因</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策支持】系统的构成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策系统的一般环境</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策反馈系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策系统的运行步骤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政府权力/职能两重性】决定【公共政策两重性】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政府权力/职能】【决定政策】的【性能，类型，数量】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策权的【配置】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策的【规则】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共利益的内涵</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共利益的确定（三个视角）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共利益与公共代价四种基本类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么公民是【政策客体】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么公民作为【政策主体】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为政策主体的公民通过【哪些途径】【影响公共政策】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民社会的【主体是社会团体】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【社会团体，公民社会】与【公共政策】之间的关系是什么</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会团体的消极影响</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【暴露或提出】某些公共【问题】，【推动问题认定】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众传播与政策执行和【监控】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众传播与政策评估和【调整】</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,7 +702,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -623,345 +723,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -969,253 +752,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1233,62 +774,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1546,34 +1049,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1587,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1601,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1643,12 +1146,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1697,7 +1200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +1211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1727,7 +1230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1735,17 +1238,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1756,7 +1259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
@@ -1784,7 +1287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -1795,7 +1298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="11:15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
         <v>61</v>
       </c>
@@ -1803,7 +1306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="15:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O25" t="s">
         <v>63</v>
       </c>
@@ -1817,17 +1320,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="15:15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="8:15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>27</v>
       </c>
@@ -1838,7 +1341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="9:18">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I29" t="s">
         <v>71</v>
       </c>
@@ -1849,7 +1352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="9:18">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>73</v>
       </c>
@@ -1863,7 +1366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="9:18">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
         <v>77</v>
       </c>
@@ -1877,7 +1380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="13:16">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M32" t="s">
         <v>81</v>
       </c>
@@ -1885,7 +1388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="8:12">
+    <row r="33" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H33" t="s">
         <v>83</v>
       </c>
@@ -1902,7 +1405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
         <v>88</v>
       </c>
@@ -1910,7 +1413,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="8:17">
+    <row r="35" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
         <v>90</v>
       </c>
@@ -1933,7 +1436,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="9:17">
+    <row r="36" spans="8:17" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>97</v>
       </c>
@@ -1947,7 +1450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="8:16">
+    <row r="37" spans="8:17" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
         <v>101</v>
       </c>
@@ -1961,7 +1464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="11:17">
+    <row r="38" spans="8:17" x14ac:dyDescent="0.2">
       <c r="K38" t="s">
         <v>104</v>
       </c>
@@ -1972,7 +1475,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="12:17">
+    <row r="39" spans="8:17" x14ac:dyDescent="0.2">
       <c r="L39" t="s">
         <v>107</v>
       </c>
@@ -1983,7 +1486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="12:17">
+    <row r="40" spans="8:17" x14ac:dyDescent="0.2">
       <c r="L40" t="s">
         <v>110</v>
       </c>
@@ -1994,34 +1497,33 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="8:17" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>114</v>
       </c>
@@ -2029,7 +1531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>116</v>
       </c>
@@ -2037,7 +1539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2045,12 +1547,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>120</v>
       </c>
@@ -2064,7 +1566,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -2075,7 +1577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -2089,7 +1591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
@@ -2103,7 +1605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>135</v>
       </c>
@@ -2117,12 +1619,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
@@ -2130,7 +1632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>142</v>
       </c>
@@ -2138,7 +1640,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>144</v>
       </c>
@@ -2146,213 +1648,343 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>180</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C07EAE3-7684-499F-9245-3CA50B0524F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
+    <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
+    <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="319">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -564,114 +558,434 @@
     <t>政策工具的类型</t>
   </si>
   <si>
+    <t>【政策系统】与【政策行为者】的关系</t>
+  </si>
+  <si>
+    <t>政策【行为者】</t>
+  </si>
+  <si>
+    <t>政府推进政治治理的工具</t>
+  </si>
+  <si>
+    <t>主体系统</t>
+  </si>
+  <si>
+    <t>政府实施社会管理的手段</t>
+  </si>
+  <si>
+    <t>首长/委员会</t>
+  </si>
+  <si>
+    <t>全体一致</t>
+  </si>
+  <si>
+    <t>集权分权</t>
+  </si>
+  <si>
+    <t>多数规则</t>
+  </si>
+  <si>
+    <t>简单多数</t>
+  </si>
+  <si>
+    <t>利益输入</t>
+  </si>
+  <si>
     <t>公共政策的【主体】</t>
   </si>
   <si>
-    <t>【政策系统】与【政策行为者】的关系</t>
-  </si>
-  <si>
-    <t>政策【行为者】</t>
+    <t>支持系统</t>
+  </si>
+  <si>
+    <t>绝对多数</t>
+  </si>
+  <si>
+    <t>利益综合</t>
   </si>
   <si>
     <t>公共政策的主体分类</t>
   </si>
   <si>
+    <t>反馈系统</t>
+  </si>
+  <si>
+    <t>政策行程</t>
+  </si>
+  <si>
     <t>公共政策的【主体系统】</t>
   </si>
   <si>
+    <t>发布</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
     <t>政策网络</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接或间接参与公共政策制定，实施，评估，监控的行为</t>
+  </si>
+  <si>
+    <t>直接主体</t>
+  </si>
+  <si>
+    <t>公共政策的生产者，掌控权力，主导政策过程的个人或群体</t>
+  </si>
+  <si>
+    <t>代议</t>
+  </si>
+  <si>
+    <t>反馈</t>
   </si>
   <si>
     <t>政策网络形成的原因</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接主体</t>
+  </si>
+  <si>
+    <t>不拥有合法强制力，通过压力，舆论，私人影响公共政策</t>
+  </si>
+  <si>
+    <t>行政</t>
   </si>
   <si>
     <t>【政策支持】系统的构成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策行为者</t>
+  </si>
+  <si>
+    <t>直接参与和影响政策制定的组织或人，是主体也可以是客体</t>
+  </si>
+  <si>
+    <t>次国家</t>
+  </si>
+  <si>
+    <t>直接，间接利益</t>
+  </si>
+  <si>
+    <t>司法</t>
+  </si>
+  <si>
+    <t>现实未来利益</t>
   </si>
   <si>
     <t>政策系统的一般环境</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨国企业</t>
+  </si>
+  <si>
+    <t>形式，内容利益</t>
+  </si>
+  <si>
+    <t>军队</t>
   </si>
   <si>
     <t>政策反馈系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球</t>
+  </si>
+  <si>
+    <t>党政</t>
   </si>
   <si>
     <t>政策系统的运行步骤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种政策行为者，相互作用，构成的系统</t>
   </si>
   <si>
     <t>【政府权力/职能两重性】决定【公共政策两重性】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【政府权力/职能】【决定政策】的【性能，类型，数量】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策制定系统</t>
+  </si>
+  <si>
+    <t>法定决策权的高层或个人组成，组织领导整个决策过程</t>
+  </si>
+  <si>
+    <t>认定问题</t>
+  </si>
+  <si>
+    <t>为政策方案的试试做好准备</t>
+  </si>
+  <si>
+    <t>利益表达和利益综合</t>
+  </si>
+  <si>
+    <t>政策执行系统</t>
+  </si>
+  <si>
+    <t>观念形态的内容转换为实际形态的结果</t>
+  </si>
+  <si>
+    <t>确定目标</t>
+  </si>
+  <si>
+    <t>有效实施方案</t>
+  </si>
+  <si>
+    <t>提出公共问题</t>
   </si>
   <si>
     <t>公共决策权的【配置】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接主体系统</t>
+  </si>
+  <si>
+    <t>政策间接主体构成</t>
+  </si>
+  <si>
+    <t>组织方案设计</t>
+  </si>
+  <si>
+    <t>分析和总结</t>
+  </si>
+  <si>
+    <t>影响公共环境</t>
   </si>
   <si>
     <t>公共决策的【规则】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主持备选方案</t>
+  </si>
+  <si>
+    <t>影响公共政策的制定</t>
   </si>
   <si>
     <t>公共利益的内涵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府，其他部门，围绕共同的，实际上是协商组成的一个正式或非正式的额联系</t>
+  </si>
+  <si>
+    <t>完成法律程序</t>
+  </si>
+  <si>
+    <t>填补政策直接主体无法达到的空间</t>
   </si>
   <si>
     <t>公共利益的确定（三个视角）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公共利益与公共代价四种基本类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流信息和意见</t>
+  </si>
+  <si>
+    <t>信息传播</t>
+  </si>
+  <si>
+    <t>自然地理环境</t>
+  </si>
+  <si>
+    <t>政策主体系统，客体系统，政策系统，政策环境联合起来的系统</t>
+  </si>
+  <si>
+    <t>利益宽，代价宽</t>
+  </si>
+  <si>
+    <t>社保，消防</t>
   </si>
   <si>
     <t>为什么公民是【政策客体】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换资源</t>
+  </si>
+  <si>
+    <t>咨询系统</t>
+  </si>
+  <si>
+    <t>法治政治环境</t>
+  </si>
+  <si>
+    <t>利益广，代价窄</t>
+  </si>
+  <si>
+    <t>环保</t>
   </si>
   <si>
     <t>为什么公民作为【政策主体】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结盟</t>
+  </si>
+  <si>
+    <t>国际</t>
+  </si>
+  <si>
+    <t>公共利益是出发点，最大多数的功名利益最大化</t>
+  </si>
+  <si>
+    <t>利益窄，代价宽</t>
+  </si>
+  <si>
+    <t>残疾人</t>
   </si>
   <si>
     <t>作为政策主体的公民通过【哪些途径】【影响公共政策】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐权力</t>
+  </si>
+  <si>
+    <t>评估</t>
+  </si>
+  <si>
+    <t>社会文化环境</t>
+  </si>
+  <si>
+    <t>利益窄，代价窄</t>
+  </si>
+  <si>
+    <t>低保</t>
   </si>
   <si>
     <t>公民社会的【主体是社会团体】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>意见难统一</t>
+  </si>
+  <si>
+    <t>政策允许以公民为基础</t>
   </si>
   <si>
     <t>【社会团体，公民社会】与【公共政策】之间的关系是什么</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与的成本高，效率低</t>
+  </si>
+  <si>
+    <t>公民参与政策过程，才能理解，配合，提高效率</t>
   </si>
   <si>
     <t>社会团体的消极影响</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名公投</t>
+  </si>
+  <si>
+    <t>参与到时社会不稳定</t>
+  </si>
+  <si>
+    <t>民主法制化要求</t>
   </si>
   <si>
     <t>【暴露或提出】某些公共【问题】，【推动问题认定】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁制定规则（选举）</t>
+  </si>
+  <si>
+    <t>NGO</t>
+  </si>
+  <si>
+    <t>意见短浅</t>
+  </si>
+  <si>
+    <t>信息技术和大众传媒的发展降低了获取信息的成本，提高了公民参与的效率</t>
   </si>
   <si>
     <t>大众传播与政策执行和【监控】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略行为（威胁）</t>
+  </si>
+  <si>
+    <t>社团</t>
   </si>
   <si>
     <t>大众传播与政策评估和【调整】</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>团体力量</t>
+  </si>
+  <si>
+    <t>协会</t>
+  </si>
+  <si>
+    <t>底层和政府之间的信息沟通</t>
+  </si>
+  <si>
+    <t>社团关系管辖权胜于关心争议</t>
+  </si>
+  <si>
+    <t>社会舆论</t>
+  </si>
+  <si>
+    <t>社区组织</t>
+  </si>
+  <si>
+    <t>影响制约公共政策</t>
+  </si>
+  <si>
+    <t>发展到一定规模，必然采取排他</t>
+  </si>
+  <si>
+    <t>只是</t>
+  </si>
+  <si>
+    <t>稳定公共秩序</t>
+  </si>
+  <si>
+    <t>加剧新的不平等，并固定下来</t>
+  </si>
+  <si>
+    <t>不合作</t>
+  </si>
+  <si>
+    <t>角色代替</t>
+  </si>
+  <si>
+    <t>通过检测环境变化，发现和提出公共问题</t>
+  </si>
+  <si>
+    <t>为政策执行提供舆论支持</t>
+  </si>
+  <si>
+    <t>促进信息交流，释放社会多元诉求</t>
+  </si>
+  <si>
+    <t>监控政策执行过程</t>
+  </si>
+  <si>
+    <t>制造交点效应热点问题</t>
+  </si>
+  <si>
+    <t>收集，反馈公众意见</t>
+  </si>
+  <si>
+    <t>政策额评估</t>
+  </si>
+  <si>
+    <t>推动调整</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,16 +1000,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -723,28 +1042,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -752,12 +1388,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -774,24 +1655,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1049,35 +1971,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -1090,8 +2012,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -1104,8 +2026,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
@@ -1118,8 +2040,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
@@ -1132,8 +2054,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -1146,13 +2068,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
@@ -1162,8 +2084,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
@@ -1173,24 +2095,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J13" t="s">
@@ -1200,8 +2122,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
@@ -1211,16 +2133,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="I16" t="s">
@@ -1230,26 +2152,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
@@ -1259,8 +2181,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
@@ -1273,8 +2195,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
@@ -1287,8 +2209,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K23" t="s">
@@ -1298,7 +2220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:15">
       <c r="K24" t="s">
         <v>61</v>
       </c>
@@ -1306,7 +2228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="15:19">
       <c r="O25" t="s">
         <v>63</v>
       </c>
@@ -1320,17 +2242,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:15">
       <c r="O26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:15">
       <c r="O27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:15">
       <c r="H28" t="s">
         <v>27</v>
       </c>
@@ -1341,7 +2263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:18">
       <c r="I29" t="s">
         <v>71</v>
       </c>
@@ -1352,7 +2274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:18">
       <c r="I30" t="s">
         <v>73</v>
       </c>
@@ -1366,7 +2288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:18">
       <c r="I31" t="s">
         <v>77</v>
       </c>
@@ -1380,7 +2302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="13:16">
       <c r="M32" t="s">
         <v>81</v>
       </c>
@@ -1388,7 +2310,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:12">
       <c r="H33" t="s">
         <v>83</v>
       </c>
@@ -1405,7 +2327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:9">
       <c r="H34" t="s">
         <v>88</v>
       </c>
@@ -1413,7 +2335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:17">
       <c r="H35" t="s">
         <v>90</v>
       </c>
@@ -1436,7 +2358,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:17">
       <c r="I36" t="s">
         <v>97</v>
       </c>
@@ -1450,7 +2372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:16">
       <c r="H37" t="s">
         <v>101</v>
       </c>
@@ -1464,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:17">
       <c r="K38" t="s">
         <v>104</v>
       </c>
@@ -1475,7 +2397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="12:17">
       <c r="L39" t="s">
         <v>107</v>
       </c>
@@ -1486,7 +2408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="12:17">
       <c r="L40" t="s">
         <v>110</v>
       </c>
@@ -1497,494 +2419,874 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="8:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:11">
       <c r="K41" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="N3" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="P3" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="N4" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="P4" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="Q4" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="U4" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="H5" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="Q5" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="U5" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="U6" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="U7" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="3"/>
+      <c r="U8" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="G9" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="M9" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="T9" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="U9" s="2" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3"/>
+      <c r="O13" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="8:21">
+      <c r="H19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17">
+      <c r="H35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17">
+      <c r="H36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13">
+      <c r="H37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="I38" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14">
+      <c r="I39" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="317">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -363,97 +363,91 @@
     <t>公共政策的含义</t>
   </si>
   <si>
-    <t>公共权力机关，由政治过程锁选择和制定的</t>
+    <t>公共权力机关，选择指定公共问题，达成公共目标，以实现公共利益的方案</t>
   </si>
   <si>
     <t>公共政策代表性定义类别</t>
   </si>
   <si>
-    <t>为了解决公共问题，达成公共目标，实现公共利益</t>
-  </si>
-  <si>
-    <t>的方案</t>
-  </si>
-  <si>
-    <t>公共政策的产生（三要素）</t>
+    <t>侧重于政策主体</t>
+  </si>
+  <si>
+    <t>政府机构和环境的关系，埃斯顿；公共政策是政府做任何事或不做任何事，戴一</t>
+  </si>
+  <si>
+    <t>侧重于政策方案</t>
+  </si>
+  <si>
+    <t>是一种含有目标，价值，策略的计划，拉斯沃尔</t>
+  </si>
+  <si>
+    <t>公共政策的产生（3个初始条件，核心要素）</t>
+  </si>
+  <si>
+    <t>侧重于政策结果</t>
+  </si>
+  <si>
+    <t>是社会价值和权威性分配，伊斯顿</t>
   </si>
   <si>
     <t>公共政策的发展</t>
   </si>
   <si>
-    <t>侧重于主体</t>
-  </si>
-  <si>
-    <t>埃斯顿</t>
-  </si>
-  <si>
-    <t>公共政策是政府与环境之间的关系</t>
+    <t>倾向于综合</t>
+  </si>
+  <si>
+    <t>张马金，党和政府用估饭引导机构，团队和个人的准则</t>
   </si>
   <si>
     <t>从内容特征上来划分：</t>
   </si>
   <si>
-    <t>戴一</t>
-  </si>
-  <si>
-    <t>公共政策是政府选择做任何事或不做任何事</t>
-  </si>
-  <si>
     <t>元政策</t>
   </si>
   <si>
-    <t>侧重于政策方案</t>
-  </si>
-  <si>
-    <t>拉斯韦尔</t>
-  </si>
-  <si>
-    <t>公共政策是一种有目标，价值，策略的大型计划</t>
+    <t>公共问题</t>
+  </si>
+  <si>
+    <t>具有决定，决策，对策，政策的一半特性</t>
   </si>
   <si>
     <t>按政策内容社会性不同的分类</t>
   </si>
   <si>
-    <t>侧重于政策结果</t>
-  </si>
-  <si>
-    <t>伊斯顿</t>
-  </si>
-  <si>
-    <t>社会价值的权威分配</t>
+    <t>公共决策机关</t>
+  </si>
+  <si>
+    <t>公共机关的权力意志的表现，具有权威性和强制性</t>
   </si>
   <si>
     <t>目标数量不同</t>
   </si>
   <si>
-    <t>侧重于综合</t>
-  </si>
-  <si>
-    <t>张金马</t>
-  </si>
-  <si>
-    <t>公共政策是党和政府规范引导有关群体的行动准则</t>
+    <t>公共强制机构</t>
+  </si>
+  <si>
+    <t>主导政策的机轴是，公共权力机关，公民关系</t>
   </si>
   <si>
     <t>【有/无行程的规范】和原则可循</t>
   </si>
   <si>
+    <t>公共政策的三大要素，公共问题，公共目标，公共利益</t>
+  </si>
+  <si>
     <t>【是否改变政策客体】【安德森】</t>
   </si>
   <si>
-    <t>公共问题</t>
+    <t>是一种权威的价值分配方案</t>
   </si>
   <si>
     <t>【政策协调】社会【生活方式】【安德森】</t>
   </si>
   <si>
-    <t>公共目标</t>
+    <t>可以是积极的也可以是消极的</t>
   </si>
   <si>
     <t>是否改变客观对象</t>
-  </si>
-  <si>
-    <t>公共利益</t>
   </si>
   <si>
     <t>西奥多洛维政策</t>
@@ -1021,7 +1015,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1979,7 +1973,7 @@
   <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -2434,13 +2428,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="2"/>
@@ -2454,296 +2448,290 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2769,15 +2757,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2788,104 +2776,104 @@
         <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3"/>
       <c r="N4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="3"/>
       <c r="U8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -2893,61 +2881,61 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="O13" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2955,112 +2943,112 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="19" spans="8:21">
       <c r="H19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3068,221 +3056,221 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="T27" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="35" spans="8:17">
       <c r="H35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="36" spans="8:17">
       <c r="H36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="9:14">
       <c r="I38" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="9:14">
       <c r="I39" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="414">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -375,12 +375,21 @@
     <t>政府机构和环境的关系，埃斯顿；公共政策是政府做任何事或不做任何事，戴一</t>
   </si>
   <si>
+    <t>分配</t>
+  </si>
+  <si>
     <t>侧重于政策方案</t>
   </si>
   <si>
     <t>是一种含有目标，价值，策略的计划，拉斯沃尔</t>
   </si>
   <si>
+    <t>政治政策</t>
+  </si>
+  <si>
+    <t>调节</t>
+  </si>
+  <si>
     <t>公共政策的产生（3个初始条件，核心要素）</t>
   </si>
   <si>
@@ -390,6 +399,12 @@
     <t>是社会价值和权威性分配，伊斯顿</t>
   </si>
   <si>
+    <t>经济政策</t>
+  </si>
+  <si>
+    <t>自我调节</t>
+  </si>
+  <si>
     <t>公共政策的发展</t>
   </si>
   <si>
@@ -399,9 +414,24 @@
     <t>张马金，党和政府用估饭引导机构，团队和个人的准则</t>
   </si>
   <si>
+    <t>社会政策</t>
+  </si>
+  <si>
+    <t>在分配</t>
+  </si>
+  <si>
+    <t>在政策问题行程过程中，公民参与的作用越来越大</t>
+  </si>
+  <si>
+    <t>教科文政策</t>
+  </si>
+  <si>
     <t>从内容特征上来划分：</t>
   </si>
   <si>
+    <t>公共政策需要体现主权在民原则</t>
+  </si>
+  <si>
     <t>元政策</t>
   </si>
   <si>
@@ -411,6 +441,15 @@
     <t>具有决定，决策，对策，政策的一半特性</t>
   </si>
   <si>
+    <t>公共政策内容日益丰富</t>
+  </si>
+  <si>
+    <t>但目标</t>
+  </si>
+  <si>
+    <t>程序性政策</t>
+  </si>
+  <si>
     <t>按政策内容社会性不同的分类</t>
   </si>
   <si>
@@ -420,6 +459,15 @@
     <t>公共机关的权力意志的表现，具有权威性和强制性</t>
   </si>
   <si>
+    <t>公共政策科学胡民主化</t>
+  </si>
+  <si>
+    <t>多目标</t>
+  </si>
+  <si>
+    <t>非程序性政策</t>
+  </si>
+  <si>
     <t>目标数量不同</t>
   </si>
   <si>
@@ -435,123 +483,372 @@
     <t>公共政策的三大要素，公共问题，公共目标，公共利益</t>
   </si>
   <si>
+    <t>知道和规范政府政策行为的理论和方法，比如宪法</t>
+  </si>
+  <si>
+    <t>物质性政策</t>
+  </si>
+  <si>
+    <t>实质性政策</t>
+  </si>
+  <si>
     <t>【是否改变政策客体】【安德森】</t>
   </si>
   <si>
     <t>是一种权威的价值分配方案</t>
   </si>
   <si>
+    <t>初始政策</t>
+  </si>
+  <si>
+    <t>符号性政策</t>
+  </si>
+  <si>
     <t>【政策协调】社会【生活方式】【安德森】</t>
   </si>
   <si>
     <t>可以是积极的也可以是消极的</t>
   </si>
   <si>
+    <t>限制</t>
+  </si>
+  <si>
+    <t>反馈政策</t>
+  </si>
+  <si>
     <t>是否改变客观对象</t>
   </si>
   <si>
+    <t>零和博弈</t>
+  </si>
+  <si>
     <t>西奥多洛维政策</t>
   </si>
   <si>
+    <t>非零和博弈</t>
+  </si>
+  <si>
     <t>政策结果</t>
   </si>
   <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>是否是元首决策</t>
+  </si>
+  <si>
     <t>政策属于【始创】还是【调整】</t>
   </si>
   <si>
+    <t>不确定</t>
+  </si>
+  <si>
+    <t>积极</t>
+  </si>
+  <si>
+    <t>能动</t>
+  </si>
+  <si>
+    <t>是否是司法决策</t>
+  </si>
+  <si>
     <t>政策结果的【可预测性】</t>
   </si>
   <si>
+    <t>风险</t>
+  </si>
+  <si>
+    <t>消极</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>执政党能否直接成为公共政策</t>
+  </si>
+  <si>
     <t>政策主体期望人们【行为】的范围</t>
   </si>
   <si>
-    <t>政策主体对政策问题发展所做的【预测】</t>
+    <t>竞争</t>
+  </si>
+  <si>
+    <t>【政策主体】对【政策问题】【发展】所做的【预测】</t>
+  </si>
+  <si>
+    <t>人民检察院，独立行使司法权力，不收行政机关干涉</t>
+  </si>
+  <si>
+    <t>立法</t>
+  </si>
+  <si>
+    <t>司法</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
+    <t>法律机关参与立法过程</t>
   </si>
   <si>
     <t>政策从形式上来划分：</t>
   </si>
   <si>
-    <t>政策权利横向种类</t>
+    <t>人大</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>最高人法，负责起草和司法审批有关的草案</t>
+  </si>
+  <si>
+    <t>【政策权利】【横向】种类</t>
+  </si>
+  <si>
+    <t>国家级元首</t>
+  </si>
+  <si>
+    <t>执行党政政策</t>
+  </si>
+  <si>
+    <t>最高检察院，负责起草，检查工作相关的糙汉</t>
   </si>
   <si>
     <t>由【政治体制决定】</t>
   </si>
   <si>
-    <t>政策从横向形式划分</t>
+    <t>国家行政机关，根据法定权利和职能做出的决定</t>
+  </si>
+  <si>
+    <t>司法机关实施过程中做出适用法律的决定</t>
+  </si>
+  <si>
+    <t>【政策】从【横向】形式划分</t>
+  </si>
+  <si>
+    <t>行政法规</t>
+  </si>
+  <si>
+    <t>行政措施</t>
+  </si>
+  <si>
+    <t>部门规章</t>
+  </si>
+  <si>
+    <t>法律解释是在法律实施过沉重具体解释法律内容的一种特殊活动</t>
   </si>
   <si>
     <t>行政决策</t>
   </si>
   <si>
+    <t>内阁</t>
+  </si>
+  <si>
+    <t>独立管理机构</t>
+  </si>
+  <si>
+    <t>其他独立机构</t>
+  </si>
+  <si>
+    <t>政府公司</t>
+  </si>
+  <si>
     <t>当代中国的行政决策几种形式</t>
   </si>
   <si>
+    <t>中央决策</t>
+  </si>
+  <si>
+    <t>都是国家意志的体现</t>
+  </si>
+  <si>
     <t>公共决策【横向形式构成】的主要【差别】</t>
   </si>
   <si>
-    <t>总统领导下的行政机构分为四类</t>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>调整人的行为规范</t>
+  </si>
+  <si>
+    <t>【总统领导下】的【行政机构】分为四类</t>
+  </si>
+  <si>
+    <t>基层</t>
+  </si>
+  <si>
+    <t>相同的文本</t>
   </si>
   <si>
     <t>中国司法决策</t>
   </si>
   <si>
+    <t>相同的程序</t>
+  </si>
+  <si>
     <t>美国的司法决策主要形式</t>
   </si>
   <si>
+    <t>主体相同</t>
+  </si>
+  <si>
     <t>中国纵向政策类型</t>
   </si>
   <si>
     <t>公共【政策】与【法】共同点</t>
   </si>
   <si>
+    <t>强制按规则进行，价值分配，资源配置，强调可行性（要做什么，怎么做）</t>
+  </si>
+  <si>
+    <t>法，强调就差矫正违规行为</t>
+  </si>
+  <si>
     <t>政策与法的差异：</t>
   </si>
   <si>
+    <t>政策执行者，行动机关，积极有为</t>
+  </si>
+  <si>
+    <t>管制</t>
+  </si>
+  <si>
     <t>侧重点不同</t>
   </si>
   <si>
+    <t>法执行者，司法机关，不搞不管</t>
+  </si>
+  <si>
+    <t>引导</t>
+  </si>
+  <si>
     <t>权利不同</t>
   </si>
   <si>
+    <t>政策对象的权力和以为未必对称</t>
+  </si>
+  <si>
+    <t>调控</t>
+  </si>
+  <si>
     <t>权利和义务</t>
   </si>
   <si>
+    <t>法的权力和义务统一体</t>
+  </si>
+  <si>
     <t>适用性</t>
   </si>
   <si>
+    <t>政策精神由于条文</t>
+  </si>
+  <si>
     <t>是否动用国家强制力</t>
   </si>
   <si>
+    <t>法强调适用性统一，法律条文由于精神</t>
+  </si>
+  <si>
     <t>稳定性，连续性相关</t>
   </si>
   <si>
+    <t>与法相比政策更灵活，对应变化</t>
+  </si>
+  <si>
+    <t>政治性，权威性，强制性</t>
+  </si>
+  <si>
     <t>干预范围相关</t>
   </si>
   <si>
+    <t>与法相比政策干预的范围更大</t>
+  </si>
+  <si>
+    <t>公共性与偏好性</t>
+  </si>
+  <si>
     <t>政策和法的相互关系</t>
   </si>
   <si>
+    <t>政策是法的来源和动力</t>
+  </si>
+  <si>
+    <t>应然和实然统一</t>
+  </si>
+  <si>
+    <t>法是政策的保障</t>
+  </si>
+  <si>
+    <t>回应和普遍统一</t>
+  </si>
+  <si>
     <t>公共政策的【基本功能】</t>
   </si>
   <si>
     <t>【政策】与【理论】关系</t>
   </si>
   <si>
+    <t>为了实现一定的政策目标，采取一些列的措施行动，以及配置人力，资金，设备，资源等的手段</t>
+  </si>
+  <si>
     <t>【政策】与【实践】关系</t>
   </si>
   <si>
     <t>政策的【社会本质】：【公共性】与【偏好性】的统一</t>
   </si>
   <si>
+    <t>二分法</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>非规则</t>
+  </si>
+  <si>
     <t>公共政策的【基本特征】</t>
   </si>
   <si>
+    <t>三分法</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
+    <t>强制</t>
+  </si>
+  <si>
     <t>什么是政策工具</t>
   </si>
   <si>
+    <t>四分法</t>
+  </si>
+  <si>
+    <t>委托</t>
+  </si>
+  <si>
+    <t>征税</t>
+  </si>
+  <si>
+    <t>说服</t>
+  </si>
+  <si>
     <t>政策工具的类型</t>
   </si>
   <si>
+    <t>公共政策是公共权力机关，为了一定的目标，进行的社会资源配置与分配</t>
+  </si>
+  <si>
+    <t>一定的目标</t>
+  </si>
+  <si>
     <t>【政策系统】与【政策行为者】的关系</t>
   </si>
   <si>
@@ -642,9 +939,6 @@
     <t>不拥有合法强制力，通过压力，舆论，私人影响公共政策</t>
   </si>
   <si>
-    <t>行政</t>
-  </si>
-  <si>
     <t>【政策支持】系统的构成</t>
   </si>
   <si>
@@ -658,9 +952,6 @@
   </si>
   <si>
     <t>直接，间接利益</t>
-  </si>
-  <si>
-    <t>司法</t>
   </si>
   <si>
     <t>现实未来利益</t>
@@ -979,7 +1270,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,12 +1281,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1036,6 +1321,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1044,9 +1351,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,36 +1405,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1119,45 +1435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1166,7 +1443,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,156 +1474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1351,7 +1486,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1570,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,6 +1665,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1437,15 +1731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1464,8 +1749,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,10 +1771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1498,137 +1783,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1647,9 +1932,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1979,21 +2261,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
@@ -2007,7 +2289,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -2021,7 +2303,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
@@ -2035,7 +2317,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
@@ -2049,7 +2331,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -2063,12 +2345,12 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
@@ -2079,7 +2361,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
@@ -2090,7 +2372,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H11" t="s">
@@ -2098,7 +2380,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J12" t="s">
@@ -2106,7 +2388,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J13" t="s">
@@ -2117,7 +2399,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
@@ -2128,7 +2410,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
@@ -2136,7 +2418,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I16" t="s">
@@ -2147,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
@@ -2155,17 +2437,17 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
@@ -2176,7 +2458,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
@@ -2190,7 +2472,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
@@ -2204,7 +2486,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
       <c r="K23" t="s">
@@ -2428,28 +2710,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
         <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2458,280 +2740,610 @@
       <c r="H2" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="T2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="R3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="13:18">
+      <c r="M6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>183</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>185</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5"/>
+      <c r="G21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>203</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>213</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>219</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>159</v>
+        <v>224</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>227</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5"/>
+      <c r="G34" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>233</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>239</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>241</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>243</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>245</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="5" t="s">
-        <v>172</v>
+        <v>251</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="7:11">
+      <c r="G44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>174</v>
+        <v>257</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="5" t="s">
-        <v>177</v>
+        <v>264</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2757,15 +3369,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2776,104 +3388,104 @@
         <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3"/>
       <c r="N4" s="2" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="3"/>
       <c r="U8" s="2" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>207</v>
+        <v>306</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -2881,61 +3493,61 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="O13" s="2" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>222</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>320</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2943,112 +3555,112 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="3" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="8:21">
       <c r="H19" s="2" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>238</v>
+        <v>335</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>244</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>249</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>256</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -3056,221 +3668,221 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="3" t="s">
-        <v>257</v>
+        <v>354</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="4" t="s">
-        <v>263</v>
+      <c r="A27" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>264</v>
+        <v>361</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>268</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="4" t="s">
-        <v>269</v>
+      <c r="A28" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="4" t="s">
-        <v>275</v>
+      <c r="A29" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>279</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="3" t="s">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="3" t="s">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>284</v>
+        <v>381</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>285</v>
+        <v>382</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="3" t="s">
-        <v>287</v>
+        <v>384</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="3" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>296</v>
+        <v>393</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>298</v>
+        <v>395</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>299</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="8:17">
       <c r="H35" s="2" t="s">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="8:17">
       <c r="H36" s="2" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>306</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" s="2" t="s">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>308</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="9:14">
       <c r="I38" s="2" t="s">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>310</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="9:14">
       <c r="I39" s="2" t="s">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" s="2" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" s="2" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" s="2" t="s">
-        <v>315</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" s="2" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD9C2DA-84CA-4F2B-BE16-65D632810420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
+    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
     <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
     <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
     <sheet name="政策过程及其理论模型" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="政策问题与议程设定" sheetId="5" r:id="rId5"/>
+    <sheet name="政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="389">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1086,19 +1093,145 @@
   </si>
   <si>
     <t>【约翰金登的模型理论】（三源流理论）</t>
+  </si>
+  <si>
+    <t>【政策目标】的【含义】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策目标】特征</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策目标的分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【公共政策】的【基本目标】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定政策目标】的意义</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【确定政策目标】原则</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划（整个过程阶段论）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策设计逻辑结构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策规划】与【政策设计】的关系</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策方案的设计原则</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策规划的模式与参考框架</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学习</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响政策学习的因素（成功失败的因素）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学习的类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策移植失败</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策的抉择主体</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共决策的抉择原则（不允许犯的低级错误）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证六大要素</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策论证的特殊形式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策抉择过程有3个环节</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议含义</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议方法预测性评估</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策审议可行性评估</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策采纳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策采纳内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的含义</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策的要素</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机决策与常规决策的联系</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,14 +1254,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1143,7 +1276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1156,345 +1289,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1502,253 +1320,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1779,62 +1355,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2092,164 +1627,163 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -2257,7 +1791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2271,7 +1805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +1822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2305,7 +1839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
@@ -2322,7 +1856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="13:18">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="M6" s="5" t="s">
         <v>44</v>
       </c>
@@ -2330,7 +1864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -2338,7 +1872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +1892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -2378,7 +1912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +1923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>63</v>
       </c>
@@ -2406,7 +1940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -2426,7 +1960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>72</v>
       </c>
@@ -2440,7 +1974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -2451,7 +1985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
@@ -2459,7 +1993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>80</v>
       </c>
@@ -2470,7 +2004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
@@ -2487,7 +2021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>88</v>
       </c>
@@ -2504,7 +2038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>93</v>
       </c>
@@ -2512,7 +2046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>95</v>
       </c>
@@ -2520,7 +2054,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="G21" s="5" t="s">
         <v>97</v>
@@ -2535,7 +2069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>101</v>
       </c>
@@ -2552,7 +2086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>106</v>
       </c>
@@ -2575,7 +2109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -2586,7 +2120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>113</v>
       </c>
@@ -2603,7 +2137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>118</v>
       </c>
@@ -2620,7 +2154,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>123</v>
       </c>
@@ -2631,7 +2165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>126</v>
       </c>
@@ -2642,7 +2176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
@@ -2653,7 +2187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>132</v>
       </c>
@@ -2661,7 +2195,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -2669,12 +2203,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>137</v>
       </c>
@@ -2682,13 +2216,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="G34" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>140</v>
       </c>
@@ -2699,7 +2233,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>143</v>
       </c>
@@ -2710,7 +2244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>146</v>
       </c>
@@ -2721,7 +2255,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>149</v>
       </c>
@@ -2732,7 +2266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>151</v>
       </c>
@@ -2740,7 +2274,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>153</v>
       </c>
@@ -2748,7 +2282,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>155</v>
       </c>
@@ -2759,7 +2293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>158</v>
       </c>
@@ -2770,7 +2304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>161</v>
       </c>
@@ -2781,7 +2315,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="7:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G44" s="5" t="s">
         <v>164</v>
       </c>
@@ -2789,12 +2323,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>167</v>
       </c>
@@ -2802,12 +2336,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>170</v>
       </c>
@@ -2821,7 +2355,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>174</v>
       </c>
@@ -2838,7 +2372,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>179</v>
       </c>
@@ -2858,48 +2392,47 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G52" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G53" s="5" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>188</v>
       </c>
@@ -2907,7 +2440,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>190</v>
       </c>
@@ -2927,7 +2460,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="N4" s="5" t="s">
         <v>195</v>
@@ -2942,7 +2475,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>199</v>
       </c>
@@ -2956,7 +2489,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>203</v>
       </c>
@@ -2967,7 +2500,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>206</v>
       </c>
@@ -2975,13 +2508,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="U8" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>209</v>
       </c>
@@ -3001,7 +2534,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>215</v>
       </c>
@@ -3015,10 +2548,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>218</v>
       </c>
@@ -3038,13 +2571,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="O13" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>224</v>
       </c>
@@ -3058,7 +2591,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>228</v>
       </c>
@@ -3069,7 +2602,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>231</v>
       </c>
@@ -3077,10 +2610,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>233</v>
       </c>
@@ -3100,7 +2633,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="8:21">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="H19" s="5" t="s">
         <v>239</v>
       </c>
@@ -3117,7 +2650,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>244</v>
       </c>
@@ -3137,7 +2670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>250</v>
       </c>
@@ -3148,7 +2681,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>253</v>
       </c>
@@ -3162,12 +2695,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>258</v>
       </c>
@@ -3190,10 +2723,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>265</v>
       </c>
@@ -3213,7 +2746,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>271</v>
       </c>
@@ -3236,7 +2769,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>278</v>
       </c>
@@ -3256,7 +2789,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>284</v>
       </c>
@@ -3273,7 +2806,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>289</v>
       </c>
@@ -3284,7 +2817,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>292</v>
       </c>
@@ -3298,7 +2831,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>296</v>
       </c>
@@ -3315,7 +2848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>301</v>
       </c>
@@ -3326,7 +2859,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>304</v>
       </c>
@@ -3343,7 +2876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="8:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H35" s="5" t="s">
         <v>309</v>
       </c>
@@ -3357,7 +2890,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="8:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H36" s="5" t="s">
         <v>313</v>
       </c>
@@ -3368,7 +2901,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="8:13">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H37" s="5" t="s">
         <v>316</v>
       </c>
@@ -3376,7 +2909,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="9:14">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I38" s="5" t="s">
         <v>318</v>
       </c>
@@ -3384,7 +2917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="9:14">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I39" s="5" t="s">
         <v>320</v>
       </c>
@@ -3392,230 +2925,411 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I40" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="14:14">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N41" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="14:14">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N42" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="14:14">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N43" s="5" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" ht="14.25"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>355</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FCFF7F-C96C-4BDA-8E55-4543C42A2F0C}">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD9C2DA-84CA-4F2B-BE16-65D632810420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1386B-D983-4B07-A601-210B93646A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="436">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1011,9 +1011,6 @@
     <t>模型的认识论意义</t>
   </si>
   <si>
-    <t>揭示【认识论本质】（决策者理性认识如何）的【政策过程】模型：</t>
-  </si>
-  <si>
     <t>【理性决策】模型</t>
   </si>
   <si>
@@ -1224,6 +1221,198 @@
   </si>
   <si>
     <t>危机决策与常规决策的联系</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过模型认识本质，对原型的运作发展做出预测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是科学抽象的重要工具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验观察收集资料的指南</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭示认识论本质（决策者理性认识如何）的【政策过程】模型：</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>理性决策</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策者依据完整和综合的信息做出决策，最大化原则，最优化原则</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本假设</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>面临一个问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得决策问题方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策结果可以预见</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种决策之间有可比性</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终选择最优</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值目标是明确的，我想要什么，不想要什么</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定了决策经验，建立在科学基础上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从应当如何决策的角度研究决策过程</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>很少又绝对理性的人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分有着自身利益</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>高估了推理和数学模型的作用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策者的全知全能假定不存在</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于解放自由的多元主义社会中</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对费多元主义国家布局解释力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有保守型，模型排除了政策创新的可能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留理性主义和渐进主义的优势，弥补缺点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入，决策，输出，反馈，不间断晕眩</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有解释力的宏观模型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是不分析政策具体的特征</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有认识到政策和制度的区别</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度虽然决定了正额的活动空间，但是无法限制政策的内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略其他重要因素的影响</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策过程是各级团影响政策的行为过程</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策是集团间的产物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策的关键问题是指定合理，合法的规则</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会分为有权少数，无权多数，资源由少数有权人决定</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>统治精英不代表多数人的利益</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非精英进入精英，要接受精英级别概念</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天集团基本天班一块</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治内容不反应名民众要求，只反映精英价值观</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指了权力在于少数精英</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视了共鸣力量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本原则，实事求是，从理论识记触发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策指定，从形而上到形而下的过程</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策执行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策过程的理性化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策过程的额专业化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策过程额科学化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策过程额民主化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1303,6 +1492,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1324,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1356,6 +1560,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2953,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2965,69 +3176,231 @@
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="Q2" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="I4" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="I5" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="Q6" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="I7" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="I8" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="J9" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="J10" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="J11" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="J12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="J13" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>338</v>
+      <c r="I14" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E15" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E16" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E17" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="J18" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="J19" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E20" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E21" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E22" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
+      <c r="E23" s="14" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -3056,47 +3429,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -3106,42 +3479,42 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3154,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FCFF7F-C96C-4BDA-8E55-4543C42A2F0C}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3165,167 +3538,167 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1386B-D983-4B07-A601-210B93646A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="491">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1011,416 +1005,506 @@
     <t>模型的认识论意义</t>
   </si>
   <si>
+    <t>保留理性主义和渐进主义的优势，弥补缺点</t>
+  </si>
+  <si>
+    <t>揭示认识论本质（决策者理性认识如何）的【政策过程】模型：</t>
+  </si>
+  <si>
+    <t>通过模型认识本质，对原型的运作发展做出预测</t>
+  </si>
+  <si>
     <t>【理性决策】模型</t>
   </si>
   <si>
+    <t>是科学抽象的重要工具</t>
+  </si>
+  <si>
+    <t>输入，决策，输出，反馈，不间断晕眩</t>
+  </si>
+  <si>
     <t>【渐进主义决策】模型</t>
   </si>
   <si>
+    <t>经验观察收集资料的指南</t>
+  </si>
+  <si>
+    <t>具有解释力的宏观模型</t>
+  </si>
+  <si>
     <t>【混合扫描】模型（奥奇奥尼）</t>
   </si>
   <si>
+    <t>但是不分析政策具体的特征</t>
+  </si>
+  <si>
     <t>【政治系统】模型（戴维伊斯顿）</t>
   </si>
   <si>
+    <t>理性决策</t>
+  </si>
+  <si>
+    <t>决策者依据完整和综合的信息做出决策，最大化原则，最优化原则</t>
+  </si>
+  <si>
+    <t>基本假设</t>
+  </si>
+  <si>
+    <t>面临一个问题</t>
+  </si>
+  <si>
+    <t>没有认识到政策和制度的区别</t>
+  </si>
+  <si>
     <t>揭示【社会本质的政策过程】模型：</t>
   </si>
   <si>
+    <t>价值目标是明确的，我想要什么，不想要什么</t>
+  </si>
+  <si>
+    <t>制度虽然决定了正额的活动空间，但是无法限制政策的内容</t>
+  </si>
+  <si>
     <t>【机构——制度】模型（应用最广泛，缺乏理论色彩的模型，托马斯戴伊）</t>
   </si>
   <si>
+    <t>获得决策问题方案</t>
+  </si>
+  <si>
+    <t>忽略其他重要因素的影响</t>
+  </si>
+  <si>
     <t>【集团】模型（戴维杜鲁门）</t>
   </si>
   <si>
+    <t>决策结果可以预见</t>
+  </si>
+  <si>
     <t>【精英】模型</t>
   </si>
   <si>
+    <t>各种决策之间有可比性</t>
+  </si>
+  <si>
+    <t>决策过程是各级团影响政策的行为过程</t>
+  </si>
+  <si>
     <t>上下来去，政策过程模型的构建</t>
   </si>
   <si>
+    <t>最终选择最优</t>
+  </si>
+  <si>
+    <t>决策是集团间的产物</t>
+  </si>
+  <si>
     <t>公共决策的【科学化】与【民主化】</t>
   </si>
   <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>否定了决策经验，建立在科学基础上</t>
+  </si>
+  <si>
+    <t>适用于解放自由的多元主义社会中</t>
+  </si>
+  <si>
+    <t>决策的关键问题是指定合理，合法的规则</t>
+  </si>
+  <si>
+    <t>基本原则，实事求是，从理论识记触发</t>
+  </si>
+  <si>
+    <t>从应当如何决策的角度研究决策过程</t>
+  </si>
+  <si>
+    <t>政策指定，从形而上到形而下的过程</t>
+  </si>
+  <si>
+    <t>社会分为有权少数，无权多数，资源由少数有权人决定</t>
+  </si>
+  <si>
+    <t>政策执行</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>很少又绝对理性的人</t>
+  </si>
+  <si>
+    <t>对费多元主义国家布局解释力</t>
+  </si>
+  <si>
+    <t>统治精英不代表多数人的利益</t>
+  </si>
+  <si>
+    <t>大部分有着自身利益</t>
+  </si>
+  <si>
+    <t>具有保守型，模型排除了政策创新的可能</t>
+  </si>
+  <si>
+    <t>非精英进入精英，要接受精英级别概念</t>
+  </si>
+  <si>
+    <t>高估了推理和数学模型的作用</t>
+  </si>
+  <si>
+    <t>今天集团基本天班一块</t>
+  </si>
+  <si>
+    <t>决策过程的理性化</t>
+  </si>
+  <si>
+    <t>决策者的全知全能假定不存在</t>
+  </si>
+  <si>
+    <t>政治内容不反应名民众要求，只反映精英价值观</t>
+  </si>
+  <si>
+    <t>决策过程的额专业化</t>
+  </si>
+  <si>
+    <t>戒指了权力在于少数精英</t>
+  </si>
+  <si>
+    <t>决策过程额科学化</t>
+  </si>
+  <si>
+    <t>忽视了共鸣力量</t>
+  </si>
+  <si>
+    <t>决策过程额民主化</t>
+  </si>
+  <si>
+    <t>一定数量的社会成员感知预期价值和目标与实现价值目标存在的差异</t>
+  </si>
+  <si>
     <t>私人问题</t>
   </si>
   <si>
+    <t>通过各种方式将其缩小的要求公之于众</t>
+  </si>
+  <si>
+    <t>边界分析法</t>
+  </si>
+  <si>
     <t>公共政策问题的基本内涵</t>
   </si>
   <si>
+    <t>争取社会支持，谋求政府关注解决</t>
+  </si>
+  <si>
+    <t>多角度问题</t>
+  </si>
+  <si>
+    <t>个人，组织，技术，多个角度来分析政策的方法</t>
+  </si>
+  <si>
     <t>【私人问题】到【政策问题】的【转化】</t>
   </si>
   <si>
+    <t>关联性，公共性</t>
+  </si>
+  <si>
+    <t>政府部门</t>
+  </si>
+  <si>
+    <t>层次分析</t>
+  </si>
+  <si>
+    <t>可能原因，合理原因，客诉原因</t>
+  </si>
+  <si>
     <t>政策问题的基本属性</t>
   </si>
   <si>
-    <t>政策问题的【分类】（选择题，看书）</t>
+    <t>客观性，主观性</t>
+  </si>
+  <si>
+    <t>实际状态与期望之间的差距</t>
+  </si>
+  <si>
+    <t>政治任务</t>
+  </si>
+  <si>
+    <t>头脑风暴</t>
+  </si>
+  <si>
+    <t>组件团队，一键铲除，评估，排序</t>
+  </si>
+  <si>
+    <t>政策问题的【分类】（选择题，看书）：</t>
+  </si>
+  <si>
+    <t>历史性，动态性</t>
+  </si>
+  <si>
+    <t>政党组织</t>
+  </si>
+  <si>
+    <t>假设分析</t>
+  </si>
+  <si>
+    <t>对可能出现的冲突，进行理论假设</t>
   </si>
   <si>
     <t>【政策问题】的【结构】</t>
   </si>
   <si>
+    <t>客观事物和问题的情景存在什么矛盾</t>
+  </si>
+  <si>
+    <t>大众</t>
+  </si>
+  <si>
+    <t>类别分析</t>
+  </si>
+  <si>
     <t>【政策问题】发生的【领域】</t>
   </si>
   <si>
+    <t>优良</t>
+  </si>
+  <si>
+    <t>问题的茶君</t>
+  </si>
+  <si>
+    <t>利益集团</t>
+  </si>
+  <si>
     <t>作用范围</t>
   </si>
   <si>
+    <t>适度</t>
+  </si>
+  <si>
+    <t>全国</t>
+  </si>
+  <si>
+    <t>显示与利益期望的冲突</t>
+  </si>
+  <si>
+    <t>功名和社会</t>
+  </si>
+  <si>
+    <t>公共问题，收到政府的重视</t>
+  </si>
+  <si>
     <t>提出公共问题的主体（由谁提出，8类）</t>
   </si>
   <si>
+    <t>不良</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>团体和组织活动</t>
+  </si>
+  <si>
+    <t>被纳入政策讨论的过程</t>
+  </si>
+  <si>
+    <t>政府或社会公共组织的必要政策行动</t>
+  </si>
+  <si>
     <t>问题认定的含义</t>
   </si>
   <si>
     <t>问题认定的方法</t>
   </si>
   <si>
+    <t>政府，民间组织，利益集团组成的，对政策而过程有影响的政策社群</t>
+  </si>
+  <si>
     <t>问题认定的步骤</t>
   </si>
   <si>
+    <t>利益性</t>
+  </si>
+  <si>
     <t>公共政策议程</t>
   </si>
   <si>
+    <t>系统议程</t>
+  </si>
+  <si>
+    <t>政府影城</t>
+  </si>
+  <si>
+    <t>混合型</t>
+  </si>
+  <si>
     <t>公共政策议程类型</t>
   </si>
   <si>
+    <t>一件幸</t>
+  </si>
+  <si>
     <t>进入【政策议程】的【条件】和【障碍】（那些问题能进议程，哪些不能进）</t>
   </si>
   <si>
     <t>【政策议程】【确立过程】的模型</t>
   </si>
   <si>
+    <t>需要有公共政策来解决的公共问题，进行性质，范围，设计领域，相关利益关系的界定过程</t>
+  </si>
+  <si>
     <t>【约翰金登的模型理论】（三源流理论）</t>
   </si>
   <si>
+    <t>外在创世魔性</t>
+  </si>
+  <si>
+    <t>动员模型</t>
+  </si>
+  <si>
+    <t>进入政策议程条件</t>
+  </si>
+  <si>
+    <t>内在创世魔性</t>
+  </si>
+  <si>
+    <t>问题明朗严重</t>
+  </si>
+  <si>
+    <t>正常民主开放的察觉机制与过程</t>
+  </si>
+  <si>
+    <t>问题六</t>
+  </si>
+  <si>
+    <t>正值柳</t>
+  </si>
+  <si>
+    <t>问题不清楚</t>
+  </si>
+  <si>
+    <t>没有观察有安中兴</t>
+  </si>
+  <si>
+    <t>没有民主开放的过程</t>
+  </si>
+  <si>
+    <t>表达不清楚</t>
+  </si>
+  <si>
+    <t>政策问题不符合得利者的价值规范</t>
+  </si>
+  <si>
     <t>【政策目标】的【含义】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>【政策目标】特征</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策目标的分类</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>【公共政策】的【基本目标】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>【确定政策目标】的意义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>【确定政策目标】原则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策规划（整个过程阶段论）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策设计逻辑结构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>【政策规划】与【政策设计】的关系</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策方案的设计原则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策规划的模式与参考框架</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策学习</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>影响政策学习的因素（成功失败的因素）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策学习的类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策移植</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策移植类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策移植失败</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公共政策的抉择主体</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公共决策的抉择原则（不允许犯的低级错误）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策论证六大要素</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策论证的特殊形式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策抉择过程有3个环节</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策审议含义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策审议方法</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策审议方法预测性评估</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策审议可行性评估</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策采纳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>政策采纳内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>危机决策的含义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>危机决策的要素</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>危机决策与常规决策的联系</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过模型认识本质，对原型的运作发展做出预测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是科学抽象的重要工具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验观察收集资料的指南</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭示认识论本质（决策者理性认识如何）的【政策过程】模型：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>理性决策</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策者依据完整和综合的信息做出决策，最大化原则，最优化原则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本假设</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>面临一个问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得决策问题方案</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策结果可以预见</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种决策之间有可比性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终选择最优</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值目标是明确的，我想要什么，不想要什么</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>优点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>否定了决策经验，建立在科学基础上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>从应当如何决策的角度研究决策过程</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>很少又绝对理性的人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分有着自身利益</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>高估了推理和数学模型的作用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策者的全知全能假定不存在</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用于解放自由的多元主义社会中</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>对费多元主义国家布局解释力</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有保守型，模型排除了政策创新的可能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留理性主义和渐进主义的优势，弥补缺点</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入，决策，输出，反馈，不间断晕眩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有解释力的宏观模型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是不分析政策具体的特征</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有认识到政策和制度的区别</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>制度虽然决定了正额的活动空间，但是无法限制政策的内容</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略其他重要因素的影响</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策过程是各级团影响政策的行为过程</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策是集团间的产物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策的关键问题是指定合理，合法的规则</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会分为有权少数，无权多数，资源由少数有权人决定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>统治精英不代表多数人的利益</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非精英进入精英，要接受精英级别概念</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天集团基本天班一块</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治内容不反应名民众要求，只反映精英价值观</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指了权力在于少数精英</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽视了共鸣力量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本原则，实事求是，从理论识记触发</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策指定，从形而上到形而下的过程</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策执行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策过程的理性化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策过程的额专业化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策过程额科学化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策过程额民主化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1516,33 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1478,45 +1589,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1524,63 +1935,348 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1838,1871 +2534,2068 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="M6" s="5" t="s">
+    <row r="6" spans="13:18">
+      <c r="M6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="G21" s="5" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="11"/>
+      <c r="G21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="G34" s="5" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="G34" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G44" s="5" t="s">
+    <row r="44" spans="7:11">
+      <c r="G44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G52" s="5" t="s">
+    <row r="52" spans="7:7">
+      <c r="G52" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G53" s="5" t="s">
+    <row r="53" spans="7:7">
+      <c r="G53" s="4" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="N4" s="5" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="9"/>
+      <c r="N4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="U8" s="5" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="9"/>
+      <c r="U8" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="O13" s="5" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="O13" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="H19" s="5" t="s">
+    <row r="19" spans="8:21">
+      <c r="H19" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:21">
+      <c r="A20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:21">
+      <c r="A21" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:22">
+      <c r="A24" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:22">
+      <c r="A27" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:22">
+      <c r="A28" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:17">
+      <c r="A30" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:17">
+      <c r="A31" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:17">
+      <c r="A34" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H35" s="5" t="s">
+    <row r="35" spans="8:17">
+      <c r="H35" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H36" s="5" t="s">
+    <row r="36" spans="8:17">
+      <c r="H36" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H37" s="5" t="s">
+    <row r="37" spans="8:13">
+      <c r="H37" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I38" s="5" t="s">
+    <row r="38" spans="9:14">
+      <c r="I38" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I39" s="5" t="s">
+    <row r="39" spans="9:14">
+      <c r="I39" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I40" s="5" t="s">
+    <row r="40" spans="9:9">
+      <c r="I40" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N41" s="5" t="s">
+    <row r="41" spans="14:14">
+      <c r="N41" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N42" s="5" t="s">
+    <row r="42" spans="14:14">
+      <c r="N42" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N43" s="5" t="s">
+    <row r="43" spans="14:14">
+      <c r="N43" s="4" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="Q2" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="I3" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:17">
       <c r="A8" s="2"/>
-      <c r="I8" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E15" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E16" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E17" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="J18" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="J19" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E20" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E21" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E22" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E23" s="14" t="s">
-        <v>435</v>
+        <v>345</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18">
+      <c r="E16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="5:18">
+      <c r="E17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="10:18">
+      <c r="J18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18">
+      <c r="J19" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18">
+      <c r="E20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18">
+      <c r="E21" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18">
+      <c r="E22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="I1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" t="s">
+        <v>391</v>
+      </c>
+      <c r="N3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>354</v>
+      <c r="Q3" t="s">
+        <v>392</v>
+      </c>
+      <c r="S3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" t="s">
+        <v>395</v>
+      </c>
+      <c r="N4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>397</v>
+      </c>
+      <c r="S4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>401</v>
+      </c>
+      <c r="N5" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>403</v>
+      </c>
+      <c r="S5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>408</v>
+      </c>
+      <c r="S6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I7" t="s">
+        <v>411</v>
+      </c>
+      <c r="N7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" t="s">
+        <v>416</v>
+      </c>
+      <c r="N8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" t="s">
+        <v>421</v>
+      </c>
+      <c r="N9" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I10" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="I14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>448</v>
+      </c>
+      <c r="I21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FCFF7F-C96C-4BDA-8E55-4543C42A2F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>387</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="559">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1398,100 +1398,304 @@
     <t>【政策目标】的【含义】</t>
   </si>
   <si>
+    <t>解决特定的政策问题采取的行动和目标，指标</t>
+  </si>
+  <si>
+    <t>公平</t>
+  </si>
+  <si>
+    <t>实事求是</t>
+  </si>
+  <si>
     <t>【政策目标】特征</t>
   </si>
   <si>
-    <t>政策目标的分类</t>
+    <t>问题正对性，不能脱离政策目标</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>面向未来</t>
+  </si>
+  <si>
+    <t>政策目标的分类（目标地位，时间，空间，政策领域，服务主体）</t>
+  </si>
+  <si>
+    <t>未来的预见性，随便环境辩护</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>系统协调</t>
   </si>
   <si>
     <t>【公共政策】的【基本目标】</t>
   </si>
   <si>
+    <t>目标的多元性</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>明确具体</t>
+  </si>
+  <si>
     <t>【确定政策目标】的意义</t>
   </si>
   <si>
+    <t>伦理考量</t>
+  </si>
+  <si>
     <t>【确定政策目标】原则</t>
   </si>
   <si>
+    <t>为制定方案提供方向性的知道</t>
+  </si>
+  <si>
+    <t>政府面临问题的性质，别人的问题和我们的问题是否一直</t>
+  </si>
+  <si>
+    <t>井口目标</t>
+  </si>
+  <si>
+    <t>组织内部文化价值</t>
+  </si>
+  <si>
     <t>政策规划（整个过程阶段论）</t>
   </si>
   <si>
+    <t>多重方案</t>
+  </si>
+  <si>
+    <t>为规划提供评估标准</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
     <t>政策设计</t>
   </si>
   <si>
+    <t>彼此独立</t>
+  </si>
+  <si>
     <t>政策设计逻辑结构</t>
   </si>
   <si>
+    <t>切实可行</t>
+  </si>
+  <si>
+    <t>为了解决政策问题，实现曾策目标，公共权力机关，组织李爱玲草拟方案的过程</t>
+  </si>
+  <si>
     <t>【政策规划】与【政策设计】的关系</t>
   </si>
   <si>
+    <t>床型</t>
+  </si>
+  <si>
+    <t>政策分析者，通过探讨问题，组合要素，产生反感，解决问题的贵哦陈</t>
+  </si>
+  <si>
     <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
   </si>
   <si>
     <t>政策方案的设计原则</t>
   </si>
   <si>
+    <t>基本要素</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>政策规划是政策过程阶段的概念</t>
+  </si>
+  <si>
     <t>政策规划的模式与参考框架</t>
   </si>
   <si>
+    <t>人群</t>
+  </si>
+  <si>
+    <t>政策设计是政策贵哦陈中的理论概念</t>
+  </si>
+  <si>
     <t>政策学习</t>
   </si>
   <si>
+    <t>信息不全的一直</t>
+  </si>
+  <si>
+    <t>执行机构</t>
+  </si>
+  <si>
     <t>影响政策学习的因素（成功失败的因素）</t>
   </si>
   <si>
+    <t>不当的一直</t>
+  </si>
+  <si>
+    <t>法规</t>
+  </si>
+  <si>
+    <t>政府主导</t>
+  </si>
+  <si>
     <t>政策学习的类型</t>
   </si>
   <si>
+    <t>不完全的一直</t>
+  </si>
+  <si>
+    <t>主体多元化</t>
+  </si>
+  <si>
     <t>政策移植</t>
   </si>
   <si>
+    <t>尊重科学分析的价值</t>
+  </si>
+  <si>
+    <t>要素联系机构</t>
+  </si>
+  <si>
+    <t>采用其他国建的公共政策，解决本国的问题</t>
+  </si>
+  <si>
     <t>政策移植类型</t>
   </si>
   <si>
+    <t>考虑各方利益的平衡</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>全修信息化是移植增加的重要原因</t>
+  </si>
+  <si>
     <t>政策移植失败</t>
   </si>
   <si>
+    <t>发挥决策能动性的作用</t>
+  </si>
+  <si>
+    <t>嘉定</t>
+  </si>
+  <si>
+    <t>可以发生在政策过程的额各个阶段</t>
+  </si>
+  <si>
+    <t>遵照有关程序的对顶</t>
+  </si>
+  <si>
     <t>公共政策的抉择主体</t>
   </si>
   <si>
+    <t>一直对象是政策卖不了，政策内容</t>
+  </si>
+  <si>
     <t>公共决策的抉择原则（不允许犯的低级错误）</t>
   </si>
   <si>
     <t>政策论证六大要素</t>
   </si>
   <si>
+    <t>政策制定者，参考借鉴其他部门的制定方案，从中学习的贵哦陈</t>
+  </si>
+  <si>
     <t>政策论证的特殊形式</t>
   </si>
   <si>
+    <t>政策探究</t>
+  </si>
+  <si>
+    <t>围绕政策议题和政策方案的贵哦陈</t>
+  </si>
+  <si>
     <t>政策抉择过程有3个环节</t>
   </si>
   <si>
+    <t>从哥哥方案中，进行比较，选择最优方案，对方案评估，行程文本</t>
+  </si>
+  <si>
     <t>政策审议含义</t>
   </si>
   <si>
+    <t>政策对话</t>
+  </si>
+  <si>
+    <t>自言自语，双向沟通</t>
+  </si>
+  <si>
     <t>政策审议方法</t>
   </si>
   <si>
     <t>政策审议方法预测性评估</t>
   </si>
   <si>
+    <t>从标准看</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
     <t>政策审议可行性评估</t>
   </si>
   <si>
+    <t>从步骤看</t>
+  </si>
+  <si>
+    <t>选择主体依据法律，通过法律程序，对政策进行审批，部署，发布</t>
+  </si>
+  <si>
     <t>政策采纳</t>
   </si>
   <si>
+    <t>从防范看</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
     <t>政策采纳内容</t>
   </si>
   <si>
+    <t>内容合法</t>
+  </si>
+  <si>
+    <t>具有不可逆，资源有限，时间有限的基础上做出反应</t>
+  </si>
+  <si>
+    <t>决策问题的发展具有突发性</t>
+  </si>
+  <si>
     <t>危机决策的含义</t>
   </si>
   <si>
+    <t>时间信息有限</t>
+  </si>
+  <si>
+    <t>程序合法</t>
+  </si>
+  <si>
     <t>危机决策的要素</t>
   </si>
   <si>
+    <t>危机根本利益</t>
+  </si>
+  <si>
+    <t>行政系统决策程序</t>
+  </si>
+  <si>
     <t>危机决策与常规决策的联系</t>
+  </si>
+  <si>
+    <t>立法系统决策程序</t>
   </si>
 </sst>
 </file>
@@ -1499,25 +1703,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1548,19 +1745,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1590,7 +1774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,15 +1782,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1620,21 +1796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1642,30 +1804,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1680,9 +1826,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,24 +1842,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1718,8 +1879,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1732,6 +1901,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1742,7 +1926,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,31 +1980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,7 +2004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,25 +2016,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,25 +2070,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,61 +2100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,11 +2120,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1956,6 +2161,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,47 +2200,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2039,10 +2223,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2051,174 +2235,170 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2548,124 +2728,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2687,631 +2867,631 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="13:18">
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="11"/>
-      <c r="G21" s="4" t="s">
+      <c r="A21" s="9"/>
+      <c r="G21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="G34" s="4" t="s">
+      <c r="A34" s="9"/>
+      <c r="G34" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="44" spans="7:11">
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3332,525 +3512,525 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="9"/>
-      <c r="N4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="N4" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="9"/>
-      <c r="U8" s="4" t="s">
+      <c r="A8" s="8"/>
+      <c r="U8" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="9"/>
-      <c r="O13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="O13" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="8:21">
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="R19" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="T27" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="V27" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="5" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="35" spans="8:17">
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="36" spans="8:17">
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="37" spans="8:13">
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="38" spans="9:14">
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="39" spans="9:14">
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="5" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="40" spans="9:9">
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="41" spans="14:14">
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="42" spans="14:14">
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="5" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="43" spans="14:14">
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3871,234 +4051,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:17">
-      <c r="A8" s="2"/>
-      <c r="I8" s="7" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:17">
+      <c r="A8" s="3"/>
+      <c r="I8" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="5" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="16" spans="5:18">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="17" spans="5:18">
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="10:18">
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="19" spans="10:18">
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="20" spans="5:18">
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="5" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="21" spans="5:18">
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="5" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="22" spans="5:18">
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4113,17 +4293,17 @@
   <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I1" t="s">
@@ -4131,7 +4311,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>387</v>
       </c>
       <c r="I2" t="s">
@@ -4142,7 +4322,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>390</v>
       </c>
       <c r="I3" t="s">
@@ -4159,7 +4339,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>394</v>
       </c>
       <c r="F4" t="s">
@@ -4176,7 +4356,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="s">
@@ -4196,7 +4376,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>405</v>
       </c>
       <c r="F6" t="s">
@@ -4213,7 +4393,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>410</v>
       </c>
       <c r="I7" t="s">
@@ -4227,7 +4407,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>414</v>
       </c>
       <c r="F8" t="s">
@@ -4244,7 +4424,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>418</v>
       </c>
       <c r="F9" t="s">
@@ -4264,7 +4444,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>424</v>
       </c>
       <c r="F10" t="s">
@@ -4281,7 +4461,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>209</v>
       </c>
       <c r="G11" t="s">
@@ -4292,12 +4472,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>431</v>
       </c>
       <c r="I13" t="s">
@@ -4305,7 +4485,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>433</v>
       </c>
       <c r="I14" t="s">
@@ -4313,7 +4493,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>435</v>
       </c>
       <c r="F15" t="s">
@@ -4327,7 +4507,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>439</v>
       </c>
       <c r="I16" t="s">
@@ -4335,12 +4515,12 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>442</v>
       </c>
       <c r="I18" t="s">
@@ -4348,7 +4528,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>444</v>
       </c>
       <c r="E19" t="s">
@@ -4418,10 +4598,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4429,169 +4609,400 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="I1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="N1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="O1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="I2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="N2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="O2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="I3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="N3" t="s">
         <v>468</v>
       </c>
+      <c r="O3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I4" t="s">
+        <v>471</v>
+      </c>
+      <c r="N4" t="s">
+        <v>472</v>
+      </c>
+      <c r="O4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="O5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2"/>
+      <c r="G7" t="s">
+        <v>479</v>
+      </c>
+      <c r="R7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" t="s">
+        <v>482</v>
+      </c>
+      <c r="I8" t="s">
+        <v>483</v>
+      </c>
+      <c r="R8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" t="s">
+        <v>488</v>
+      </c>
+      <c r="I10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I11" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>471</v>
+      <c r="A12" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I13" t="s">
+        <v>495</v>
+      </c>
+      <c r="K13" t="s">
+        <v>496</v>
+      </c>
+      <c r="M13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K14" t="s">
+        <v>499</v>
+      </c>
+      <c r="M14" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>475</v>
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" t="s">
+        <v>505</v>
+      </c>
+      <c r="K17" t="s">
+        <v>506</v>
+      </c>
+      <c r="M17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E18" t="s">
+        <v>509</v>
+      </c>
+      <c r="M18" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>481</v>
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F20" t="s">
+        <v>512</v>
+      </c>
+      <c r="I20" t="s">
+        <v>513</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F21" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" t="s">
+        <v>517</v>
+      </c>
+      <c r="O21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" t="s">
+        <v>520</v>
+      </c>
+      <c r="K22" t="s">
+        <v>521</v>
+      </c>
+      <c r="O22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="F23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O24" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>482</v>
+      <c r="A25" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>487</v>
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E28" t="s">
+        <v>530</v>
+      </c>
+      <c r="F28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E30" t="s">
+        <v>535</v>
+      </c>
+      <c r="F30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>490</v>
+      <c r="A31" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" t="s">
+        <v>539</v>
+      </c>
+      <c r="G32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E34" t="s">
+        <v>545</v>
+      </c>
+      <c r="G34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>548</v>
+      </c>
+      <c r="K35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="D36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D37" t="s">
+        <v>552</v>
+      </c>
+      <c r="I37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D38" t="s">
+        <v>555</v>
+      </c>
+      <c r="I38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I39" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="753" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="公共政策的学科要素" sheetId="1" r:id="rId1"/>
-    <sheet name="公共政策与政策工具" sheetId="2" r:id="rId2"/>
-    <sheet name="政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
-    <sheet name="政策过程及其理论模型" sheetId="4" r:id="rId4"/>
-    <sheet name="政策问题与议程设定" sheetId="5" r:id="rId5"/>
-    <sheet name="政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
+    <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
+    <sheet name="2.公共政策与政策工具" sheetId="2" r:id="rId2"/>
+    <sheet name="3.政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
+    <sheet name="4.政策过程及其理论模型" sheetId="4" r:id="rId4"/>
+    <sheet name="5.政策问题与议程设定" sheetId="5" r:id="rId5"/>
+    <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
+    <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
+    <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="633">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1696,6 +1698,228 @@
   </si>
   <si>
     <t>立法系统决策程序</t>
+  </si>
+  <si>
+    <t>公共政策执行的含义</t>
+  </si>
+  <si>
+    <t>公共政策的特点</t>
+  </si>
+  <si>
+    <t>公共政策的作用</t>
+  </si>
+  <si>
+    <t>“上下来去”模型含义</t>
+  </si>
+  <si>
+    <t>“上下来去”模型内涵</t>
+  </si>
+  <si>
+    <t>给予西方经验的政策执行理论模型：</t>
+  </si>
+  <si>
+    <t>过程模型（史密斯模型）影响政策执行的因素</t>
+  </si>
+  <si>
+    <t>循环模型政策执行要经历三个阶段</t>
+  </si>
+  <si>
+    <t>循环模型政策执行要经历三个原则</t>
+  </si>
+  <si>
+    <t>循环模型政策执行</t>
+  </si>
+  <si>
+    <t>系统模型（霍恩，米特模型）影响政策执行的5个变量</t>
+  </si>
+  <si>
+    <t>政策执行机关的特性</t>
+  </si>
+  <si>
+    <t>公共政策执行力含义</t>
+  </si>
+  <si>
+    <t>公共政策执行力影响因素</t>
+  </si>
+  <si>
+    <t>创新政策执行力的机制</t>
+  </si>
+  <si>
+    <t>影响公共政策执行的主要原因：</t>
+  </si>
+  <si>
+    <t>政策本身</t>
+  </si>
+  <si>
+    <t>执行主体执行组织</t>
+  </si>
+  <si>
+    <t>执行主体执行人员</t>
+  </si>
+  <si>
+    <t>政策对象特点</t>
+  </si>
+  <si>
+    <t>政策对象影响政策执行</t>
+  </si>
+  <si>
+    <t>政策环境</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差及其矫正：</t>
+  </si>
+  <si>
+    <t>政策失灵类型：</t>
+  </si>
+  <si>
+    <t>以失灵时间为准：</t>
+  </si>
+  <si>
+    <t>以失灵程度为准：</t>
+  </si>
+  <si>
+    <t>以持续性为准：</t>
+  </si>
+  <si>
+    <t>什么是公共政策执行偏差</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差表现形式</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差的矫正</t>
+  </si>
+  <si>
+    <t>公共政策的无效执行与有效执行：</t>
+  </si>
+  <si>
+    <t>政策失灵的含义</t>
+  </si>
+  <si>
+    <t>政策无效执行的含义</t>
+  </si>
+  <si>
+    <t>为什么会出现无效执行</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的原则</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的机制</t>
+  </si>
+  <si>
+    <t>公共政策评估的作用，主体与类型：</t>
+  </si>
+  <si>
+    <t>什么是公共政策评估含义</t>
+  </si>
+  <si>
+    <t>公共政策评估的目的</t>
+  </si>
+  <si>
+    <t>公共政策评估的作用</t>
+  </si>
+  <si>
+    <t>公共政策评估的主体</t>
+  </si>
+  <si>
+    <t>政策制定者和执行者评估结构表现为</t>
+  </si>
+  <si>
+    <t>公共政策额评估的类型</t>
+  </si>
+  <si>
+    <t>正式评估特点</t>
+  </si>
+  <si>
+    <t>内部评估</t>
+  </si>
+  <si>
+    <t>外部评估</t>
+  </si>
+  <si>
+    <t>不受委托进行的评估包括哪些</t>
+  </si>
+  <si>
+    <t>预评估主要有五方面内容</t>
+  </si>
+  <si>
+    <t>公共政策评估的内容</t>
+  </si>
+  <si>
+    <t>公共政策评估的过程，标准与影响因素：</t>
+  </si>
+  <si>
+    <t>公共政策评估的过程</t>
+  </si>
+  <si>
+    <t>评估筹划解决的问题</t>
+  </si>
+  <si>
+    <t>公共政策评估的标准</t>
+  </si>
+  <si>
+    <t>事实标准包含哪些</t>
+  </si>
+  <si>
+    <t>政策效率衡量标准</t>
+  </si>
+  <si>
+    <t>技术标准内容</t>
+  </si>
+  <si>
+    <t>价值标准包括那些</t>
+  </si>
+  <si>
+    <t>影响公共政策评估的主要原因</t>
+  </si>
+  <si>
+    <t>公共政策评估的方法：</t>
+  </si>
+  <si>
+    <t>以定量分析为主的评估方法</t>
+  </si>
+  <si>
+    <t>政策指标体系三类价值取向</t>
+  </si>
+  <si>
+    <t>回归分析法</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法含义</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法程序</t>
+  </si>
+  <si>
+    <t>公共政策监控的含义</t>
+  </si>
+  <si>
+    <t>政策监控内容</t>
+  </si>
+  <si>
+    <t>公共政策监控的类型</t>
+  </si>
+  <si>
+    <t>实施时间</t>
+  </si>
+  <si>
+    <t>监控的频率</t>
+  </si>
+  <si>
+    <t>参与程度</t>
+  </si>
+  <si>
+    <t>公共政策监控的功能（为什么要对政策进行监控）</t>
+  </si>
+  <si>
+    <t>公共政策监控机制的构成：</t>
+  </si>
+  <si>
+    <t>内部监控机制（通过监控方向）</t>
+  </si>
+  <si>
+    <t>监控过程</t>
   </si>
 </sst>
 </file>
@@ -1704,11 +1928,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1719,6 +1943,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1773,13 +2003,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1788,8 +2011,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1802,39 +2056,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,22 +2088,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,6 +2102,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1894,24 +2140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1926,25 +2156,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,37 +2198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,55 +2210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,31 +2228,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,7 +2288,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,17 +2365,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2165,21 +2413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2191,20 +2424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2223,10 +2453,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2235,170 +2465,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2728,124 +2965,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2867,631 +3104,631 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="13:18">
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="9"/>
-      <c r="G21" s="5" t="s">
+      <c r="A21" s="12"/>
+      <c r="G21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
-      <c r="G34" s="5" t="s">
+      <c r="A34" s="12"/>
+      <c r="G34" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="44" spans="7:11">
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3512,525 +3749,525 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="8"/>
-      <c r="N4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="N4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="8"/>
-      <c r="U8" s="5" t="s">
+      <c r="A8" s="11"/>
+      <c r="U8" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="8"/>
-      <c r="O13" s="5" t="s">
+      <c r="A13" s="11"/>
+      <c r="O13" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="19" spans="8:21">
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="V24" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="8" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="8" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="35" spans="8:17">
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="36" spans="8:17">
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="37" spans="8:13">
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="38" spans="9:14">
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="39" spans="9:14">
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="40" spans="9:9">
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="41" spans="14:14">
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="42" spans="14:14">
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="43" spans="14:14">
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="8" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4051,234 +4288,234 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="8" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="1:17">
-      <c r="A8" s="3"/>
-      <c r="I8" s="5" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:17">
+      <c r="A8" s="6"/>
+      <c r="I8" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="8" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="8" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="15" spans="5:10">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="8" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="16" spans="5:18">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="17" spans="5:18">
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="10:18">
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="19" spans="10:18">
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="8" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="20" spans="5:18">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="21" spans="5:18">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="22" spans="5:18">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4299,11 +4536,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I1" t="s">
@@ -4311,7 +4548,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>387</v>
       </c>
       <c r="I2" t="s">
@@ -4322,7 +4559,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>390</v>
       </c>
       <c r="I3" t="s">
@@ -4339,7 +4576,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>394</v>
       </c>
       <c r="F4" t="s">
@@ -4356,7 +4593,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="s">
@@ -4376,7 +4613,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>405</v>
       </c>
       <c r="F6" t="s">
@@ -4393,7 +4630,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>410</v>
       </c>
       <c r="I7" t="s">
@@ -4407,7 +4644,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>414</v>
       </c>
       <c r="F8" t="s">
@@ -4424,7 +4661,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>418</v>
       </c>
       <c r="F9" t="s">
@@ -4444,7 +4681,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>424</v>
       </c>
       <c r="F10" t="s">
@@ -4461,7 +4698,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G11" t="s">
@@ -4472,12 +4709,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>431</v>
       </c>
       <c r="I13" t="s">
@@ -4485,7 +4722,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>433</v>
       </c>
       <c r="I14" t="s">
@@ -4493,7 +4730,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>435</v>
       </c>
       <c r="F15" t="s">
@@ -4507,7 +4744,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>439</v>
       </c>
       <c r="I16" t="s">
@@ -4515,12 +4752,12 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>442</v>
       </c>
       <c r="I18" t="s">
@@ -4528,7 +4765,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>444</v>
       </c>
       <c r="E19" t="s">
@@ -4600,413 +4837,825 @@
   <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" t="s">
+        <v>463</v>
+      </c>
+      <c r="N2" t="s">
+        <v>464</v>
+      </c>
+      <c r="O2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I3" t="s">
+        <v>467</v>
+      </c>
+      <c r="N3" t="s">
+        <v>468</v>
+      </c>
+      <c r="O3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I4" t="s">
+        <v>471</v>
+      </c>
+      <c r="N4" t="s">
+        <v>472</v>
+      </c>
+      <c r="O4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="O5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="5"/>
+      <c r="G7" t="s">
+        <v>479</v>
+      </c>
+      <c r="R7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" t="s">
+        <v>482</v>
+      </c>
+      <c r="I8" t="s">
+        <v>483</v>
+      </c>
+      <c r="R8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" t="s">
+        <v>488</v>
+      </c>
+      <c r="I10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G11" t="s">
+        <v>491</v>
+      </c>
+      <c r="I11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="I13" t="s">
+        <v>495</v>
+      </c>
+      <c r="K13" t="s">
+        <v>496</v>
+      </c>
+      <c r="M13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="K14" t="s">
+        <v>499</v>
+      </c>
+      <c r="M14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E16" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" t="s">
+        <v>505</v>
+      </c>
+      <c r="K17" t="s">
+        <v>506</v>
+      </c>
+      <c r="M17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E18" t="s">
+        <v>509</v>
+      </c>
+      <c r="M18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F20" t="s">
+        <v>512</v>
+      </c>
+      <c r="I20" t="s">
+        <v>513</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F21" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" t="s">
+        <v>517</v>
+      </c>
+      <c r="O21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" t="s">
+        <v>520</v>
+      </c>
+      <c r="K22" t="s">
+        <v>521</v>
+      </c>
+      <c r="O22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="F23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="O24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E28" t="s">
+        <v>530</v>
+      </c>
+      <c r="F28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="K29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E30" t="s">
+        <v>535</v>
+      </c>
+      <c r="F30" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" t="s">
+        <v>539</v>
+      </c>
+      <c r="G32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E34" t="s">
+        <v>545</v>
+      </c>
+      <c r="G34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>548</v>
+      </c>
+      <c r="K35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="D36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D37" t="s">
+        <v>552</v>
+      </c>
+      <c r="I37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D38" t="s">
+        <v>555</v>
+      </c>
+      <c r="I38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="I39" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I1" t="s">
-        <v>459</v>
-      </c>
-      <c r="N1" t="s">
-        <v>460</v>
-      </c>
-      <c r="O1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I2" t="s">
-        <v>463</v>
-      </c>
-      <c r="N2" t="s">
-        <v>464</v>
-      </c>
-      <c r="O2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="I3" t="s">
-        <v>467</v>
-      </c>
-      <c r="N3" t="s">
-        <v>468</v>
-      </c>
-      <c r="O3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I4" t="s">
-        <v>471</v>
-      </c>
-      <c r="N4" t="s">
-        <v>472</v>
-      </c>
-      <c r="O4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="O5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I6" t="s">
-        <v>477</v>
-      </c>
-      <c r="R6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2"/>
-      <c r="G7" t="s">
-        <v>479</v>
-      </c>
-      <c r="R7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G8" t="s">
-        <v>482</v>
-      </c>
-      <c r="I8" t="s">
-        <v>483</v>
-      </c>
-      <c r="R8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G11" t="s">
-        <v>491</v>
-      </c>
-      <c r="I11" t="s">
-        <v>492</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I13" t="s">
-        <v>495</v>
-      </c>
-      <c r="K13" t="s">
-        <v>496</v>
-      </c>
-      <c r="M13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="K14" t="s">
-        <v>499</v>
-      </c>
-      <c r="M14" t="s">
-        <v>500</v>
+      <c r="A12" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E16" t="s">
-        <v>502</v>
-      </c>
-      <c r="K16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E17" t="s">
-        <v>505</v>
-      </c>
-      <c r="K17" t="s">
-        <v>506</v>
-      </c>
-      <c r="M17" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E18" t="s">
-        <v>509</v>
-      </c>
-      <c r="M18" t="s">
-        <v>510</v>
+      <c r="A15" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F20" t="s">
-        <v>512</v>
-      </c>
-      <c r="I20" t="s">
-        <v>513</v>
-      </c>
-      <c r="K20" t="s">
-        <v>172</v>
-      </c>
-      <c r="O20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F21" t="s">
-        <v>516</v>
-      </c>
-      <c r="K21" t="s">
-        <v>517</v>
-      </c>
-      <c r="O21" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" t="s">
-        <v>520</v>
-      </c>
-      <c r="K22" t="s">
-        <v>521</v>
-      </c>
-      <c r="O22" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="F23" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="O24" t="s">
-        <v>525</v>
+      <c r="A19" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>526</v>
+      <c r="A25" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H27" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E28" t="s">
-        <v>530</v>
-      </c>
-      <c r="F28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K29" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E30" t="s">
-        <v>535</v>
-      </c>
-      <c r="F30" t="s">
-        <v>536</v>
+      <c r="A26" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E32" t="s">
-        <v>539</v>
-      </c>
-      <c r="G32" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E33" t="s">
-        <v>542</v>
-      </c>
-      <c r="G33" t="s">
-        <v>286</v>
-      </c>
-      <c r="I33" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E34" t="s">
-        <v>545</v>
-      </c>
-      <c r="G34" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" t="s">
-        <v>548</v>
-      </c>
-      <c r="K35" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
-      <c r="D36" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D37" t="s">
-        <v>552</v>
-      </c>
-      <c r="I37" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D38" t="s">
-        <v>555</v>
-      </c>
-      <c r="I38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I39" t="s">
-        <v>558</v>
+      <c r="A31" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="753" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="909" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
     <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
     <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
+    <sheet name="9.公共政策的稳定，变动与终结" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="677">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1920,6 +1921,138 @@
   </si>
   <si>
     <t>监控过程</t>
+  </si>
+  <si>
+    <t>公共政策的稳定和变动：</t>
+  </si>
+  <si>
+    <t>政策稳定的内涵</t>
+  </si>
+  <si>
+    <t>稳定是相对的，表现在两个方面</t>
+  </si>
+  <si>
+    <t>政策稳定的积极意义</t>
+  </si>
+  <si>
+    <t>政策稳定的消极意义</t>
+  </si>
+  <si>
+    <t>政策稳定的动力因素</t>
+  </si>
+  <si>
+    <t>政策本身的稳定因素</t>
+  </si>
+  <si>
+    <t>政策维持的对策和措施</t>
+  </si>
+  <si>
+    <t>如何政策主体的【政策维持】</t>
+  </si>
+  <si>
+    <t>如何政策客体的【政策维持】</t>
+  </si>
+  <si>
+    <t>公共政策变动的含义</t>
+  </si>
+  <si>
+    <t>公共政策变动的原因</t>
+  </si>
+  <si>
+    <t>公共政策变动类型：</t>
+  </si>
+  <si>
+    <t>强度不同</t>
+  </si>
+  <si>
+    <t>程度不同</t>
+  </si>
+  <si>
+    <t>内容不同</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>规律</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>公共政策变动模式（西方学者的看法）</t>
+  </si>
+  <si>
+    <t>公共政策创新含义</t>
+  </si>
+  <si>
+    <t>公共政策创新两种形式</t>
+  </si>
+  <si>
+    <t>公共政策创新动力（为什么要创新）</t>
+  </si>
+  <si>
+    <t>公共政策调整与接续：</t>
+  </si>
+  <si>
+    <t>公共政策调整的含义</t>
+  </si>
+  <si>
+    <t>公共政策调整的特点</t>
+  </si>
+  <si>
+    <t>公共政策调整的内容</t>
+  </si>
+  <si>
+    <t>公共政策的调整的形式</t>
+  </si>
+  <si>
+    <t>公共政策的调整的程序</t>
+  </si>
+  <si>
+    <t>公共政策的调整的原则</t>
+  </si>
+  <si>
+    <t>公共政策调整的原因（政策为什么要调整）</t>
+  </si>
+  <si>
+    <t>公共政策调整的作用</t>
+  </si>
+  <si>
+    <t>公共政策的接续内涵</t>
+  </si>
+  <si>
+    <t>公共政策的接续意义</t>
+  </si>
+  <si>
+    <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
+  </si>
+  <si>
+    <t>公共政策的接续途经</t>
+  </si>
+  <si>
+    <t>公共政策的终结：</t>
+  </si>
+  <si>
+    <t>公共政策的终结的含义</t>
+  </si>
+  <si>
+    <t>公共政策的终结的对象</t>
+  </si>
+  <si>
+    <t>公共政策的终结的方式</t>
+  </si>
+  <si>
+    <t>公共政策终结的原因</t>
+  </si>
+  <si>
+    <t>公共政策终结的作用</t>
+  </si>
+  <si>
+    <t>公共政策终结的障碍</t>
+  </si>
+  <si>
+    <t>公共政策终结的策略</t>
   </si>
 </sst>
 </file>
@@ -1927,12 +2060,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,6 +2082,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -2003,9 +2143,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2020,44 +2196,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,15 +2220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2094,24 +2234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2126,6 +2250,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2134,7 +2274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2156,13 +2296,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,13 +2386,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,43 +2428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,55 +2446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,37 +2470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,50 +2490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2415,11 +2516,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2441,9 +2549,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2453,10 +2593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2465,133 +2605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2601,29 +2741,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2632,10 +2764,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3104,7 +3242,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3190,7 +3328,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -3395,7 +3533,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>101</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -3548,7 +3686,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>140</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -3667,7 +3805,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>170</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4288,7 +4426,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -4306,7 +4444,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -4355,7 +4493,7 @@
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:17">
-      <c r="A8" s="6"/>
+      <c r="A8" s="3"/>
       <c r="I8" s="8" t="s">
         <v>342</v>
       </c>
@@ -4367,7 +4505,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>345</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -4536,7 +4674,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4613,7 +4751,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>405</v>
       </c>
       <c r="F6" t="s">
@@ -4843,11 +4981,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>458</v>
       </c>
       <c r="I1" t="s">
@@ -4861,7 +4999,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>462</v>
       </c>
       <c r="I2" t="s">
@@ -4875,7 +5013,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>466</v>
       </c>
       <c r="I3" t="s">
@@ -4889,7 +5027,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>470</v>
       </c>
       <c r="I4" t="s">
@@ -4903,7 +5041,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>474</v>
       </c>
       <c r="O5" t="s">
@@ -4911,7 +5049,7 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>476</v>
       </c>
       <c r="I6" t="s">
@@ -4922,7 +5060,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="G7" t="s">
         <v>479</v>
       </c>
@@ -4931,7 +5069,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>481</v>
       </c>
       <c r="G8" t="s">
@@ -4945,7 +5083,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>485</v>
       </c>
       <c r="G9" t="s">
@@ -4953,7 +5091,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>487</v>
       </c>
       <c r="G10" t="s">
@@ -4964,7 +5102,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>490</v>
       </c>
       <c r="G11" t="s">
@@ -4975,12 +5113,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>494</v>
       </c>
       <c r="I13" t="s">
@@ -4994,7 +5132,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>498</v>
       </c>
       <c r="K14" t="s">
@@ -5005,10 +5143,10 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>501</v>
       </c>
       <c r="E16" t="s">
@@ -5019,7 +5157,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>504</v>
       </c>
       <c r="E17" t="s">
@@ -5033,7 +5171,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>508</v>
       </c>
       <c r="E18" t="s">
@@ -5044,10 +5182,10 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>511</v>
       </c>
       <c r="F20" t="s">
@@ -5064,7 +5202,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>515</v>
       </c>
       <c r="F21" t="s">
@@ -5078,7 +5216,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>519</v>
       </c>
       <c r="F22" t="s">
@@ -5092,13 +5230,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="F23" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>524</v>
       </c>
       <c r="O24" t="s">
@@ -5106,15 +5244,15 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>527</v>
       </c>
       <c r="H27" t="s">
@@ -5122,7 +5260,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>529</v>
       </c>
       <c r="E28" t="s">
@@ -5133,7 +5271,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>532</v>
       </c>
       <c r="K29" t="s">
@@ -5141,7 +5279,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>534</v>
       </c>
       <c r="E30" t="s">
@@ -5152,12 +5290,12 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>538</v>
       </c>
       <c r="E32" t="s">
@@ -5168,7 +5306,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>541</v>
       </c>
       <c r="E33" t="s">
@@ -5182,7 +5320,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>544</v>
       </c>
       <c r="E34" t="s">
@@ -5193,7 +5331,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>547</v>
       </c>
       <c r="G35" t="s">
@@ -5207,13 +5345,13 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="D36" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>551</v>
       </c>
       <c r="D37" t="s">
@@ -5224,7 +5362,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>554</v>
       </c>
       <c r="D38" t="s">
@@ -5235,7 +5373,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>557</v>
       </c>
       <c r="I39" t="s">
@@ -5253,14 +5391,14 @@
   <sheetPr/>
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5460,198 +5598,439 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>595</v>
+      <c r="A1" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>596</v>
+      <c r="A2" s="1" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>597</v>
+      <c r="A3" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>598</v>
+      <c r="A4" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>599</v>
+      <c r="A5" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>600</v>
+      <c r="A6" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>601</v>
+      <c r="A7" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>602</v>
+      <c r="A8" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>603</v>
+      <c r="A9" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>604</v>
+      <c r="A10" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>605</v>
+      <c r="A11" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>606</v>
+      <c r="A12" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>607</v>
+      <c r="A13" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>608</v>
+      <c r="A14" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>609</v>
+      <c r="A15" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>610</v>
+      <c r="A16" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>611</v>
+      <c r="A17" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>612</v>
+      <c r="A18" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>613</v>
+      <c r="A19" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
-        <v>614</v>
+      <c r="A20" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>615</v>
+      <c r="A21" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>616</v>
+      <c r="A22" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
-        <v>619</v>
+      <c r="A23" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="25" ht="17" customHeight="1" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>620</v>
+      <c r="A26" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>621</v>
+      <c r="A27" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>622</v>
+      <c r="A28" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>623</v>
+      <c r="A29" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>624</v>
+      <c r="A30" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>625</v>
+      <c r="A31" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
-        <v>626</v>
+      <c r="A32" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>627</v>
+      <c r="A33" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>628</v>
+      <c r="A34" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>629</v>
+      <c r="A35" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>630</v>
+      <c r="A36" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>631</v>
+      <c r="A37" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>632</v>
+      <c r="A38" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E854B2-3C7B-4AC4-B1A0-89F19DEA11C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="909" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="909" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -16,13 +22,14 @@
     <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
     <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
     <sheet name="9.公共政策的稳定，变动与终结" sheetId="9" r:id="rId9"/>
+    <sheet name="10.公共政策学知识的引用" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="698">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2053,19 +2060,97 @@
   </si>
   <si>
     <t>公共政策终结的策略</t>
+  </si>
+  <si>
+    <t>政策学的知识应用于政策分析：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识的含义</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识的类型</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识的特征</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学知识与政策知识</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析的含义</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种政策分析</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析的价值（意义）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析的要素（8要素）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析的原则（6原则）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析的过程</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析的注意事项</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用性政策研究组织与政策分析师：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用性政策研究组织含义</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用性政策研究组织作用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用性政策研究组织类型（与政府的关系）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策学知识的主要应用者包括</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析师的角色定位（德罗尔）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>【政策分析师】的【素质要求】（德罗尔）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析师职业伦理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策分析师职业伦理的核心是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2078,12 +2163,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2091,19 +2178,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2111,12 +2186,29 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2124,6 +2216,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2132,6 +2225,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2139,349 +2233,27 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2489,253 +2261,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2776,62 +2306,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3089,164 +2578,288 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01237726-696C-4F89-AC0D-579FADDCC942}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -3254,7 +2867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
@@ -3268,7 +2881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
@@ -3285,7 +2898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
@@ -3302,7 +2915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
@@ -3319,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="13:18">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="M6" s="8" t="s">
         <v>44</v>
       </c>
@@ -3327,7 +2940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3335,7 +2948,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
@@ -3355,7 +2968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
@@ -3375,7 +2988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>60</v>
       </c>
@@ -3386,7 +2999,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>63</v>
       </c>
@@ -3403,7 +3016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
@@ -3423,7 +3036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>72</v>
       </c>
@@ -3437,7 +3050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
@@ -3448,7 +3061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>78</v>
       </c>
@@ -3456,7 +3069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>80</v>
       </c>
@@ -3467,7 +3080,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>83</v>
       </c>
@@ -3484,7 +3097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>88</v>
       </c>
@@ -3501,7 +3114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
@@ -3509,7 +3122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>95</v>
       </c>
@@ -3517,7 +3130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="G21" s="8" t="s">
         <v>97</v>
@@ -3532,7 +3145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>101</v>
       </c>
@@ -3549,7 +3162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>106</v>
       </c>
@@ -3572,7 +3185,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>110</v>
       </c>
@@ -3583,7 +3196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>113</v>
       </c>
@@ -3600,7 +3213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>118</v>
       </c>
@@ -3617,7 +3230,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>123</v>
       </c>
@@ -3628,7 +3241,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>126</v>
       </c>
@@ -3639,7 +3252,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>129</v>
       </c>
@@ -3650,7 +3263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>132</v>
       </c>
@@ -3658,7 +3271,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>134</v>
       </c>
@@ -3666,12 +3279,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>137</v>
       </c>
@@ -3679,13 +3292,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="G34" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>140</v>
       </c>
@@ -3696,7 +3309,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>143</v>
       </c>
@@ -3707,7 +3320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>146</v>
       </c>
@@ -3718,7 +3331,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>149</v>
       </c>
@@ -3729,7 +3342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>151</v>
       </c>
@@ -3737,7 +3350,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>153</v>
       </c>
@@ -3745,7 +3358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>155</v>
       </c>
@@ -3756,7 +3369,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>158</v>
       </c>
@@ -3767,7 +3380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>161</v>
       </c>
@@ -3778,7 +3391,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="7:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G44" s="8" t="s">
         <v>164</v>
       </c>
@@ -3786,12 +3399,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>167</v>
       </c>
@@ -3799,12 +3412,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>170</v>
       </c>
@@ -3818,7 +3431,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>174</v>
       </c>
@@ -3835,7 +3448,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>179</v>
       </c>
@@ -3855,48 +3468,47 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G52" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G53" s="8" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>188</v>
       </c>
@@ -3904,7 +3516,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
@@ -3924,7 +3536,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="N4" s="8" t="s">
         <v>195</v>
@@ -3939,7 +3551,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>199</v>
       </c>
@@ -3953,7 +3565,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>203</v>
       </c>
@@ -3964,7 +3576,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>206</v>
       </c>
@@ -3972,13 +3584,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="U8" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>209</v>
       </c>
@@ -3998,7 +3610,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>215</v>
       </c>
@@ -4012,10 +3624,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>218</v>
       </c>
@@ -4035,13 +3647,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="O13" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>224</v>
       </c>
@@ -4055,7 +3667,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>228</v>
       </c>
@@ -4066,7 +3678,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>231</v>
       </c>
@@ -4074,10 +3686,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>233</v>
       </c>
@@ -4097,7 +3709,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="8:21">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="H19" s="8" t="s">
         <v>239</v>
       </c>
@@ -4114,7 +3726,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>244</v>
       </c>
@@ -4134,7 +3746,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>250</v>
       </c>
@@ -4145,7 +3757,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>253</v>
       </c>
@@ -4159,12 +3771,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>258</v>
       </c>
@@ -4187,10 +3799,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>265</v>
       </c>
@@ -4210,7 +3822,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>271</v>
       </c>
@@ -4233,7 +3845,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>278</v>
       </c>
@@ -4253,7 +3865,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>284</v>
       </c>
@@ -4270,7 +3882,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>289</v>
       </c>
@@ -4281,7 +3893,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>292</v>
       </c>
@@ -4295,7 +3907,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>296</v>
       </c>
@@ -4312,7 +3924,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>301</v>
       </c>
@@ -4323,7 +3935,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>304</v>
       </c>
@@ -4340,7 +3952,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="8:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H35" s="8" t="s">
         <v>309</v>
       </c>
@@ -4354,7 +3966,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="8:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H36" s="8" t="s">
         <v>313</v>
       </c>
@@ -4365,7 +3977,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="8:13">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H37" s="8" t="s">
         <v>316</v>
       </c>
@@ -4373,7 +3985,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="9:14">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I38" s="8" t="s">
         <v>318</v>
       </c>
@@ -4381,7 +3993,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="9:14">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I39" s="8" t="s">
         <v>320</v>
       </c>
@@ -4389,53 +4001,52 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I40" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="14:14">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N41" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="14:14">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N42" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="14:14">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N43" s="8" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>327</v>
       </c>
@@ -4443,7 +4054,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
@@ -4451,7 +4062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>331</v>
       </c>
@@ -4462,7 +4073,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>334</v>
       </c>
@@ -4473,7 +4084,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>337</v>
       </c>
@@ -4481,7 +4092,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>339</v>
       </c>
@@ -4492,8 +4103,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:17">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I8" s="8" t="s">
         <v>342</v>
       </c>
@@ -4504,7 +4114,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>345</v>
       </c>
@@ -4515,7 +4125,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>348</v>
       </c>
@@ -4526,7 +4136,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>351</v>
       </c>
@@ -4534,7 +4144,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>353</v>
       </c>
@@ -4545,7 +4155,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>356</v>
       </c>
@@ -4556,7 +4166,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>359</v>
       </c>
@@ -4573,7 +4183,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="5:10">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E15" s="8" t="s">
         <v>364</v>
       </c>
@@ -4581,7 +4191,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="5:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" s="8" t="s">
         <v>366</v>
       </c>
@@ -4589,7 +4199,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E17" s="8" t="s">
         <v>368</v>
       </c>
@@ -4606,7 +4216,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="10:18">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
       <c r="J18" s="8" t="s">
         <v>373</v>
       </c>
@@ -4617,7 +4227,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="10:18">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
       <c r="J19" s="8" t="s">
         <v>376</v>
       </c>
@@ -4625,7 +4235,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="5:18">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E20" s="8" t="s">
         <v>378</v>
       </c>
@@ -4636,7 +4246,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="5:18">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E21" s="8" t="s">
         <v>381</v>
       </c>
@@ -4644,7 +4254,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="5:18">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E22" s="8" t="s">
         <v>383</v>
       </c>
@@ -4652,32 +4262,31 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
       <c r="E23" s="8" t="s">
         <v>385</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -4685,7 +4294,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>387</v>
       </c>
@@ -4696,7 +4305,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>390</v>
       </c>
@@ -4713,7 +4322,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>394</v>
       </c>
@@ -4730,7 +4339,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>399</v>
       </c>
@@ -4750,7 +4359,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>405</v>
       </c>
@@ -4767,7 +4376,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>410</v>
       </c>
@@ -4781,7 +4390,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>414</v>
       </c>
@@ -4798,7 +4407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>418</v>
       </c>
@@ -4818,7 +4427,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>424</v>
       </c>
@@ -4835,7 +4444,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>209</v>
       </c>
@@ -4846,12 +4455,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>431</v>
       </c>
@@ -4859,7 +4468,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>433</v>
       </c>
@@ -4867,7 +4476,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>435</v>
       </c>
@@ -4881,7 +4490,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>439</v>
       </c>
@@ -4889,12 +4498,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>442</v>
       </c>
@@ -4902,7 +4511,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>444</v>
       </c>
@@ -4910,7 +4519,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>446</v>
       </c>
@@ -4918,7 +4527,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="5:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>448</v>
       </c>
@@ -4926,17 +4535,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>452</v>
       </c>
@@ -4944,47 +4553,46 @@
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
         <v>457</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>458</v>
       </c>
@@ -4998,7 +4606,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>462</v>
       </c>
@@ -5012,7 +4620,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>466</v>
       </c>
@@ -5026,7 +4634,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>470</v>
       </c>
@@ -5040,7 +4648,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>474</v>
       </c>
@@ -5048,7 +4656,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>476</v>
       </c>
@@ -5059,7 +4667,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="G7" t="s">
         <v>479</v>
@@ -5068,7 +4676,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>481</v>
       </c>
@@ -5082,7 +4690,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>485</v>
       </c>
@@ -5090,7 +4698,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>487</v>
       </c>
@@ -5101,7 +4709,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>490</v>
       </c>
@@ -5112,12 +4720,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>494</v>
       </c>
@@ -5131,7 +4739,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>498</v>
       </c>
@@ -5142,10 +4750,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>501</v>
       </c>
@@ -5156,7 +4764,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>504</v>
       </c>
@@ -5170,7 +4778,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>508</v>
       </c>
@@ -5181,10 +4789,10 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>511</v>
       </c>
@@ -5201,7 +4809,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>515</v>
       </c>
@@ -5215,7 +4823,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>519</v>
       </c>
@@ -5229,13 +4837,13 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="F23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>524</v>
       </c>
@@ -5243,15 +4851,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>527</v>
       </c>
@@ -5259,7 +4867,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>529</v>
       </c>
@@ -5270,7 +4878,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>532</v>
       </c>
@@ -5278,7 +4886,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>534</v>
       </c>
@@ -5289,12 +4897,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>538</v>
       </c>
@@ -5305,7 +4913,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>541</v>
       </c>
@@ -5319,7 +4927,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>544</v>
       </c>
@@ -5330,7 +4938,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>547</v>
       </c>
@@ -5344,13 +4952,13 @@
         <v>549</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="D36" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>551</v>
       </c>
@@ -5361,7 +4969,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>554</v>
       </c>
@@ -5372,7 +4980,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>557</v>
       </c>
@@ -5381,660 +4989,657 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>594</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>632</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:1">
+    <row r="24" spans="1:1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:1">
+    <row r="25" spans="1:1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>676</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E854B2-3C7B-4AC4-B1A0-89F19DEA11C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="909" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="909" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="811">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1819,117 +1813,456 @@
     <t>公共政策评估的作用，主体与类型：</t>
   </si>
   <si>
-    <t>什么是公共政策评估含义</t>
+    <t>公共政策评估含义</t>
+  </si>
+  <si>
+    <t>评估主体通过一定标准，对评估结果进行检查，判断结果，实现目标的吃好翁堵</t>
   </si>
   <si>
     <t>公共政策评估的目的</t>
   </si>
   <si>
+    <t>积极目的</t>
+  </si>
+  <si>
+    <t>发现偏差</t>
+  </si>
+  <si>
+    <t>获得可靠信息的重要手段</t>
+  </si>
+  <si>
+    <t>政策制定者和执行者</t>
+  </si>
+  <si>
+    <t>政策调查报告</t>
+  </si>
+  <si>
     <t>公共政策评估的作用</t>
   </si>
   <si>
+    <t>明确政策可行程度</t>
+  </si>
+  <si>
+    <t>调整提出重要依据</t>
+  </si>
+  <si>
+    <t>专业机构和人员</t>
+  </si>
+  <si>
+    <t>政府工作报告</t>
+  </si>
+  <si>
     <t>公共政策评估的主体</t>
   </si>
   <si>
+    <t>改善技术和程序</t>
+  </si>
+  <si>
+    <t>检测结果的途径</t>
+  </si>
+  <si>
+    <t>大众传媒</t>
+  </si>
+  <si>
+    <t>听证会</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
     <t>政策制定者和执行者评估结构表现为</t>
   </si>
   <si>
+    <t>合理配置资源</t>
+  </si>
+  <si>
+    <t>资源重新分配的基本前提</t>
+  </si>
+  <si>
+    <t>意见和投诉</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>效益</t>
+  </si>
+  <si>
     <t>公共政策额评估的类型</t>
   </si>
   <si>
+    <t>炫耀业绩</t>
+  </si>
+  <si>
+    <t>良好的公共关系</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
     <t>正式评估特点</t>
   </si>
   <si>
+    <t>勒索资源</t>
+  </si>
+  <si>
+    <t>科学民主的保障</t>
+  </si>
+  <si>
+    <t>正式评估，非正式评估，评估组织活动形式</t>
+  </si>
+  <si>
+    <t>影响</t>
+  </si>
+  <si>
     <t>内部评估</t>
   </si>
   <si>
+    <t>规避责任</t>
+  </si>
+  <si>
+    <t>内部，外部，评估者权力地位</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
     <t>外部评估</t>
   </si>
   <si>
+    <t>批评政策达到政策卖不了</t>
+  </si>
+  <si>
+    <t>预测，过程，结果，评估接单</t>
+  </si>
+  <si>
     <t>不受委托进行的评估包括哪些</t>
   </si>
   <si>
+    <t>单一，复核，评估对象</t>
+  </si>
+  <si>
     <t>预评估主要有五方面内容</t>
   </si>
   <si>
     <t>公共政策评估的内容</t>
   </si>
   <si>
+    <t>政府评估组织人员进行的评估</t>
+  </si>
+  <si>
+    <t>组织结构专业人员来评估</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>评估筹划</t>
+  </si>
+  <si>
+    <t>明确问题</t>
+  </si>
+  <si>
+    <t>选择对象</t>
+  </si>
+  <si>
+    <t>制定计划</t>
+  </si>
+  <si>
+    <t>明确条件</t>
+  </si>
+  <si>
+    <t>评估过程</t>
+  </si>
+  <si>
     <t>公共政策评估的过程，标准与影响因素：</t>
   </si>
   <si>
+    <t>政府组织和个人自行的评估</t>
+  </si>
+  <si>
+    <t>评估方法规范</t>
+  </si>
+  <si>
+    <t>可行性</t>
+  </si>
+  <si>
+    <t>评估总结</t>
+  </si>
+  <si>
     <t>公共政策评估的过程</t>
   </si>
   <si>
+    <t>政府专职人员进行评估</t>
+  </si>
+  <si>
+    <t>客观性</t>
+  </si>
+  <si>
+    <t>优缺点</t>
+  </si>
+  <si>
     <t>评估筹划解决的问题</t>
   </si>
   <si>
+    <t>有效性</t>
+  </si>
+  <si>
+    <t>事实标准</t>
+  </si>
+  <si>
+    <t>通过数量，比例关系，反应事务过去，现在，将来的状态</t>
+  </si>
+  <si>
+    <t>政策效率</t>
+  </si>
+  <si>
+    <t>投入成</t>
+  </si>
+  <si>
+    <t>行政开支，业务开支</t>
+  </si>
+  <si>
+    <t>人员开支</t>
+  </si>
+  <si>
     <t>公共政策评估的标准</t>
   </si>
   <si>
+    <t>多样化</t>
+  </si>
+  <si>
+    <t>技术化</t>
+  </si>
+  <si>
+    <t>多量化</t>
+  </si>
+  <si>
+    <t>社会生产力的发展</t>
+  </si>
+  <si>
+    <t>技术标准</t>
+  </si>
+  <si>
+    <t>以技术手段进行评估</t>
+  </si>
+  <si>
+    <t>政策效益</t>
+  </si>
+  <si>
     <t>事实标准包含哪些</t>
   </si>
   <si>
+    <t>社会公正</t>
+  </si>
+  <si>
+    <t>价值标准</t>
+  </si>
+  <si>
+    <t>政策影响</t>
+  </si>
+  <si>
     <t>政策效率衡量标准</t>
   </si>
   <si>
+    <t>政策信息和资料</t>
+  </si>
+  <si>
+    <t>可持续发展</t>
+  </si>
+  <si>
+    <t>回应性</t>
+  </si>
+  <si>
     <t>技术标准内容</t>
   </si>
   <si>
+    <t>政策的执行者</t>
+  </si>
+  <si>
+    <t>福利</t>
+  </si>
+  <si>
     <t>价值标准包括那些</t>
   </si>
   <si>
+    <t>政策投入的成本</t>
+  </si>
+  <si>
+    <t>指标法</t>
+  </si>
+  <si>
     <t>影响公共政策评估的主要原因</t>
   </si>
   <si>
+    <t>政策目标</t>
+  </si>
+  <si>
+    <t>回归分析法</t>
+  </si>
+  <si>
+    <t>线性，非线性</t>
+  </si>
+  <si>
+    <t>试验</t>
+  </si>
+  <si>
     <t>公共政策评估的方法：</t>
   </si>
   <si>
+    <t>政策评估的方式，方法，规范</t>
+  </si>
+  <si>
     <t>以定量分析为主的评估方法</t>
   </si>
   <si>
     <t>政策指标体系三类价值取向</t>
   </si>
   <si>
-    <t>回归分析法</t>
+    <t>评估这和被个评估这是伙伴关系</t>
+  </si>
+  <si>
+    <t>认定政策利益相关者</t>
+  </si>
+  <si>
+    <t>吸纳被评估这的意见，达成共识</t>
+  </si>
+  <si>
+    <t>界定利益相关政策</t>
+  </si>
+  <si>
+    <t>实施时间</t>
+  </si>
+  <si>
+    <t>预防监控</t>
+  </si>
+  <si>
+    <t>过程监控</t>
+  </si>
+  <si>
+    <t>结果监控</t>
   </si>
   <si>
     <t>以定性分析为主的评估方法含义</t>
   </si>
   <si>
+    <t>构建注意</t>
+  </si>
+  <si>
+    <t>营造网络和方法</t>
+  </si>
+  <si>
+    <t>监控评率</t>
+  </si>
+  <si>
+    <t>经常性</t>
+  </si>
+  <si>
+    <t>因发行</t>
+  </si>
+  <si>
     <t>以定性分析为主的评估方法程序</t>
   </si>
   <si>
+    <t>寻找平衡点</t>
+  </si>
+  <si>
+    <t>参与成都</t>
+  </si>
+  <si>
+    <t>单方面</t>
+  </si>
+  <si>
+    <t>抗变形</t>
+  </si>
+  <si>
+    <t>公共政策监控：</t>
+  </si>
+  <si>
+    <t>政策运行各环节进行检查监督指导纠偏</t>
+  </si>
+  <si>
+    <t>设定妥协议程</t>
+  </si>
+  <si>
     <t>公共政策监控的含义</t>
   </si>
   <si>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>采集妥协的相关信息</t>
+  </si>
+  <si>
     <t>政策监控内容</t>
   </si>
   <si>
+    <t>建立相关论坛</t>
+  </si>
+  <si>
     <t>公共政策监控的类型</t>
   </si>
   <si>
-    <t>实施时间</t>
+    <t>创建报告</t>
+  </si>
+  <si>
+    <t>未达成的政策诉求重现构建</t>
   </si>
   <si>
     <t>监控的频率</t>
   </si>
   <si>
+    <t>使政策过程，科学，合法，民主</t>
+  </si>
+  <si>
+    <t>满足人么要求</t>
+  </si>
+  <si>
     <t>参与程度</t>
   </si>
   <si>
+    <t>确保执行过程有效性</t>
+  </si>
+  <si>
     <t>公共政策监控的功能（为什么要对政策进行监控）</t>
   </si>
   <si>
+    <t>体现评估价值取向</t>
+  </si>
+  <si>
+    <t>自上而下，行政体制</t>
+  </si>
+  <si>
+    <t>自下而上，下级的监督</t>
+  </si>
+  <si>
     <t>公共政策监控机制的构成：</t>
   </si>
   <si>
+    <t>明确调整方向</t>
+  </si>
+  <si>
     <t>内部监控机制（通过监控方向）</t>
   </si>
   <si>
     <t>监控过程</t>
   </si>
   <si>
+    <t>制定过程的就监督</t>
+  </si>
+  <si>
+    <t>执行过程</t>
+  </si>
+  <si>
+    <t>调整过程</t>
+  </si>
+  <si>
     <t>公共政策的稳定和变动：</t>
   </si>
   <si>
@@ -2063,94 +2396,79 @@
   </si>
   <si>
     <t>政策学的知识应用于政策分析：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知识的含义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知识的类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知识的特征</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策学知识与政策知识</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析的含义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>两种政策分析</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析的价值（意义）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析的要素（8要素）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析的原则（6原则）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析的过程</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析的注意事项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应用性政策研究组织与政策分析师：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应用性政策研究组织含义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应用性政策研究组织作用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应用性政策研究组织类型（与政府的关系）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策学知识的主要应用者包括</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析师的角色定位（德罗尔）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>【政策分析师】的【素质要求】（德罗尔）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析师职业伦理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>政策分析师职业伦理的核心是</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2163,22 +2481,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2186,29 +2507,12 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2216,7 +2520,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2225,7 +2528,6 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2233,27 +2535,349 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2261,40 +2885,278 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2303,24 +3165,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2578,1715 +3478,1720 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01237726-696C-4F89-AC0D-579FADDCC942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>697</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="M6" s="8" t="s">
+    <row r="6" spans="13:18">
+      <c r="M6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="G21" s="8" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="6"/>
+      <c r="G21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="G34" s="8" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="6"/>
+      <c r="G34" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G44" s="8" t="s">
+    <row r="44" spans="7:11">
+      <c r="G44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G52" s="8" t="s">
+    <row r="52" spans="7:7">
+      <c r="G52" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G53" s="8" t="s">
+    <row r="53" spans="7:7">
+      <c r="G53" s="2" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="N4" s="8" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="9"/>
+      <c r="N4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="U8" s="8" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="9"/>
+      <c r="U8" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="O13" s="8" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="O13" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:20">
+      <c r="A14" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:20">
+      <c r="A15" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="8" t="s">
+      <c r="U18" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="H19" s="8" t="s">
+    <row r="19" spans="8:21">
+      <c r="H19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="U19" s="8" t="s">
+      <c r="U19" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:21">
+      <c r="A20" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="U20" s="8" t="s">
+      <c r="U20" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:21">
+      <c r="A21" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P21" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="U21" s="8" t="s">
+      <c r="U21" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:22">
+      <c r="A24" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="V24" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="T26" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="8" t="s">
+      <c r="V26" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:22">
+      <c r="A27" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="T27" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="V27" s="8" t="s">
+      <c r="V27" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:22">
+      <c r="A28" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="V28" s="8" t="s">
+      <c r="V28" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:17">
+      <c r="A29" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:17">
+      <c r="A30" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:17">
+      <c r="A31" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:17">
+      <c r="A32" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:17">
+      <c r="A34" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H35" s="8" t="s">
+    <row r="35" spans="8:17">
+      <c r="H35" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H36" s="8" t="s">
+    <row r="36" spans="8:17">
+      <c r="H36" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H37" s="8" t="s">
+    <row r="37" spans="8:13">
+      <c r="H37" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I38" s="8" t="s">
+    <row r="38" spans="9:14">
+      <c r="I38" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="N38" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I39" s="8" t="s">
+    <row r="39" spans="9:14">
+      <c r="I39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N39" s="8" t="s">
+      <c r="N39" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I40" s="8" t="s">
+    <row r="40" spans="9:9">
+      <c r="I40" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N41" s="8" t="s">
+    <row r="41" spans="14:14">
+      <c r="N41" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N42" s="8" t="s">
+    <row r="42" spans="14:14">
+      <c r="N42" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="N43" s="8" t="s">
+    <row r="43" spans="14:14">
+      <c r="N43" s="2" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I8" s="8" t="s">
+    <row r="8" spans="9:17">
+      <c r="I8" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:17">
+      <c r="A12" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:17">
+      <c r="A13" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E15" s="8" t="s">
+    <row r="15" spans="5:10">
+      <c r="E15" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E16" s="8" t="s">
+    <row r="16" spans="5:18">
+      <c r="E16" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E17" s="8" t="s">
+    <row r="17" spans="5:18">
+      <c r="E17" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="J18" s="8" t="s">
+    <row r="18" spans="10:18">
+      <c r="J18" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="J19" s="8" t="s">
+    <row r="19" spans="10:18">
+      <c r="J19" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E20" s="8" t="s">
+    <row r="20" spans="5:18">
+      <c r="E20" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E21" s="8" t="s">
+    <row r="21" spans="5:18">
+      <c r="E21" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E22" s="8" t="s">
+    <row r="22" spans="5:18">
+      <c r="E22" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.35">
-      <c r="E23" s="8" t="s">
+    <row r="23" spans="5:5">
+      <c r="E23" s="2" t="s">
         <v>385</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
@@ -4294,7 +5199,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="7" t="s">
         <v>387</v>
       </c>
@@ -4305,7 +5210,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>390</v>
       </c>
@@ -4322,7 +5227,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>394</v>
       </c>
@@ -4339,7 +5244,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>399</v>
       </c>
@@ -4359,7 +5264,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>405</v>
       </c>
@@ -4376,7 +5281,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="7" t="s">
         <v>410</v>
       </c>
@@ -4390,7 +5295,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>414</v>
       </c>
@@ -4407,7 +5312,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="7" t="s">
         <v>418</v>
       </c>
@@ -4427,7 +5332,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="7" t="s">
         <v>424</v>
       </c>
@@ -4444,7 +5349,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>209</v>
       </c>
@@ -4455,12 +5360,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>431</v>
       </c>
@@ -4468,7 +5373,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>433</v>
       </c>
@@ -4476,7 +5381,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
         <v>435</v>
       </c>
@@ -4490,7 +5395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>439</v>
       </c>
@@ -4498,12 +5403,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>442</v>
       </c>
@@ -4511,7 +5416,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
         <v>444</v>
       </c>
@@ -4519,7 +5424,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:8">
       <c r="E20" t="s">
         <v>446</v>
       </c>
@@ -4527,7 +5432,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
         <v>448</v>
       </c>
@@ -4535,17 +5440,17 @@
         <v>449</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9">
       <c r="I22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5">
       <c r="E23" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
         <v>452</v>
       </c>
@@ -4553,46 +5458,47 @@
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:9">
       <c r="I25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:9">
       <c r="I26" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:9">
       <c r="I27" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:9">
       <c r="I28" t="s">
         <v>457</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
         <v>458</v>
       </c>
@@ -4606,7 +5512,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>462</v>
       </c>
@@ -4620,7 +5526,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>466</v>
       </c>
@@ -4634,7 +5540,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>470</v>
       </c>
@@ -4648,7 +5554,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>474</v>
       </c>
@@ -4656,7 +5562,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
         <v>476</v>
       </c>
@@ -4667,7 +5573,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="6"/>
       <c r="G7" t="s">
         <v>479</v>
@@ -4676,7 +5582,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
         <v>481</v>
       </c>
@@ -4690,7 +5596,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>485</v>
       </c>
@@ -4698,7 +5604,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>487</v>
       </c>
@@ -4709,7 +5615,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>490</v>
       </c>
@@ -4720,12 +5626,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
         <v>494</v>
       </c>
@@ -4739,7 +5645,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
         <v>498</v>
       </c>
@@ -4750,10 +5656,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>501</v>
       </c>
@@ -4764,7 +5670,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
         <v>504</v>
       </c>
@@ -4778,7 +5684,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="6" t="s">
         <v>508</v>
       </c>
@@ -4789,10 +5695,10 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="6" t="s">
         <v>511</v>
       </c>
@@ -4809,7 +5715,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
         <v>515</v>
       </c>
@@ -4823,7 +5729,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="6" t="s">
         <v>519</v>
       </c>
@@ -4837,13 +5743,13 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="6"/>
       <c r="F23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="6" t="s">
         <v>524</v>
       </c>
@@ -4851,15 +5757,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="6" t="s">
         <v>527</v>
       </c>
@@ -4867,7 +5773,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
         <v>529</v>
       </c>
@@ -4878,7 +5784,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="6" t="s">
         <v>532</v>
       </c>
@@ -4886,7 +5792,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
         <v>534</v>
       </c>
@@ -4897,12 +5803,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>538</v>
       </c>
@@ -4913,7 +5819,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>541</v>
       </c>
@@ -4927,7 +5833,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>544</v>
       </c>
@@ -4938,7 +5844,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="6" t="s">
         <v>547</v>
       </c>
@@ -4952,13 +5858,13 @@
         <v>549</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="D36" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="6" t="s">
         <v>551</v>
       </c>
@@ -4969,7 +5875,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
         <v>554</v>
       </c>
@@ -4980,8 +5886,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
         <v>557</v>
       </c>
       <c r="I39" t="s">
@@ -4989,657 +5895,1045 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>594</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5"/>
+      <c r="Q7" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="15:15">
+      <c r="O15" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5"/>
+      <c r="I25" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>632</v>
+      <c r="G34" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5"/>
+      <c r="I41" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>676</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="24" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="909" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="8970" tabRatio="909" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
     <sheet name="9.公共政策的稳定，变动与终结" sheetId="9" r:id="rId9"/>
     <sheet name="10.公共政策学知识的引用" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="820">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2401,19 +2402,46 @@
     <t>知识的含义</t>
   </si>
   <si>
+    <t>通过观察和学习活得事物的理解</t>
+  </si>
+  <si>
+    <t>显示知识</t>
+  </si>
+  <si>
+    <t>事实知识</t>
+  </si>
+  <si>
     <t>知识的类型</t>
   </si>
   <si>
+    <t>通过好奇心发展积累传承</t>
+  </si>
+  <si>
+    <t>原理知识</t>
+  </si>
+  <si>
     <t>知识的特征</t>
   </si>
   <si>
+    <t>在人类过程中发挥效果</t>
+  </si>
+  <si>
     <t>政策学知识与政策知识</t>
   </si>
   <si>
     <t>政策分析的含义</t>
   </si>
   <si>
+    <t>隐示知识</t>
+  </si>
+  <si>
+    <t>技能知识</t>
+  </si>
+  <si>
     <t>两种政策分析</t>
+  </si>
+  <si>
+    <t>人际知识</t>
   </si>
   <si>
     <t>政策分析的价值（意义）</t>
@@ -2464,8 +2492,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2539,115 +2567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2668,6 +2590,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2677,7 +2705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2692,7 +2720,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,19 +2798,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2734,19 +2840,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,121 +2888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,17 +2911,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2913,6 +2930,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2923,6 +2955,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2951,25 +2992,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2989,10 +3017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3001,133 +3029,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3623,10 +3651,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3640,108 +3668,151 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="G2" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>795</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>801</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>796</v>
+        <v>804</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6106,8 +6177,8 @@
   <sheetPr/>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8970" tabRatio="909" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="909" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,13 @@
     <sheet name="8.公共政策的评估与监控" sheetId="8" r:id="rId8"/>
     <sheet name="9.公共政策的稳定，变动与终结" sheetId="9" r:id="rId9"/>
     <sheet name="10.公共政策学知识的引用" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="826">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2402,7 +2401,7 @@
     <t>知识的含义</t>
   </si>
   <si>
-    <t>通过观察和学习活得事物的理解</t>
+    <t>观察和学习活得知识</t>
   </si>
   <si>
     <t>显示知识</t>
@@ -2411,40 +2410,58 @@
     <t>事实知识</t>
   </si>
   <si>
+    <t>不可逆性</t>
+  </si>
+  <si>
     <t>知识的类型</t>
   </si>
   <si>
-    <t>通过好奇心发展积累传承</t>
+    <t>通过好奇心将知识积累</t>
   </si>
   <si>
     <t>原理知识</t>
   </si>
   <si>
+    <t>传播性</t>
+  </si>
+  <si>
     <t>知识的特征</t>
   </si>
   <si>
-    <t>在人类过程中发挥效果</t>
+    <t>在事物中使用的过程</t>
+  </si>
+  <si>
+    <t>共享性</t>
   </si>
   <si>
     <t>政策学知识与政策知识</t>
   </si>
   <si>
+    <t>非磨损性</t>
+  </si>
+  <si>
     <t>政策分析的含义</t>
   </si>
   <si>
     <t>隐示知识</t>
   </si>
   <si>
-    <t>技能知识</t>
+    <t>技术知识</t>
+  </si>
+  <si>
+    <t>交换不对称</t>
   </si>
   <si>
     <t>两种政策分析</t>
   </si>
   <si>
-    <t>人际知识</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>政策分析的价值（意义）</t>
+  </si>
+  <si>
+    <t>政策学知识，通过政策研究获得知识</t>
   </si>
   <si>
     <t>政策分析的要素（8要素）</t>
@@ -2492,9 +2509,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2518,15 +2535,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2567,16 +2584,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2591,45 +2616,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2643,14 +2630,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2664,25 +2644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2704,8 +2667,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2720,13 +2737,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,19 +2833,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,31 +2857,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,49 +2893,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2852,55 +2917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2911,21 +2928,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2944,35 +2946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3006,8 +2990,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3017,10 +3034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3029,147 +3046,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3520,124 +3540,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3651,10 +3671,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3668,8 +3688,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>791</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3681,138 +3701,140 @@
       <c r="K2" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>795</v>
       </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
         <v>798</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>801</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:P24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3833,7 +3855,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3841,7 +3863,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3855,7 +3877,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3872,7 +3894,7 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -3889,7 +3911,7 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3922,7 +3944,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -3942,7 +3964,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -3962,7 +3984,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3973,7 +3995,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3990,7 +4012,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -4010,7 +4032,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -4024,7 +4046,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -4035,7 +4057,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -4043,7 +4065,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -4054,7 +4076,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -4071,7 +4093,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -4088,7 +4110,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -4096,7 +4118,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>95</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -4104,7 +4126,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="G21" s="2" t="s">
         <v>97</v>
       </c>
@@ -4136,7 +4158,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -4159,7 +4181,7 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -4170,7 +4192,7 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -4187,7 +4209,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>118</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -4204,7 +4226,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -4215,7 +4237,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -4226,7 +4248,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -4237,7 +4259,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -4245,7 +4267,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>134</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -4253,12 +4275,12 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -4266,7 +4288,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="G34" s="2" t="s">
         <v>139</v>
       </c>
@@ -4283,7 +4305,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -4294,7 +4316,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>146</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -4305,7 +4327,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>149</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -4316,7 +4338,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -4324,7 +4346,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="7" t="s">
         <v>153</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -4332,7 +4354,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -4343,7 +4365,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -4354,7 +4376,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -4373,12 +4395,12 @@
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>167</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -4386,7 +4408,7 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4405,7 +4427,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>174</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -4422,7 +4444,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -4442,7 +4464,7 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4473,17 +4495,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -4491,7 +4513,7 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4511,7 +4533,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="N4" s="2" t="s">
         <v>195</v>
       </c>
@@ -4526,7 +4548,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>199</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -4540,7 +4562,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -4551,7 +4573,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>206</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -4559,13 +4581,13 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="U8" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>209</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4585,7 +4607,7 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -4599,10 +4621,10 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>218</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -4622,13 +4644,13 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="O13" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>224</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -4642,7 +4664,7 @@
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>228</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -4653,7 +4675,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>231</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -4661,10 +4683,10 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>233</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -4701,7 +4723,7 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>244</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -4721,7 +4743,7 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>250</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -4732,7 +4754,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>253</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -4746,12 +4768,12 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>258</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -4774,10 +4796,10 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>265</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -4797,7 +4819,7 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>271</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4820,7 +4842,7 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>278</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -4840,7 +4862,7 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>284</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -4857,7 +4879,7 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>289</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4868,7 +4890,7 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>292</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -4882,7 +4904,7 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>296</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -4899,7 +4921,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>301</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -4910,7 +4932,7 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>304</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -5012,17 +5034,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>327</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -5030,7 +5052,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>329</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -5038,7 +5060,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>331</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -5049,7 +5071,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>334</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -5060,7 +5082,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>337</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -5068,7 +5090,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>339</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -5090,7 +5112,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -5101,7 +5123,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>348</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -5112,7 +5134,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>351</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -5120,7 +5142,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>353</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -5131,7 +5153,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>356</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -5142,7 +5164,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>359</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -5259,11 +5281,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I1" t="s">
@@ -5271,7 +5293,7 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>387</v>
       </c>
       <c r="I2" t="s">
@@ -5282,7 +5304,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>390</v>
       </c>
       <c r="I3" t="s">
@@ -5299,7 +5321,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>394</v>
       </c>
       <c r="F4" t="s">
@@ -5316,7 +5338,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="s">
@@ -5336,7 +5358,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F6" t="s">
@@ -5353,7 +5375,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>410</v>
       </c>
       <c r="I7" t="s">
@@ -5367,7 +5389,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>414</v>
       </c>
       <c r="F8" t="s">
@@ -5384,7 +5406,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F9" t="s">
@@ -5404,7 +5426,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>424</v>
       </c>
       <c r="F10" t="s">
@@ -5421,7 +5443,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>209</v>
       </c>
       <c r="G11" t="s">
@@ -5432,12 +5454,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>431</v>
       </c>
       <c r="I13" t="s">
@@ -5445,7 +5467,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>433</v>
       </c>
       <c r="I14" t="s">
@@ -5453,7 +5475,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>435</v>
       </c>
       <c r="F15" t="s">
@@ -5467,7 +5489,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>439</v>
       </c>
       <c r="I16" t="s">
@@ -5475,12 +5497,12 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>442</v>
       </c>
       <c r="I18" t="s">
@@ -5488,7 +5510,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>444</v>
       </c>
       <c r="E19" t="s">
@@ -5570,7 +5592,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>458</v>
       </c>
       <c r="I1" t="s">
@@ -5584,7 +5606,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>462</v>
       </c>
       <c r="I2" t="s">
@@ -5598,7 +5620,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>466</v>
       </c>
       <c r="I3" t="s">
@@ -5612,7 +5634,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>470</v>
       </c>
       <c r="I4" t="s">
@@ -5626,7 +5648,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>474</v>
       </c>
       <c r="O5" t="s">
@@ -5634,7 +5656,7 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>476</v>
       </c>
       <c r="I6" t="s">
@@ -5645,7 +5667,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="G7" t="s">
         <v>479</v>
       </c>
@@ -5654,7 +5676,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>481</v>
       </c>
       <c r="G8" t="s">
@@ -5668,7 +5690,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>485</v>
       </c>
       <c r="G9" t="s">
@@ -5676,7 +5698,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>487</v>
       </c>
       <c r="G10" t="s">
@@ -5687,7 +5709,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>490</v>
       </c>
       <c r="G11" t="s">
@@ -5698,12 +5720,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>494</v>
       </c>
       <c r="I13" t="s">
@@ -5717,7 +5739,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>498</v>
       </c>
       <c r="K14" t="s">
@@ -5728,10 +5750,10 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>501</v>
       </c>
       <c r="E16" t="s">
@@ -5742,7 +5764,7 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>504</v>
       </c>
       <c r="E17" t="s">
@@ -5756,7 +5778,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>508</v>
       </c>
       <c r="E18" t="s">
@@ -5767,10 +5789,10 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>511</v>
       </c>
       <c r="F20" t="s">
@@ -5787,7 +5809,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>515</v>
       </c>
       <c r="F21" t="s">
@@ -5801,7 +5823,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>519</v>
       </c>
       <c r="F22" t="s">
@@ -5815,13 +5837,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="F23" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>524</v>
       </c>
       <c r="O24" t="s">
@@ -5829,15 +5851,15 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>527</v>
       </c>
       <c r="H27" t="s">
@@ -5845,7 +5867,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>529</v>
       </c>
       <c r="E28" t="s">
@@ -5856,7 +5878,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>532</v>
       </c>
       <c r="K29" t="s">
@@ -5864,7 +5886,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>534</v>
       </c>
       <c r="E30" t="s">
@@ -5875,12 +5897,12 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>538</v>
       </c>
       <c r="E32" t="s">
@@ -5891,7 +5913,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>541</v>
       </c>
       <c r="E33" t="s">
@@ -5905,7 +5927,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>544</v>
       </c>
       <c r="E34" t="s">
@@ -5916,7 +5938,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>547</v>
       </c>
       <c r="G35" t="s">
@@ -5930,13 +5952,13 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="D36" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>551</v>
       </c>
       <c r="D37" t="s">
@@ -5947,7 +5969,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>554</v>
       </c>
       <c r="D38" t="s">
@@ -5982,187 +6004,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>594</v>
       </c>
     </row>
@@ -6183,582 +6205,582 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="5"/>
-      <c r="Q7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="Q7" s="5" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="5" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="5" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="15" spans="15:15">
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="5" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="5" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="5" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="T21" s="5" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="5" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="5" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5"/>
-      <c r="I25" s="4" t="s">
+      <c r="A25" s="6"/>
+      <c r="I25" s="5" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="5" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="5" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="5" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="5" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="5" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="5" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="5" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="5" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="5" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="5" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="5"/>
-      <c r="I41" s="4" t="s">
+      <c r="A41" s="6"/>
+      <c r="I41" s="5" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>745</v>
       </c>
     </row>
@@ -6779,227 +6801,227 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="24" ht="17.1" customHeight="1" spans="1:1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="25" ht="17.1" customHeight="1" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>789</v>
       </c>
     </row>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="909" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="909" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="887">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2398,6 +2398,12 @@
     <t>政策学的知识应用于政策分析：</t>
   </si>
   <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
     <t>知识的含义</t>
   </si>
   <si>
@@ -2413,6 +2419,12 @@
     <t>不可逆性</t>
   </si>
   <si>
+    <t>减少</t>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
     <t>知识的类型</t>
   </si>
   <si>
@@ -2425,6 +2437,12 @@
     <t>传播性</t>
   </si>
   <si>
+    <t>改善</t>
+  </si>
+  <si>
+    <t>抵消</t>
+  </si>
+  <si>
     <t>知识的特征</t>
   </si>
   <si>
@@ -2434,12 +2452,21 @@
     <t>共享性</t>
   </si>
   <si>
+    <t>增强</t>
+  </si>
+  <si>
+    <t>预期性和趋向性</t>
+  </si>
+  <si>
     <t>政策学知识与政策知识</t>
   </si>
   <si>
     <t>非磨损性</t>
   </si>
   <si>
+    <t>民主</t>
+  </si>
+  <si>
     <t>政策分析的含义</t>
   </si>
   <si>
@@ -2452,6 +2479,12 @@
     <t>交换不对称</t>
   </si>
   <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
     <t>两种政策分析</t>
   </si>
   <si>
@@ -2464,43 +2497,193 @@
     <t>政策学知识，通过政策研究获得知识</t>
   </si>
   <si>
+    <t>职业政策分析，政策</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>多样</t>
+  </si>
+  <si>
     <t>政策分析的要素（8要素）</t>
   </si>
   <si>
+    <t>在公共政策的领域内，创造和应用知识的社会过程</t>
+  </si>
+  <si>
+    <t>学术政策问题，对政策本身的分析</t>
+  </si>
+  <si>
+    <t>分析综合</t>
+  </si>
+  <si>
     <t>政策分析的原则（6原则）</t>
   </si>
   <si>
+    <t>将科学方法应用于解决公共问题</t>
+  </si>
+  <si>
+    <t>方案</t>
+  </si>
+  <si>
+    <t>预测性</t>
+  </si>
+  <si>
     <t>政策分析的过程</t>
   </si>
   <si>
+    <t>评估价标准</t>
+  </si>
+  <si>
     <t>政策分析的注意事项</t>
   </si>
   <si>
+    <t>定义问题</t>
+  </si>
+  <si>
+    <t>墨守成规</t>
+  </si>
+  <si>
+    <t>事实结果</t>
+  </si>
+  <si>
     <t>应用性政策研究组织与政策分析师：</t>
   </si>
   <si>
+    <t>预测</t>
+  </si>
+  <si>
+    <t>姗姗来迟</t>
+  </si>
+  <si>
+    <t>在系统调查的基础上</t>
+  </si>
+  <si>
+    <t>提供政策建议</t>
+  </si>
+  <si>
     <t>应用性政策研究组织含义</t>
   </si>
   <si>
+    <t>规定，建议</t>
+  </si>
+  <si>
+    <t>脱离政治</t>
+  </si>
+  <si>
+    <t>为政府，公司，社团出谋划策</t>
+  </si>
+  <si>
+    <t>提供理论方法</t>
+  </si>
+  <si>
     <t>应用性政策研究组织作用</t>
   </si>
   <si>
+    <t>描述，监控</t>
+  </si>
+  <si>
+    <t>反复无常</t>
+  </si>
+  <si>
+    <t>提供决策行为的社会组织</t>
+  </si>
+  <si>
+    <t>提供解决方案</t>
+  </si>
+  <si>
     <t>应用性政策研究组织类型（与政府的关系）</t>
   </si>
   <si>
+    <t>一知半解</t>
+  </si>
+  <si>
+    <t>传输高质量人才</t>
+  </si>
+  <si>
     <t>政策学知识的主要应用者包括</t>
   </si>
   <si>
+    <t>生搬硬套</t>
+  </si>
+  <si>
+    <t>输送政策思想</t>
+  </si>
+  <si>
     <t>政策分析师的角色定位（德罗尔）</t>
   </si>
   <si>
+    <t>应用型政策研究组织</t>
+  </si>
+  <si>
+    <t>政策制定的补充单元</t>
+  </si>
+  <si>
     <t>【政策分析师】的【素质要求】（德罗尔）</t>
   </si>
   <si>
+    <t>政策分析师</t>
+  </si>
+  <si>
+    <t>事业</t>
+  </si>
+  <si>
+    <t>科学和政治的桥梁</t>
+  </si>
+  <si>
     <t>政策分析师职业伦理</t>
   </si>
   <si>
+    <t>产业型</t>
+  </si>
+  <si>
+    <t>价值中立者</t>
+  </si>
+  <si>
     <t>政策分析师职业伦理的核心是</t>
+  </si>
+  <si>
+    <t>政治头脑</t>
+  </si>
+  <si>
+    <t>道德品质</t>
+  </si>
+  <si>
+    <t>民办非法人</t>
+  </si>
+  <si>
+    <t>职业化的政策意见提供者</t>
+  </si>
+  <si>
+    <t>具有洞察力</t>
+  </si>
+  <si>
+    <t>行为规范</t>
+  </si>
+  <si>
+    <t>学术性</t>
+  </si>
+  <si>
+    <t>创新能力</t>
+  </si>
+  <si>
+    <t>价值判断</t>
+  </si>
+  <si>
+    <t>总体观念</t>
+  </si>
+  <si>
+    <t>公共责任</t>
+  </si>
+  <si>
+    <t>弹性思维</t>
+  </si>
+  <si>
+    <t>公共利益</t>
+  </si>
+  <si>
+    <t>着眼于未来</t>
   </si>
 </sst>
 </file>
@@ -2509,9 +2692,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2586,14 +2769,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2607,37 +2783,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2652,6 +2799,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2660,39 +2845,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2708,14 +2876,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2737,31 +2920,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2773,13 +2956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2791,7 +2974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2809,7 +2992,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,43 +3052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,25 +3070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2905,19 +3100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,6 +3111,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2946,17 +3153,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2978,53 +3205,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3034,10 +3217,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3046,133 +3229,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3671,10 +3854,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3683,154 +3866,371 @@
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="O1" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>797</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>803</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>802</v>
+        <v>808</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3"/>
+      <c r="O6" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>817</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>825</v>
+        <v>841</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11">
+      <c r="G24" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11">
+      <c r="G26" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11">
+      <c r="G27" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" s="2" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1092">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2620,90 +2620,363 @@
     <t>政策稳定的内涵</t>
   </si>
   <si>
+    <t>政策在受到内外环境的影响下，保持既定目标不变</t>
+  </si>
+  <si>
+    <t>有利于国家和社会的稳定</t>
+  </si>
+  <si>
     <t>稳定是相对的，表现在两个方面</t>
   </si>
   <si>
+    <t>还在按照既定方向实施</t>
+  </si>
+  <si>
+    <t>降低政策实施的成本</t>
+  </si>
+  <si>
     <t>政策稳定的积极意义</t>
   </si>
   <si>
+    <t>时间上看，阶段和连续的统一</t>
+  </si>
+  <si>
+    <t>有利于政策执行者坚定不移的执行政策，实现政策目标</t>
+  </si>
+  <si>
     <t>政策稳定的消极意义</t>
   </si>
   <si>
+    <t>空间，局部和全局的统一</t>
+  </si>
+  <si>
+    <t>提高政策的可预见性，提高政策效率</t>
+  </si>
+  <si>
     <t>政策稳定的动力因素</t>
   </si>
   <si>
+    <t>过于稳定，政策趋于保守</t>
+  </si>
+  <si>
     <t>政策本身的稳定因素</t>
   </si>
   <si>
+    <t>政策主体和网络要相对稳定</t>
+  </si>
+  <si>
+    <t>长期性</t>
+  </si>
+  <si>
     <t>政策维持的对策和措施</t>
   </si>
   <si>
+    <t>政策问题的解决需要一个过程</t>
+  </si>
+  <si>
+    <t>政策主体的政策维持</t>
+  </si>
+  <si>
+    <t>保持政策主体的稳定</t>
+  </si>
+  <si>
     <t>如何政策主体的【政策维持】</t>
   </si>
   <si>
+    <t>政策环境需要稳定</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>政策客体的政策维持</t>
+  </si>
+  <si>
+    <t>政策对政策目标的认可</t>
+  </si>
+  <si>
     <t>如何政策客体的【政策维持】</t>
   </si>
   <si>
+    <t>政策本身需要稳定</t>
+  </si>
+  <si>
+    <t>复杂性</t>
+  </si>
+  <si>
+    <t>政策环境的创设</t>
+  </si>
+  <si>
+    <t>个政策主体之间沟通合作</t>
+  </si>
+  <si>
+    <t>失效性</t>
+  </si>
+  <si>
+    <t>政策法制化</t>
+  </si>
+  <si>
+    <t>建立完善的政策体质和机制</t>
+  </si>
+  <si>
     <t>公共政策变动的含义</t>
   </si>
   <si>
+    <t>针对政策内外环境的变化所做的一种对策</t>
+  </si>
+  <si>
+    <t>失败性</t>
+  </si>
+  <si>
+    <t>政策绩效的提高</t>
+  </si>
+  <si>
     <t>公共政策变动的原因</t>
   </si>
   <si>
+    <t>决策者的变动</t>
+  </si>
+  <si>
+    <t>断裂</t>
+  </si>
+  <si>
+    <t>政策终止</t>
+  </si>
+  <si>
+    <t>明确具体的政策界定问题</t>
+  </si>
+  <si>
     <t>公共政策变动类型：</t>
   </si>
   <si>
+    <t>政策环境的变动</t>
+  </si>
+  <si>
+    <t>政策调整</t>
+  </si>
+  <si>
+    <t>扩大政策受益面</t>
+  </si>
+  <si>
     <t>强度不同</t>
   </si>
   <si>
+    <t>政策资源的限制</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>重大</t>
+  </si>
+  <si>
+    <t>缩小政策的受损面</t>
+  </si>
+  <si>
     <t>程度不同</t>
   </si>
   <si>
+    <t>政策失效</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>机构</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>争取政策观望着</t>
+  </si>
+  <si>
     <t>内容不同</t>
   </si>
   <si>
+    <t>政策合法性收到质疑</t>
+  </si>
+  <si>
+    <t>代替</t>
+  </si>
+  <si>
+    <t>终结</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>分解</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>废止</t>
+  </si>
+  <si>
     <t>形式</t>
   </si>
   <si>
+    <t>周期性</t>
+  </si>
+  <si>
+    <t>不规律</t>
+  </si>
+  <si>
     <t>规律</t>
   </si>
   <si>
+    <t>主动</t>
+  </si>
+  <si>
     <t>动力</t>
   </si>
   <si>
+    <t>周期性，摆钟</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>血腥</t>
+  </si>
+  <si>
     <t>公共政策变动模式（西方学者的看法）</t>
   </si>
   <si>
+    <t>根据环境变化的需求，主动改变政策</t>
+  </si>
+  <si>
     <t>公共政策创新含义</t>
   </si>
   <si>
+    <t>要素，组合形态的过程</t>
+  </si>
+  <si>
     <t>公共政策创新两种形式</t>
   </si>
   <si>
+    <t>根本性创新</t>
+  </si>
+  <si>
+    <t>政策内部的变革，政策本身发生变化</t>
+  </si>
+  <si>
     <t>公共政策创新动力（为什么要创新）</t>
   </si>
   <si>
+    <t>渐进性创新</t>
+  </si>
+  <si>
+    <t>政策外部的变革，资金，环境，资源发生变化</t>
+  </si>
+  <si>
     <t>公共政策调整与接续：</t>
   </si>
   <si>
+    <t>利益的刚性限制</t>
+  </si>
+  <si>
+    <t>通过政策评估，监控，对不适应的政策信息进行修改，增加，删除的过程</t>
+  </si>
+  <si>
     <t>公共政策调整的含义</t>
   </si>
   <si>
+    <t>现行政策的约束</t>
+  </si>
+  <si>
+    <t>渐进</t>
+  </si>
+  <si>
+    <t>新删</t>
+  </si>
+  <si>
+    <t>界定问题</t>
+  </si>
+  <si>
+    <t>实事求斯</t>
+  </si>
+  <si>
     <t>公共政策调整的特点</t>
   </si>
   <si>
+    <t>公共意志的适中</t>
+  </si>
+  <si>
+    <t>局部</t>
+  </si>
+  <si>
+    <t>方案</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>提出方案</t>
+  </si>
+  <si>
+    <t>渐进调整</t>
+  </si>
+  <si>
     <t>公共政策调整的内容</t>
   </si>
   <si>
+    <t>成本的控制</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>调整方案</t>
+  </si>
+  <si>
+    <t>实时反馈</t>
+  </si>
+  <si>
     <t>公共政策的调整的形式</t>
   </si>
   <si>
+    <t>理性的局限</t>
+  </si>
+  <si>
+    <t>主客体</t>
+  </si>
+  <si>
+    <t>执行方案</t>
+  </si>
+  <si>
     <t>公共政策的调整的程序</t>
   </si>
   <si>
+    <t>社会稳定的需要</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
     <t>公共政策的调整的原则</t>
   </si>
   <si>
+    <t>及时纠正</t>
+  </si>
+  <si>
+    <t>协调关系</t>
+  </si>
+  <si>
+    <t>发展完善</t>
+  </si>
+  <si>
     <t>公共政策调整的原因（政策为什么要调整）</t>
   </si>
   <si>
@@ -2827,9 +3100,6 @@
     <t>交换不对称</t>
   </si>
   <si>
-    <t>目标</t>
-  </si>
-  <si>
     <t>系统</t>
   </si>
   <si>
@@ -2870,9 +3140,6 @@
   </si>
   <si>
     <t>将科学方法应用于解决公共问题</t>
-  </si>
-  <si>
-    <t>方案</t>
   </si>
   <si>
     <t>预测性</t>
@@ -4226,87 +4493,87 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>907</v>
+        <v>998</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>908</v>
+        <v>999</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>909</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>910</v>
+        <v>1001</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>911</v>
+        <v>1002</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>912</v>
+        <v>1003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>913</v>
+        <v>1004</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>914</v>
+        <v>1005</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>915</v>
+        <v>1006</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>916</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>917</v>
+        <v>1008</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>918</v>
+        <v>1009</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>919</v>
+        <v>1010</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>920</v>
+        <v>1011</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>921</v>
+        <v>1012</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>922</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>923</v>
+        <v>1014</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>924</v>
+        <v>1015</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>925</v>
+        <v>1016</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>926</v>
+        <v>1017</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>927</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>928</v>
+        <v>1019</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>929</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>909</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>707</v>
@@ -4314,30 +4581,30 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>930</v>
+        <v>1021</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>931</v>
+        <v>1022</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>932</v>
+        <v>1023</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>933</v>
+        <v>1024</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>935</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>936</v>
+        <v>1026</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>937</v>
+        <v>1027</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>326</v>
@@ -4348,72 +4615,72 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>938</v>
+        <v>1028</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>939</v>
+        <v>1029</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>940</v>
+        <v>1030</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>941</v>
+        <v>1031</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>942</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>943</v>
+        <v>1033</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>944</v>
+        <v>1034</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>945</v>
+        <v>1035</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>484</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>946</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>947</v>
+        <v>1037</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>948</v>
+        <v>1038</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>950</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>951</v>
+        <v>1040</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>952</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>953</v>
+        <v>1042</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>954</v>
+        <v>1043</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>955</v>
+        <v>1044</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>956</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4421,174 +4688,174 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>957</v>
+        <v>1046</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>958</v>
+        <v>1047</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>959</v>
+        <v>1048</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>960</v>
+        <v>1049</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>961</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>962</v>
+        <v>1051</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>963</v>
+        <v>1052</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>964</v>
+        <v>1053</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>965</v>
+        <v>1054</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>966</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
-        <v>967</v>
+        <v>1056</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>968</v>
+        <v>1057</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>969</v>
+        <v>1058</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>970</v>
+        <v>1059</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>971</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>972</v>
+        <v>1061</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>280</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>973</v>
+        <v>1062</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>974</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>975</v>
+        <v>1064</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>976</v>
+        <v>1065</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>977</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>978</v>
+        <v>1067</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>979</v>
+        <v>1068</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>980</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>981</v>
+        <v>1070</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>982</v>
+        <v>1071</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>983</v>
+        <v>1072</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>984</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>985</v>
+        <v>1074</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>986</v>
+        <v>1075</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>987</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>988</v>
+        <v>1077</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>989</v>
+        <v>1078</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>990</v>
+        <v>1079</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>991</v>
+        <v>1080</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>992</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="24" spans="7:11">
       <c r="G24" s="2" t="s">
-        <v>993</v>
+        <v>1082</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>994</v>
+        <v>1083</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>995</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="2" t="s">
-        <v>996</v>
+        <v>1085</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>997</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="26" spans="7:11">
       <c r="G26" s="2" t="s">
-        <v>998</v>
+        <v>1087</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>999</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" s="2" t="s">
-        <v>1000</v>
+        <v>1089</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1001</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="2" t="s">
-        <v>1002</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -24340,10 +24607,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -24357,219 +24624,514 @@
         <v>863</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="K5" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14">
+      <c r="I11" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>881</v>
+        <v>907</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="27" ht="17.1" customHeight="1" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="5" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="27" ht="17.1" customHeight="1" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="28" ht="17.1" customHeight="1" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>892</v>
+        <v>950</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="28" ht="17.1" customHeight="1" spans="1:11">
+      <c r="A28" s="6" t="s">
+        <v>953</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>893</v>
+      <c r="A34" s="6" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>894</v>
+      <c r="A35" s="6" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>895</v>
+        <v>986</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>896</v>
+        <v>987</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>897</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>898</v>
+        <v>989</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>899</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>900</v>
+        <v>991</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>901</v>
+        <v>992</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>902</v>
+        <v>993</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>903</v>
+        <v>994</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>904</v>
+        <v>995</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>905</v>
+        <v>996</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>906</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="909" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="909" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1125">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2875,6 +2875,9 @@
     <t>政策外部的变革，资金，环境，资源发生变化</t>
   </si>
   <si>
+    <t>因势导利</t>
+  </si>
+  <si>
     <t>公共政策调整与接续：</t>
   </si>
   <si>
@@ -2884,6 +2887,9 @@
     <t>通过政策评估，监控，对不适应的政策信息进行修改，增加，删除的过程</t>
   </si>
   <si>
+    <t>公开评估</t>
+  </si>
+  <si>
     <t>公共政策调整的含义</t>
   </si>
   <si>
@@ -2902,6 +2908,9 @@
     <t>实事求斯</t>
   </si>
   <si>
+    <t>废旧立新并存</t>
+  </si>
+  <si>
     <t>公共政策调整的特点</t>
   </si>
   <si>
@@ -2923,6 +2932,9 @@
     <t>渐进调整</t>
   </si>
   <si>
+    <t>试探试点</t>
+  </si>
+  <si>
     <t>公共政策调整的内容</t>
   </si>
   <si>
@@ -2944,6 +2956,9 @@
     <t>实时反馈</t>
   </si>
   <si>
+    <t>终结必要部分</t>
+  </si>
+  <si>
     <t>公共政策的调整的形式</t>
   </si>
   <si>
@@ -2983,40 +2998,124 @@
     <t>公共政策调整的作用</t>
   </si>
   <si>
+    <t>以政策问题为中心，努力保持政策的稳定，连续的过程</t>
+  </si>
+  <si>
+    <t>一版是就政策被新政策替换的过程</t>
+  </si>
+  <si>
     <t>公共政策的接续内涵</t>
   </si>
   <si>
     <t>公共政策的接续意义</t>
   </si>
   <si>
+    <t>保持政策稳定</t>
+  </si>
+  <si>
+    <t>线性接续</t>
+  </si>
+  <si>
+    <t>明确政策的界定目标</t>
+  </si>
+  <si>
     <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
   </si>
   <si>
+    <t>有利于政策变动</t>
+  </si>
+  <si>
+    <t>非正式接续</t>
+  </si>
+  <si>
+    <t>加强政策管理</t>
+  </si>
+  <si>
     <t>公共政策的接续途经</t>
   </si>
   <si>
+    <t>得到政策的认同</t>
+  </si>
+  <si>
+    <t>政策合并</t>
+  </si>
+  <si>
+    <t>强调政策法制化</t>
+  </si>
+  <si>
+    <t>政策分解、</t>
+  </si>
+  <si>
+    <t>加强政策额评估</t>
+  </si>
+  <si>
     <t>公共政策的终结：</t>
   </si>
   <si>
+    <t>政策不符，终止</t>
+  </si>
+  <si>
     <t>公共政策的终结的含义</t>
   </si>
   <si>
+    <t>通过对政策评估，采取的重要措施，终止那些错误的多余的政策</t>
+  </si>
+  <si>
+    <t>完全政策而终结，部分中策中介</t>
+  </si>
+  <si>
     <t>公共政策的终结的对象</t>
   </si>
   <si>
     <t>公共政策的终结的方式</t>
   </si>
   <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>废纸</t>
+  </si>
+  <si>
+    <t>解决了政策目标，和问题，没有继续存在的必要</t>
+  </si>
+  <si>
     <t>公共政策终结的原因</t>
   </si>
   <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>无法解决目标，继续执行浪费资源</t>
+  </si>
+  <si>
     <t>公共政策终结的作用</t>
   </si>
   <si>
+    <t>节省政策资源</t>
+  </si>
+  <si>
+    <t>组织的持久性</t>
+  </si>
+  <si>
     <t>公共政策终结的障碍</t>
   </si>
   <si>
+    <t>计划/项目</t>
+  </si>
+  <si>
+    <t>提高政策绩效</t>
+  </si>
+  <si>
+    <t>代价</t>
+  </si>
+  <si>
     <t>公共政策终结的策略</t>
+  </si>
+  <si>
+    <t>缩减</t>
+  </si>
+  <si>
+    <t>有利于政策优化</t>
   </si>
   <si>
     <t>政策学的知识应用于政策分析：</t>
@@ -3389,46 +3488,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3449,17 +3533,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3470,9 +3577,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3480,30 +3587,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3527,7 +3618,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3542,7 +3641,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3554,7 +3695,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,7 +3755,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3578,151 +3815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3736,17 +3835,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3769,22 +3862,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3807,29 +3909,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3839,10 +3938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3851,133 +3950,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4493,87 +4592,87 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1004</v>
+        <v>1037</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1006</v>
+        <v>1039</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>1018</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>707</v>
@@ -4581,30 +4680,30 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>1021</v>
+        <v>1054</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1022</v>
+        <v>1055</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1023</v>
+        <v>1056</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>1024</v>
+        <v>1057</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>918</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>1026</v>
+        <v>1059</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1027</v>
+        <v>1060</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>326</v>
@@ -4615,72 +4714,72 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1029</v>
+        <v>1062</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1030</v>
+        <v>1063</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>1031</v>
+        <v>1064</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1032</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>1033</v>
+        <v>1066</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1034</v>
+        <v>1067</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1035</v>
+        <v>1068</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>484</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>1040</v>
+        <v>1073</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1041</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>1042</v>
+        <v>1075</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1045</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4688,174 +4787,174 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1047</v>
+        <v>1080</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1048</v>
+        <v>1081</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>1051</v>
+        <v>1084</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1053</v>
+        <v>1086</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1054</v>
+        <v>1087</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1055</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1057</v>
+        <v>1090</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1059</v>
+        <v>1092</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>1060</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>1061</v>
+        <v>1094</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>280</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>1062</v>
+        <v>1095</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>1064</v>
+        <v>1097</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1068</v>
+        <v>1101</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>99</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>1070</v>
+        <v>1103</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>1072</v>
+        <v>1105</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>1073</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>1074</v>
+        <v>1107</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1075</v>
+        <v>1108</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>1077</v>
+        <v>1110</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1079</v>
+        <v>1112</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1081</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="7:11">
       <c r="G24" s="2" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1084</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="2" t="s">
-        <v>1085</v>
+        <v>1118</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>1086</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="26" spans="7:11">
       <c r="G26" s="2" t="s">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>1088</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" s="2" t="s">
-        <v>1089</v>
+        <v>1122</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>1090</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="2" t="s">
-        <v>1091</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -24607,10 +24706,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -24934,7 +25033,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:15">
       <c r="A25" s="6" t="s">
         <v>947</v>
       </c>
@@ -24944,194 +25043,314 @@
       <c r="J25" s="5" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="27" ht="17.1" customHeight="1" spans="1:7">
+      <c r="O25" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27" ht="17.1" customHeight="1" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="28" ht="17.1" customHeight="1" spans="1:11">
+        <v>953</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="28" ht="17.1" customHeight="1" spans="1:15">
       <c r="A28" s="6" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>918</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>960</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="6" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>968</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>972</v>
+        <v>976</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
-        <v>985</v>
+        <v>990</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="5" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
-        <v>991</v>
+        <v>1008</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
-        <v>997</v>
+      <c r="A44" s="6" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="749" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="946" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="881">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1156,84 +1156,30 @@
     <t>【政策目标】特征</t>
   </si>
   <si>
-    <t>为了解决问题</t>
-  </si>
-  <si>
-    <t>问题的正对性，不能脱离政策目标</t>
-  </si>
-  <si>
     <t>政策目标的分类（目标地位，时间，空间，政策领域，服务主体）</t>
   </si>
   <si>
-    <t>采取的行动所要达到的目标效果</t>
-  </si>
-  <si>
-    <t>未来的预期性，要有超线性，随着环境变化</t>
-  </si>
-  <si>
-    <t>实事求是</t>
-  </si>
-  <si>
     <t>【公共政策】的【基本目标】</t>
   </si>
   <si>
-    <t>多元性，可能存在多个目标</t>
-  </si>
-  <si>
-    <t>面向未来</t>
-  </si>
-  <si>
     <t>【确定政策目标】的意义</t>
   </si>
   <si>
-    <t>公平</t>
-  </si>
-  <si>
-    <t>为政策方案提供指导性</t>
-  </si>
-  <si>
-    <t>系统协调</t>
-  </si>
-  <si>
     <t>【确定政策目标】原则</t>
   </si>
   <si>
-    <t>效率</t>
-  </si>
-  <si>
-    <t>为政策目标提供评估标准</t>
-  </si>
-  <si>
-    <t>明确具体</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>伦理考量</t>
-  </si>
-  <si>
     <t>政策规划（整个过程阶段论）</t>
   </si>
   <si>
-    <t>安全</t>
-  </si>
-  <si>
     <t>政策设计</t>
   </si>
   <si>
     <t>政策设计逻辑结构</t>
   </si>
   <si>
-    <t>为了实现政策目标，公共机关拟定草案和行为规范的过程</t>
-  </si>
-  <si>
     <t>【政策规划】与【政策设计】的关系</t>
   </si>
   <si>
-    <t>政策执行者，系统的探讨政策问题，组织政策要素，达到解决政策问题的过程</t>
-  </si>
-  <si>
     <t>政策规划的主体（行政机关，立法机关，研究机构，利益集团</t>
   </si>
   <si>
@@ -1243,355 +1189,352 @@
     <t>政策规划的模式与参考框架</t>
   </si>
   <si>
+    <t>借鉴不同国家的政策方案，从中摄取灵感和启发</t>
+  </si>
+  <si>
     <t>政策学习</t>
   </si>
   <si>
+    <t>标准看</t>
+  </si>
+  <si>
     <t>影响政策学习的因素（成功失败的因素）</t>
   </si>
   <si>
+    <t>面临问题的性质，别人的问题和我们的问题是否一样</t>
+  </si>
+  <si>
     <t>政策学习的类型</t>
   </si>
   <si>
+    <t>组织内部文化，价值的问题</t>
+  </si>
+  <si>
+    <t>步骤看</t>
+  </si>
+  <si>
+    <t>环境的问题</t>
+  </si>
+  <si>
     <t>政策移植</t>
   </si>
   <si>
     <t>政策移植类型</t>
   </si>
   <si>
+    <t>借用其他国家公共政策的问题来解决本国问题</t>
+  </si>
+  <si>
+    <t>方法看</t>
+  </si>
+  <si>
     <t>政策移植失败</t>
   </si>
   <si>
+    <t>信息化的重要因素</t>
+  </si>
+  <si>
+    <t>内容合法</t>
+  </si>
+  <si>
+    <t>程序合法</t>
+  </si>
+  <si>
     <t>公共政策的抉择主体</t>
   </si>
   <si>
+    <t>尊重科学分析价值</t>
+  </si>
+  <si>
     <t>公共决策的抉择原则（不允许犯的低级错误）</t>
   </si>
   <si>
+    <t>保持利益平衡</t>
+  </si>
+  <si>
+    <t>发挥决策者能动性</t>
+  </si>
+  <si>
     <t>政策论证六大要素</t>
   </si>
   <si>
+    <t>遵守相关程序规定</t>
+  </si>
+  <si>
     <t>政策论证的特殊形式</t>
   </si>
   <si>
+    <t>围绕政策特定的议题或政策方案某些论证进行辩护的过程</t>
+  </si>
+  <si>
     <t>政策抉择过程有3个环节</t>
   </si>
   <si>
+    <t>政策信息</t>
+  </si>
+  <si>
     <t>政策审议含义</t>
   </si>
   <si>
+    <t>政策主张</t>
+  </si>
+  <si>
+    <t>论证，议程，采纳</t>
+  </si>
+  <si>
     <t>政策审议方法</t>
   </si>
   <si>
+    <t>立论理由</t>
+  </si>
+  <si>
     <t>政策审议方法预测性评估</t>
   </si>
   <si>
+    <t>理论依据</t>
+  </si>
+  <si>
+    <t>决策者选择一个最优方案，以这个方案为主，加入其它方案的优点，行程新的方法</t>
+  </si>
+  <si>
     <t>政策审议可行性评估</t>
   </si>
   <si>
+    <t>驳论里有</t>
+  </si>
+  <si>
+    <t>通过评估，行程文本</t>
+  </si>
+  <si>
     <t>政策采纳</t>
   </si>
   <si>
+    <t>可行度</t>
+  </si>
+  <si>
     <t>政策采纳内容</t>
   </si>
   <si>
+    <t>预测性评估</t>
+  </si>
+  <si>
+    <t>根据相关法律，按照程序，对政策加以审查，部署，发布的过程</t>
+  </si>
+  <si>
+    <t>可行性评估</t>
+  </si>
+  <si>
     <t>危机决策的含义</t>
   </si>
   <si>
     <t>危机决策的要素</t>
   </si>
   <si>
+    <t>不可逆性，短时间内，在有限资源下，做出重大的决策</t>
+  </si>
+  <si>
     <t>危机决策与常规决策的联系</t>
   </si>
   <si>
+    <t>问题的发生具有突然性，积聚性</t>
+  </si>
+  <si>
+    <t>危机决策的根源与常规决策的具体运作效果</t>
+  </si>
+  <si>
+    <t>利用的时间非常有限</t>
+  </si>
+  <si>
+    <t>决策后果很难预料</t>
+  </si>
+  <si>
+    <t>危机决策的根源在于常规决策的具体运作效果</t>
+  </si>
+  <si>
+    <t>危机决策可以完善常规决策</t>
+  </si>
+  <si>
     <t>公共政策执行的含义</t>
   </si>
   <si>
+    <t>为了实现政策目标，通过政策主题，使用各种手段，将内容变为现实的贵哦陈</t>
+  </si>
+  <si>
     <t>公共政策的特点</t>
   </si>
   <si>
-    <t>行政主体为了实现政策目标</t>
-  </si>
-  <si>
-    <t>目标的导向性</t>
-  </si>
-  <si>
-    <t>实现目标</t>
-  </si>
-  <si>
     <t>公共政策的作用</t>
   </si>
   <si>
-    <t>通过各种手段作用于政策对象</t>
-  </si>
-  <si>
-    <t>内容务实性</t>
-  </si>
-  <si>
-    <t>检测质量</t>
-  </si>
-  <si>
-    <t>实现政策内容的过程</t>
-  </si>
-  <si>
-    <t>行为能动性</t>
-  </si>
-  <si>
-    <t>实现后续政策的回一句</t>
+    <t>实现</t>
+  </si>
+  <si>
+    <t>在政策执行过程中，通过实事求是，一切从实际出发，去的经验后全面推广的贵哦陈</t>
+  </si>
+  <si>
+    <t>制定</t>
+  </si>
+  <si>
+    <t>从群众中来，到群众中去</t>
   </si>
   <si>
     <t>“上下来去”模型含义</t>
   </si>
   <si>
-    <t>手段权威性</t>
+    <t>检车</t>
+  </si>
+  <si>
+    <t>试验推广的贵哦陈</t>
   </si>
   <si>
     <t>“上下来去”模型内涵</t>
   </si>
   <si>
-    <t>在当代中国实践中</t>
-  </si>
-  <si>
-    <t>从群众中来，到群众中中去</t>
+    <t>总结的过程</t>
+  </si>
+  <si>
+    <t>拟定纲领</t>
   </si>
   <si>
     <t>给予西方经验的政策执行理论模型</t>
   </si>
   <si>
-    <t>按事实就是，一切从实际出发的住提，通过采集试点</t>
-  </si>
-  <si>
-    <t>推广的过程</t>
-  </si>
-  <si>
-    <t>上令下行</t>
+    <t>分配资源</t>
   </si>
   <si>
     <t>过程模型（史密斯模型）影响政策执行的因素</t>
   </si>
   <si>
-    <t>取得经验后，全面推广的政策检验方式</t>
-  </si>
-  <si>
-    <t>总结的过程</t>
-  </si>
-  <si>
-    <t>下情上达</t>
+    <t>监督执行</t>
+  </si>
+  <si>
+    <t>政策目标</t>
   </si>
   <si>
     <t>循环模型政策执行要经历三个阶段</t>
   </si>
   <si>
+    <t>执行性</t>
+  </si>
+  <si>
+    <t>政策资源</t>
+  </si>
+  <si>
     <t>循环模型政策执行要经历三个原则</t>
   </si>
   <si>
-    <t>理想化的政策</t>
-  </si>
-  <si>
-    <t>过程模型</t>
-  </si>
-  <si>
-    <t>史密斯</t>
-  </si>
-  <si>
-    <t>拟定纲领</t>
-  </si>
-  <si>
-    <t>合法</t>
-  </si>
-  <si>
-    <t>政策目标</t>
+    <t>权威性</t>
+  </si>
+  <si>
+    <t>执行者</t>
   </si>
   <si>
     <t>循环模型政策执行</t>
   </si>
   <si>
-    <t>执行机关</t>
-  </si>
-  <si>
-    <t>综合模型</t>
-  </si>
-  <si>
-    <t>妹子满年</t>
-  </si>
-  <si>
-    <t>分配资源</t>
-  </si>
-  <si>
-    <t>理性</t>
-  </si>
-  <si>
-    <t>执行者</t>
+    <t>法执行</t>
+  </si>
+  <si>
+    <t>执行方式</t>
   </si>
   <si>
     <t>系统模型（霍恩，米特模型）影响政策执行的5个变量</t>
   </si>
   <si>
-    <t>目标群体</t>
-  </si>
-  <si>
-    <t>互适模型</t>
-  </si>
-  <si>
-    <t>麦克拉夫领</t>
-  </si>
-  <si>
-    <t>监督</t>
-  </si>
-  <si>
-    <t>共识</t>
-  </si>
-  <si>
-    <t>政策资源</t>
+    <t>服务性</t>
+  </si>
+  <si>
+    <t>系统环境</t>
   </si>
   <si>
     <t>政策执行机关的特性</t>
   </si>
   <si>
+    <t>优化决策</t>
+  </si>
+  <si>
+    <t>公共政策执行力含义</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>创新动力</t>
+  </si>
+  <si>
+    <t>公共政策执行力影响因素</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>构建功能</t>
+  </si>
+  <si>
+    <t>创新政策执行力的机制</t>
+  </si>
+  <si>
     <t>环境</t>
   </si>
   <si>
-    <t>循环模型，雷恩</t>
-  </si>
-  <si>
-    <t>系统环境</t>
-  </si>
-  <si>
-    <t>公共政策执行力含义</t>
-  </si>
-  <si>
-    <t>执行性</t>
-  </si>
-  <si>
-    <t>博弈模型</t>
-  </si>
-  <si>
-    <t>巴达克</t>
-  </si>
-  <si>
-    <t>执行方式</t>
-  </si>
-  <si>
-    <t>公共政策执行力影响因素</t>
-  </si>
-  <si>
-    <t>权威性</t>
-  </si>
-  <si>
-    <t>公共政策有效执行的成都</t>
-  </si>
-  <si>
-    <t>系统模型</t>
-  </si>
-  <si>
-    <t>霍恩</t>
-  </si>
-  <si>
-    <t>创新政策执行力的机制</t>
-  </si>
-  <si>
-    <t>法执行</t>
-  </si>
-  <si>
-    <t>结构合理，责任明确</t>
-  </si>
-  <si>
-    <t>优化决策机制，科学，民主</t>
+    <t>完善利益</t>
+  </si>
+  <si>
+    <t>影响公共政策执行的主要原因</t>
+  </si>
+  <si>
+    <t>政府</t>
   </si>
   <si>
     <t>政策本身</t>
   </si>
   <si>
-    <t>合理</t>
-  </si>
-  <si>
-    <t>具体</t>
-  </si>
-  <si>
-    <t>稳定</t>
-  </si>
-  <si>
-    <t>影响公共政策执行的主要原因</t>
-  </si>
-  <si>
-    <t>服务性</t>
-  </si>
-  <si>
-    <t>创新动力机制（民众参与</t>
-  </si>
-  <si>
-    <t>执行主体</t>
-  </si>
-  <si>
-    <t>执行组织</t>
-  </si>
-  <si>
-    <t>执行人员</t>
-  </si>
-  <si>
-    <t>利益</t>
-  </si>
-  <si>
-    <t>心里</t>
-  </si>
-  <si>
-    <t>知识</t>
-  </si>
-  <si>
-    <t>能力</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>构建共享机制，信息沟通，监督</t>
+    <t>主体</t>
+  </si>
+  <si>
+    <t>公民对政策的认知</t>
+  </si>
+  <si>
+    <t>执行主体执行组织</t>
+  </si>
+  <si>
+    <t>利益分配</t>
+  </si>
+  <si>
+    <t>执行主体执行人员</t>
+  </si>
+  <si>
+    <t>自然环境</t>
+  </si>
+  <si>
+    <t>规定性</t>
+  </si>
+  <si>
+    <t>政策成本的接受程度</t>
+  </si>
+  <si>
+    <t>政策对象特点</t>
+  </si>
+  <si>
+    <t>社会环境</t>
   </si>
   <si>
     <t>政策对象</t>
   </si>
   <si>
-    <t>执行主体执行组织</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>完善利益均衡</t>
+    <t>被动型</t>
+  </si>
+  <si>
+    <t>政策对象影响政策执行</t>
+  </si>
+  <si>
+    <t>差异性</t>
   </si>
   <si>
     <t>政策环境</t>
   </si>
   <si>
-    <t>执行主体执行人员</t>
-  </si>
-  <si>
-    <t>自然环境</t>
-  </si>
-  <si>
-    <t>政策对象特点</t>
-  </si>
-  <si>
-    <t>政策规定性</t>
-  </si>
-  <si>
-    <t>政策认知（公民是否参与）</t>
-  </si>
-  <si>
-    <t>社会环境</t>
-  </si>
-  <si>
-    <t>政策对象影响政策执行</t>
-  </si>
-  <si>
-    <t>政策差异性</t>
-  </si>
-  <si>
-    <t>受动性</t>
-  </si>
-  <si>
-    <t>对政策成本的接受程度</t>
-  </si>
-  <si>
-    <t>文化</t>
+    <t>因主客观因素的问题，政策结果与目标发生偏差，导致不良因素</t>
   </si>
   <si>
     <t>公共政策执行偏差及其矫正：</t>
@@ -1600,1210 +1543,910 @@
     <t>政策失灵类型：</t>
   </si>
   <si>
-    <t>早期</t>
-  </si>
-  <si>
-    <t>中期</t>
-  </si>
-  <si>
-    <t>后期</t>
-  </si>
-  <si>
-    <t>象征，做给领导看</t>
+    <t>观察</t>
+  </si>
+  <si>
+    <t>执行机制和执行者的缺陷</t>
   </si>
   <si>
     <t>以失灵时间为准：</t>
   </si>
   <si>
-    <t>严重</t>
-  </si>
-  <si>
-    <t>轻度</t>
+    <t>规避</t>
+  </si>
+  <si>
+    <t>利益的影响</t>
+  </si>
+  <si>
+    <t>以失灵程度为准：</t>
+  </si>
+  <si>
+    <t>替代</t>
+  </si>
+  <si>
+    <t>政策原则没有把握好</t>
+  </si>
+  <si>
+    <t>以持续性为准：</t>
+  </si>
+  <si>
+    <t>象征</t>
+  </si>
+  <si>
+    <t>加强成本收益的分析</t>
+  </si>
+  <si>
+    <t>目标群体不配合</t>
+  </si>
+  <si>
+    <t>什么是公共政策执行偏差</t>
+  </si>
+  <si>
+    <t>附加</t>
+  </si>
+  <si>
+    <t>加强政策认知</t>
+  </si>
+  <si>
+    <t>政策环境 的影响</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差表现形式</t>
+  </si>
+  <si>
+    <t>残缺</t>
+  </si>
+  <si>
+    <t>加强执行者素质</t>
+  </si>
+  <si>
+    <t>执行偏差产生的原因</t>
+  </si>
+  <si>
+    <t>加强监督</t>
+  </si>
+  <si>
+    <t>公共政策执行偏差的矫正</t>
+  </si>
+  <si>
+    <t>加强制度创新</t>
+  </si>
+  <si>
+    <t>政策偏离了目标</t>
+  </si>
+  <si>
+    <t>公共政策的无效执行与有效执行：</t>
+  </si>
+  <si>
+    <t>政策执行结果未能达到预期</t>
+  </si>
+  <si>
+    <t>政策失灵的含义</t>
+  </si>
+  <si>
+    <t>未能解决政策问题</t>
+  </si>
+  <si>
+    <t>政策无效执行的含义</t>
+  </si>
+  <si>
+    <t>没有达到政策木表</t>
+  </si>
+  <si>
+    <t>为什么会出现无效执行</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的原则</t>
+  </si>
+  <si>
+    <t>公共政策有效执行的机制</t>
+  </si>
+  <si>
+    <t>公共政策评估的作用，主体与类型：</t>
+  </si>
+  <si>
+    <t>公共政策评估含义</t>
+  </si>
+  <si>
+    <t>根据一定的评价标准和程序</t>
+  </si>
+  <si>
+    <t>获取有效的政策信息</t>
+  </si>
+  <si>
+    <t>公共政策评估的目的</t>
+  </si>
+  <si>
+    <t>对政策结果进行评估，判断是否实现政策目标的结果</t>
+  </si>
+  <si>
+    <t>改善政策的重要依据</t>
+  </si>
+  <si>
+    <t>公共政策评估的作用</t>
+  </si>
+  <si>
+    <t>评估政策的手段</t>
+  </si>
+  <si>
+    <t>公共政策评估的主体</t>
+  </si>
+  <si>
+    <t>积极目的</t>
+  </si>
+  <si>
+    <t>发现偏差</t>
+  </si>
+  <si>
+    <t>大虫出啊</t>
+  </si>
+  <si>
+    <t>重新分配资源的前提</t>
+  </si>
+  <si>
+    <t>政策制定者和执行者评估结构表现为</t>
+  </si>
+  <si>
+    <t>政府内部组织人员</t>
+  </si>
+  <si>
+    <t>明确可执行度</t>
+  </si>
+  <si>
+    <t>政策制定者和执行者</t>
+  </si>
+  <si>
+    <t>构建良好关系的保证</t>
+  </si>
+  <si>
+    <t>决策机构专业人员进行的</t>
+  </si>
+  <si>
+    <t>改善程序与设计</t>
+  </si>
+  <si>
+    <t>专业人员机构</t>
+  </si>
+  <si>
+    <t>合法，民主，公民话的保证</t>
+  </si>
+  <si>
+    <t>公共政策额评估的类型</t>
+  </si>
+  <si>
+    <t>政府专职人员进行</t>
+  </si>
+  <si>
+    <t>合理配置资源</t>
+  </si>
+  <si>
+    <t>正式评估特点</t>
+  </si>
+  <si>
+    <t>消极的目的</t>
+  </si>
+  <si>
+    <t>有专业人员从事的评估</t>
+  </si>
+  <si>
+    <t>内部评估</t>
+  </si>
+  <si>
+    <t>政策可行性</t>
+  </si>
+  <si>
+    <t>评估方法专业性</t>
+  </si>
+  <si>
+    <t>外部评估</t>
+  </si>
+  <si>
+    <t>政策优先性</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>有一定客观性</t>
+  </si>
+  <si>
+    <t>不受委托进行的评估包括哪些</t>
+  </si>
+  <si>
+    <t>政策优缺点评估</t>
+  </si>
+  <si>
+    <t>收益</t>
+  </si>
+  <si>
+    <t>预评估主要有五方面内容</t>
+  </si>
+  <si>
+    <t>政策有效性评估</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>公共政策评估的内容</t>
+  </si>
+  <si>
+    <t>政策影响评估</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>影响需求</t>
+  </si>
+  <si>
+    <t>公共政策评估的过程，标准与影响因素：</t>
+  </si>
+  <si>
+    <t>公共政策评估的过程</t>
+  </si>
+  <si>
+    <t>评估筹划解决的问题</t>
+  </si>
+  <si>
+    <t>公共政策评估的标准</t>
+  </si>
+  <si>
+    <t>事实标准包含哪些</t>
+  </si>
+  <si>
+    <t>政策效率衡量标准</t>
+  </si>
+  <si>
+    <t>技术标准内容</t>
+  </si>
+  <si>
+    <t>价值标准包括那些</t>
+  </si>
+  <si>
+    <t>影响公共政策评估的主要原因</t>
+  </si>
+  <si>
+    <t>公共政策评估的方法：</t>
+  </si>
+  <si>
+    <t>以定量分析为主的评估方法</t>
+  </si>
+  <si>
+    <t>政策指标体系三类价值取向</t>
+  </si>
+  <si>
+    <t>回归分析法</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法含义</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法程序</t>
+  </si>
+  <si>
+    <t>公共政策监控：</t>
+  </si>
+  <si>
+    <t>公共政策监控的含义</t>
+  </si>
+  <si>
+    <t>政策监控内容</t>
+  </si>
+  <si>
+    <t>公共政策监控的类型</t>
+  </si>
+  <si>
+    <t>实施时间</t>
+  </si>
+  <si>
+    <t>监控的频率</t>
+  </si>
+  <si>
+    <t>参与程度</t>
+  </si>
+  <si>
+    <t>公共政策监控的功能（为什么要对政策进行监控）</t>
+  </si>
+  <si>
+    <t>公共政策监控机制的构成：</t>
+  </si>
+  <si>
+    <t>内部监控机制（通过监控方向）</t>
+  </si>
+  <si>
+    <t>监控过程</t>
+  </si>
+  <si>
+    <t>公共政策的稳定和变动：</t>
+  </si>
+  <si>
+    <t>政策稳定的内涵</t>
+  </si>
+  <si>
+    <t>政策在受到内外环境的影响下，保持既定目标不变</t>
+  </si>
+  <si>
+    <t>有利于国家和社会的稳定</t>
+  </si>
+  <si>
+    <t>稳定是相对的，表现在两个方面</t>
+  </si>
+  <si>
+    <t>还在按照既定方向实施</t>
+  </si>
+  <si>
+    <t>降低政策实施的成本</t>
+  </si>
+  <si>
+    <t>政策稳定的积极意义</t>
+  </si>
+  <si>
+    <t>时间上看，阶段和连续的统一</t>
+  </si>
+  <si>
+    <t>有利于政策执行者坚定不移的执行政策，实现政策目标</t>
+  </si>
+  <si>
+    <t>政策稳定的消极意义</t>
+  </si>
+  <si>
+    <t>空间，局部和全局的统一</t>
+  </si>
+  <si>
+    <t>提高政策的可预见性，提高政策效率</t>
+  </si>
+  <si>
+    <t>政策稳定的动力因素</t>
+  </si>
+  <si>
+    <t>过于稳定，政策趋于保守</t>
+  </si>
+  <si>
+    <t>政策本身的稳定因素</t>
+  </si>
+  <si>
+    <t>政策主体和网络要相对稳定</t>
+  </si>
+  <si>
+    <t>长期性</t>
+  </si>
+  <si>
+    <t>政策维持的对策和措施</t>
+  </si>
+  <si>
+    <t>政策问题的解决需要一个过程</t>
+  </si>
+  <si>
+    <t>有效性</t>
+  </si>
+  <si>
+    <t>政策主体的政策维持</t>
+  </si>
+  <si>
+    <t>保持政策主体的稳定</t>
+  </si>
+  <si>
+    <t>如何政策主体的【政策维持】</t>
+  </si>
+  <si>
+    <t>政策环境需要稳定</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>政策客体的政策维持</t>
+  </si>
+  <si>
+    <t>政策对政策目标的认可</t>
+  </si>
+  <si>
+    <t>如何政策客体的【政策维持】</t>
+  </si>
+  <si>
+    <t>政策本身需要稳定</t>
+  </si>
+  <si>
+    <t>复杂性</t>
+  </si>
+  <si>
+    <t>政策环境的创设</t>
+  </si>
+  <si>
+    <t>个政策主体之间沟通合作</t>
+  </si>
+  <si>
+    <t>失效性</t>
+  </si>
+  <si>
+    <t>政策法制化</t>
+  </si>
+  <si>
+    <t>建立完善的政策体质和机制</t>
+  </si>
+  <si>
+    <t>公共政策变动的含义</t>
+  </si>
+  <si>
+    <t>针对政策内外环境的变化所做的一种对策</t>
+  </si>
+  <si>
+    <t>失败性</t>
+  </si>
+  <si>
+    <t>政策绩效的提高</t>
+  </si>
+  <si>
+    <t>公共政策变动的原因</t>
+  </si>
+  <si>
+    <t>决策者的变动</t>
+  </si>
+  <si>
+    <t>断裂</t>
+  </si>
+  <si>
+    <t>政策终止</t>
+  </si>
+  <si>
+    <t>明确具体的政策界定问题</t>
+  </si>
+  <si>
+    <t>公共政策变动类型：</t>
+  </si>
+  <si>
+    <t>政策环境的变动</t>
+  </si>
+  <si>
+    <t>渐变</t>
+  </si>
+  <si>
+    <t>政策调整</t>
+  </si>
+  <si>
+    <t>扩大政策受益面</t>
+  </si>
+  <si>
+    <t>强度不同</t>
+  </si>
+  <si>
+    <t>政策资源的限制</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>重大</t>
   </si>
   <si>
     <t>完全</t>
   </si>
   <si>
-    <t>附加式执行，带了本部门的私立</t>
-  </si>
-  <si>
-    <t>成本收益分析</t>
-  </si>
-  <si>
-    <t>以失灵程度为准：</t>
-  </si>
-  <si>
-    <t>突变</t>
-  </si>
-  <si>
-    <t>渐变</t>
-  </si>
-  <si>
-    <t>间隙</t>
-  </si>
-  <si>
-    <t>残缺是，有选择的执行</t>
-  </si>
-  <si>
-    <t>政策认知</t>
-  </si>
-  <si>
-    <t>以持续性为准：</t>
-  </si>
-  <si>
-    <t>执行者，收到主课客观因素，使执行效果收到了偏差，产生了不良效果</t>
-  </si>
-  <si>
-    <t>代替，</t>
-  </si>
-  <si>
-    <t>执行者素质</t>
-  </si>
-  <si>
-    <t>什么是公共政策执行偏差</t>
-  </si>
-  <si>
-    <t>官网</t>
-  </si>
-  <si>
-    <t>控制欲监督</t>
-  </si>
-  <si>
-    <t>公共政策执行偏差表现形式</t>
-  </si>
-  <si>
-    <t>主观</t>
-  </si>
-  <si>
-    <t>追求私立</t>
-  </si>
-  <si>
-    <t>政策执行人和执行机制缺陷</t>
-  </si>
-  <si>
-    <t>照搬</t>
-  </si>
-  <si>
-    <t>制度创新</t>
-  </si>
-  <si>
-    <t>执行偏差产生的原因</t>
-  </si>
-  <si>
-    <t>素质</t>
-  </si>
-  <si>
-    <t>利益群体影响</t>
-  </si>
-  <si>
-    <t>公共政策执行偏差的矫正</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>政策环境的影响</t>
-  </si>
-  <si>
-    <t>规避</t>
-  </si>
-  <si>
-    <t>宣传</t>
-  </si>
-  <si>
-    <t>执行力原则把握不好</t>
-  </si>
-  <si>
-    <t>公共政策的无效执行与有效执行：</t>
-  </si>
-  <si>
-    <t>客观</t>
-  </si>
-  <si>
-    <t>政策本身复杂</t>
-  </si>
-  <si>
-    <t>目标群体不配合</t>
-  </si>
-  <si>
-    <t>政策执行结果没有达到预期</t>
-  </si>
-  <si>
-    <t>政策失灵的含义</t>
-  </si>
-  <si>
-    <t>环境变化</t>
-  </si>
-  <si>
-    <t>没有实现目标</t>
-  </si>
-  <si>
-    <t>政策无效执行的含义</t>
-  </si>
-  <si>
-    <t>目标群体的压力</t>
-  </si>
-  <si>
-    <t>未能解决政策问题</t>
-  </si>
-  <si>
-    <t>为什么会出现无效执行</t>
-  </si>
-  <si>
-    <t>忠臣</t>
-  </si>
-  <si>
-    <t>公共政策有效执行的原则</t>
+    <t>缩小政策的受损面</t>
+  </si>
+  <si>
+    <t>程度不同</t>
+  </si>
+  <si>
+    <t>政策失效</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>机构</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>争取政策观望着</t>
+  </si>
+  <si>
+    <t>内容不同</t>
+  </si>
+  <si>
+    <t>政策合法性收到质疑</t>
+  </si>
+  <si>
+    <t>代替</t>
+  </si>
+  <si>
+    <t>终结</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>分解</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>废止</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>周期性</t>
+  </si>
+  <si>
+    <t>不规律</t>
+  </si>
+  <si>
+    <t>规律</t>
+  </si>
+  <si>
+    <t>主动</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>周期性，摆钟</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>血腥</t>
+  </si>
+  <si>
+    <t>公共政策变动模式（西方学者的看法）</t>
+  </si>
+  <si>
+    <t>根据环境变化的需求，主动改变政策</t>
+  </si>
+  <si>
+    <t>公共政策创新含义</t>
+  </si>
+  <si>
+    <t>要素，组合形态的过程</t>
+  </si>
+  <si>
+    <t>公共政策创新两种形式</t>
+  </si>
+  <si>
+    <t>根本性创新</t>
+  </si>
+  <si>
+    <t>政策内部的变革，政策本身发生变化</t>
+  </si>
+  <si>
+    <t>公共政策创新动力（为什么要创新）</t>
+  </si>
+  <si>
+    <t>渐进性创新</t>
+  </si>
+  <si>
+    <t>政策外部的变革，资金，环境，资源发生变化</t>
+  </si>
+  <si>
+    <t>说服</t>
+  </si>
+  <si>
+    <t>因势导利</t>
+  </si>
+  <si>
+    <t>公共政策调整与接续：</t>
+  </si>
+  <si>
+    <t>利益的刚性限制</t>
+  </si>
+  <si>
+    <t>通过政策评估，监控，对不适应的政策信息进行修改，增加，删除的过程</t>
+  </si>
+  <si>
+    <t>公开评估</t>
+  </si>
+  <si>
+    <t>公共政策调整的含义</t>
+  </si>
+  <si>
+    <t>现行政策的约束</t>
+  </si>
+  <si>
+    <t>渐进</t>
+  </si>
+  <si>
+    <t>新删</t>
+  </si>
+  <si>
+    <t>界定问题</t>
+  </si>
+  <si>
+    <t>实事求斯</t>
+  </si>
+  <si>
+    <t>废旧立新并存</t>
+  </si>
+  <si>
+    <t>公共政策调整的特点</t>
+  </si>
+  <si>
+    <t>公共意志的适中</t>
+  </si>
+  <si>
+    <t>局部</t>
+  </si>
+  <si>
+    <t>方案</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>提出方案</t>
+  </si>
+  <si>
+    <t>渐进调整</t>
+  </si>
+  <si>
+    <t>试探试点</t>
+  </si>
+  <si>
+    <t>公共政策调整的内容</t>
+  </si>
+  <si>
+    <t>成本的控制</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>调整方案</t>
+  </si>
+  <si>
+    <t>实时反馈</t>
+  </si>
+  <si>
+    <t>终结必要部分</t>
+  </si>
+  <si>
+    <t>公共政策的调整的形式</t>
+  </si>
+  <si>
+    <t>理性的局限</t>
+  </si>
+  <si>
+    <t>主客体</t>
+  </si>
+  <si>
+    <t>执行方案</t>
+  </si>
+  <si>
+    <t>公共政策的调整的程序</t>
+  </si>
+  <si>
+    <t>社会稳定的需要</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>公共政策的调整的原则</t>
+  </si>
+  <si>
+    <t>及时纠正</t>
+  </si>
+  <si>
+    <t>协调关系</t>
+  </si>
+  <si>
+    <t>发展完善</t>
+  </si>
+  <si>
+    <t>公共政策调整的原因（政策为什么要调整）</t>
+  </si>
+  <si>
+    <t>公共政策调整的作用</t>
+  </si>
+  <si>
+    <t>以政策问题为中心，努力保持政策的稳定，连续的过程</t>
+  </si>
+  <si>
+    <t>一版是就政策被新政策替换的过程</t>
+  </si>
+  <si>
+    <t>公共政策的接续内涵</t>
+  </si>
+  <si>
+    <t>公共政策的接续意义</t>
+  </si>
+  <si>
+    <t>保持政策稳定</t>
+  </si>
+  <si>
+    <t>线性接续</t>
+  </si>
+  <si>
+    <t>明确政策的界定目标</t>
+  </si>
+  <si>
+    <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
+  </si>
+  <si>
+    <t>有利于政策变动</t>
+  </si>
+  <si>
+    <t>非正式接续</t>
+  </si>
+  <si>
+    <t>加强政策管理</t>
+  </si>
+  <si>
+    <t>公共政策的接续途经</t>
+  </si>
+  <si>
+    <t>得到政策的认同</t>
+  </si>
+  <si>
+    <t>政策合并</t>
+  </si>
+  <si>
+    <t>强调政策法制化</t>
+  </si>
+  <si>
+    <t>政策分解、</t>
+  </si>
+  <si>
+    <t>加强政策额评估</t>
+  </si>
+  <si>
+    <t>公共政策的终结：</t>
+  </si>
+  <si>
+    <t>政策不符，终止</t>
+  </si>
+  <si>
+    <t>公共政策的终结的含义</t>
+  </si>
+  <si>
+    <t>通过对政策评估，采取的重要措施，终止那些错误的多余的政策</t>
+  </si>
+  <si>
+    <t>完全政策而终结，部分中策中介</t>
+  </si>
+  <si>
+    <t>公共政策的终结的对象</t>
+  </si>
+  <si>
+    <t>公共政策的终结的方式</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>废纸</t>
+  </si>
+  <si>
+    <t>解决了政策目标，和问题，没有继续存在的必要</t>
+  </si>
+  <si>
+    <t>公共政策终结的原因</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>无法解决目标，继续执行浪费资源</t>
+  </si>
+  <si>
+    <t>公共政策终结的作用</t>
+  </si>
+  <si>
+    <t>节省政策资源</t>
+  </si>
+  <si>
+    <t>组织的持久性</t>
+  </si>
+  <si>
+    <t>公共政策终结的障碍</t>
+  </si>
+  <si>
+    <t>计划/项目</t>
+  </si>
+  <si>
+    <t>提高政策绩效</t>
+  </si>
+  <si>
+    <t>代价</t>
+  </si>
+  <si>
+    <t>公共政策终结的策略</t>
+  </si>
+  <si>
+    <t>缩减</t>
+  </si>
+  <si>
+    <t>有利于政策优化</t>
+  </si>
+  <si>
+    <t>政策学的知识应用于政策分析：</t>
+  </si>
+  <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>知识的含义</t>
+  </si>
+  <si>
+    <t>观察和学习活得知识</t>
+  </si>
+  <si>
+    <t>显示知识</t>
+  </si>
+  <si>
+    <t>事实知识</t>
+  </si>
+  <si>
+    <t>不可逆性</t>
+  </si>
+  <si>
+    <t>减少</t>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>知识的类型</t>
+  </si>
+  <si>
+    <t>通过好奇心将知识积累</t>
+  </si>
+  <si>
+    <t>原理知识</t>
+  </si>
+  <si>
+    <t>传播性</t>
+  </si>
+  <si>
+    <t>改善</t>
+  </si>
+  <si>
+    <t>抵消</t>
+  </si>
+  <si>
+    <t>知识的特征</t>
+  </si>
+  <si>
+    <t>在事物中使用的过程</t>
+  </si>
+  <si>
+    <t>共享性</t>
+  </si>
+  <si>
+    <t>增强</t>
+  </si>
+  <si>
+    <t>预期性和趋向性</t>
+  </si>
+  <si>
+    <t>政策学知识与政策知识</t>
+  </si>
+  <si>
+    <t>非磨损性</t>
   </si>
   <si>
     <t>民主</t>
-  </si>
-  <si>
-    <t>公共政策有效执行的机制</t>
-  </si>
-  <si>
-    <t>信息沟通</t>
-  </si>
-  <si>
-    <t>法制</t>
-  </si>
-  <si>
-    <t>公民参与</t>
-  </si>
-  <si>
-    <t>激励，责任，监督</t>
-  </si>
-  <si>
-    <t>公共政策评估的作用，主体与类型：</t>
-  </si>
-  <si>
-    <t>公共政策评估含义</t>
-  </si>
-  <si>
-    <t>评估主体通过一定标准，对评估结果进行检查，判断结果，实现目标的吃好翁堵</t>
-  </si>
-  <si>
-    <t>公共政策评估的目的</t>
-  </si>
-  <si>
-    <t>积极目的</t>
-  </si>
-  <si>
-    <t>发现偏差</t>
-  </si>
-  <si>
-    <t>获得可靠信息的重要手段</t>
-  </si>
-  <si>
-    <t>政策制定者和执行者</t>
-  </si>
-  <si>
-    <t>政策调查报告</t>
-  </si>
-  <si>
-    <t>公共政策评估的作用</t>
-  </si>
-  <si>
-    <t>明确政策可行程度</t>
-  </si>
-  <si>
-    <t>调整提出重要依据</t>
-  </si>
-  <si>
-    <t>专业机构和人员</t>
-  </si>
-  <si>
-    <t>政府工作报告</t>
-  </si>
-  <si>
-    <t>公共政策评估的主体</t>
-  </si>
-  <si>
-    <t>改善技术和程序</t>
-  </si>
-  <si>
-    <t>检测结果的途径</t>
-  </si>
-  <si>
-    <t>大众传媒</t>
-  </si>
-  <si>
-    <t>听证会</t>
-  </si>
-  <si>
-    <t>成本</t>
-  </si>
-  <si>
-    <t>政策制定者和执行者评估结构表现为</t>
-  </si>
-  <si>
-    <t>合理配置资源</t>
-  </si>
-  <si>
-    <t>资源重新分配的基本前提</t>
-  </si>
-  <si>
-    <t>意见和投诉</t>
-  </si>
-  <si>
-    <t>需求</t>
-  </si>
-  <si>
-    <t>效益</t>
-  </si>
-  <si>
-    <t>公共政策额评估的类型</t>
-  </si>
-  <si>
-    <t>消极</t>
-  </si>
-  <si>
-    <t>炫耀业绩</t>
-  </si>
-  <si>
-    <t>良好的公共关系</t>
-  </si>
-  <si>
-    <t>过程</t>
-  </si>
-  <si>
-    <t>正式评估特点</t>
-  </si>
-  <si>
-    <t>勒索资源</t>
-  </si>
-  <si>
-    <t>科学民主的保障</t>
-  </si>
-  <si>
-    <t>正式评估，非正式评估，评估组织活动形式</t>
-  </si>
-  <si>
-    <t>影响</t>
-  </si>
-  <si>
-    <t>内部评估</t>
-  </si>
-  <si>
-    <t>规避责任</t>
-  </si>
-  <si>
-    <t>内部，外部，评估者权力地位</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>外部评估</t>
-  </si>
-  <si>
-    <t>批评政策达到政策卖不了</t>
-  </si>
-  <si>
-    <t>预测，过程，结果，评估接单</t>
-  </si>
-  <si>
-    <t>不受委托进行的评估包括哪些</t>
-  </si>
-  <si>
-    <t>单一，复核，评估对象</t>
-  </si>
-  <si>
-    <t>预评估主要有五方面内容</t>
-  </si>
-  <si>
-    <t>公共政策评估的内容</t>
-  </si>
-  <si>
-    <t>政府评估组织人员进行的评估</t>
-  </si>
-  <si>
-    <t>组织结构专业人员来评估</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>评估筹划</t>
-  </si>
-  <si>
-    <t>明确问题</t>
-  </si>
-  <si>
-    <t>选择对象</t>
-  </si>
-  <si>
-    <t>制定计划</t>
-  </si>
-  <si>
-    <t>明确条件</t>
-  </si>
-  <si>
-    <t>评估过程</t>
-  </si>
-  <si>
-    <t>公共政策评估的过程，标准与影响因素：</t>
-  </si>
-  <si>
-    <t>政府组织和个人自行的评估</t>
-  </si>
-  <si>
-    <t>评估方法规范</t>
-  </si>
-  <si>
-    <t>可行性</t>
-  </si>
-  <si>
-    <t>评估总结</t>
-  </si>
-  <si>
-    <t>公共政策评估的过程</t>
-  </si>
-  <si>
-    <t>政府专职人员进行评估</t>
-  </si>
-  <si>
-    <t>客观性</t>
-  </si>
-  <si>
-    <t>优缺点</t>
-  </si>
-  <si>
-    <t>评估筹划解决的问题</t>
-  </si>
-  <si>
-    <t>有效性</t>
-  </si>
-  <si>
-    <t>事实标准</t>
-  </si>
-  <si>
-    <t>通过数量，比例关系，反应事务过去，现在，将来的状态</t>
-  </si>
-  <si>
-    <t>政策效率</t>
-  </si>
-  <si>
-    <t>投入成</t>
-  </si>
-  <si>
-    <t>行政开支，业务开支</t>
-  </si>
-  <si>
-    <t>人员开支</t>
-  </si>
-  <si>
-    <t>公共政策评估的标准</t>
-  </si>
-  <si>
-    <t>多样化</t>
-  </si>
-  <si>
-    <t>技术化</t>
-  </si>
-  <si>
-    <t>多量化</t>
-  </si>
-  <si>
-    <t>社会生产力的发展</t>
-  </si>
-  <si>
-    <t>技术标准</t>
-  </si>
-  <si>
-    <t>以技术手段进行评估</t>
-  </si>
-  <si>
-    <t>政策效益</t>
-  </si>
-  <si>
-    <t>事实标准包含哪些</t>
-  </si>
-  <si>
-    <t>社会公正</t>
-  </si>
-  <si>
-    <t>价值标准</t>
-  </si>
-  <si>
-    <t>政策影响</t>
-  </si>
-  <si>
-    <t>政策效率衡量标准</t>
-  </si>
-  <si>
-    <t>政策信息和资料</t>
-  </si>
-  <si>
-    <t>可持续发展</t>
-  </si>
-  <si>
-    <t>回应性</t>
-  </si>
-  <si>
-    <t>技术标准内容</t>
-  </si>
-  <si>
-    <t>政策的执行者</t>
-  </si>
-  <si>
-    <t>福利</t>
-  </si>
-  <si>
-    <t>价值标准包括那些</t>
-  </si>
-  <si>
-    <t>政策投入的成本</t>
-  </si>
-  <si>
-    <t>指标法</t>
-  </si>
-  <si>
-    <t>影响公共政策评估的主要原因</t>
-  </si>
-  <si>
-    <t>回归分析法</t>
-  </si>
-  <si>
-    <t>线性，非线性</t>
-  </si>
-  <si>
-    <t>试验</t>
-  </si>
-  <si>
-    <t>公共政策评估的方法：</t>
-  </si>
-  <si>
-    <t>政策评估的方式，方法，规范</t>
-  </si>
-  <si>
-    <t>以定量分析为主的评估方法</t>
-  </si>
-  <si>
-    <t>政策指标体系三类价值取向</t>
-  </si>
-  <si>
-    <t>评估这和被个评估这是伙伴关系</t>
-  </si>
-  <si>
-    <t>认定政策利益相关者</t>
-  </si>
-  <si>
-    <t>吸纳被评估这的意见，达成共识</t>
-  </si>
-  <si>
-    <t>界定利益相关政策</t>
-  </si>
-  <si>
-    <t>实施时间</t>
-  </si>
-  <si>
-    <t>预防监控</t>
-  </si>
-  <si>
-    <t>过程监控</t>
-  </si>
-  <si>
-    <t>结果监控</t>
-  </si>
-  <si>
-    <t>以定性分析为主的评估方法含义</t>
-  </si>
-  <si>
-    <t>构建注意</t>
-  </si>
-  <si>
-    <t>营造网络和方法</t>
-  </si>
-  <si>
-    <t>监控评率</t>
-  </si>
-  <si>
-    <t>经常性</t>
-  </si>
-  <si>
-    <t>因发行</t>
-  </si>
-  <si>
-    <t>以定性分析为主的评估方法程序</t>
-  </si>
-  <si>
-    <t>寻找平衡点</t>
-  </si>
-  <si>
-    <t>参与成都</t>
-  </si>
-  <si>
-    <t>单方面</t>
-  </si>
-  <si>
-    <t>抗变形</t>
-  </si>
-  <si>
-    <t>公共政策监控：</t>
-  </si>
-  <si>
-    <t>政策运行各环节进行检查监督指导纠偏</t>
-  </si>
-  <si>
-    <t>设定妥协议程</t>
-  </si>
-  <si>
-    <t>公共政策监控的含义</t>
-  </si>
-  <si>
-    <t>主体</t>
-  </si>
-  <si>
-    <t>对象</t>
-  </si>
-  <si>
-    <t>目的</t>
-  </si>
-  <si>
-    <t>采集妥协的相关信息</t>
-  </si>
-  <si>
-    <t>政策监控内容</t>
-  </si>
-  <si>
-    <t>建立相关论坛</t>
-  </si>
-  <si>
-    <t>公共政策监控的类型</t>
-  </si>
-  <si>
-    <t>创建报告</t>
-  </si>
-  <si>
-    <t>未达成的政策诉求重现构建</t>
-  </si>
-  <si>
-    <t>监控的频率</t>
-  </si>
-  <si>
-    <t>使政策过程，科学，合法，民主</t>
-  </si>
-  <si>
-    <t>满足人么要求</t>
-  </si>
-  <si>
-    <t>参与程度</t>
-  </si>
-  <si>
-    <t>确保执行过程有效性</t>
-  </si>
-  <si>
-    <t>公共政策监控的功能（为什么要对政策进行监控）</t>
-  </si>
-  <si>
-    <t>体现评估价值取向</t>
-  </si>
-  <si>
-    <t>自上而下，行政体制</t>
-  </si>
-  <si>
-    <t>自下而上，下级的监督</t>
-  </si>
-  <si>
-    <t>公共政策监控机制的构成：</t>
-  </si>
-  <si>
-    <t>明确调整方向</t>
-  </si>
-  <si>
-    <t>内部监控机制（通过监控方向）</t>
-  </si>
-  <si>
-    <t>监控过程</t>
-  </si>
-  <si>
-    <t>制定过程的就监督</t>
-  </si>
-  <si>
-    <t>执行过程</t>
-  </si>
-  <si>
-    <t>调整过程</t>
-  </si>
-  <si>
-    <t>公共政策的稳定和变动：</t>
-  </si>
-  <si>
-    <t>政策稳定的内涵</t>
-  </si>
-  <si>
-    <t>政策在受到内外环境的影响下，保持既定目标不变</t>
-  </si>
-  <si>
-    <t>有利于国家和社会的稳定</t>
-  </si>
-  <si>
-    <t>稳定是相对的，表现在两个方面</t>
-  </si>
-  <si>
-    <t>还在按照既定方向实施</t>
-  </si>
-  <si>
-    <t>降低政策实施的成本</t>
-  </si>
-  <si>
-    <t>政策稳定的积极意义</t>
-  </si>
-  <si>
-    <t>时间上看，阶段和连续的统一</t>
-  </si>
-  <si>
-    <t>有利于政策执行者坚定不移的执行政策，实现政策目标</t>
-  </si>
-  <si>
-    <t>政策稳定的消极意义</t>
-  </si>
-  <si>
-    <t>空间，局部和全局的统一</t>
-  </si>
-  <si>
-    <t>提高政策的可预见性，提高政策效率</t>
-  </si>
-  <si>
-    <t>政策稳定的动力因素</t>
-  </si>
-  <si>
-    <t>过于稳定，政策趋于保守</t>
-  </si>
-  <si>
-    <t>政策本身的稳定因素</t>
-  </si>
-  <si>
-    <t>政策主体和网络要相对稳定</t>
-  </si>
-  <si>
-    <t>长期性</t>
-  </si>
-  <si>
-    <t>政策维持的对策和措施</t>
-  </si>
-  <si>
-    <t>政策问题的解决需要一个过程</t>
-  </si>
-  <si>
-    <t>政策主体的政策维持</t>
-  </si>
-  <si>
-    <t>保持政策主体的稳定</t>
-  </si>
-  <si>
-    <t>如何政策主体的【政策维持】</t>
-  </si>
-  <si>
-    <t>政策环境需要稳定</t>
-  </si>
-  <si>
-    <t>合法性</t>
-  </si>
-  <si>
-    <t>政策客体的政策维持</t>
-  </si>
-  <si>
-    <t>政策对政策目标的认可</t>
-  </si>
-  <si>
-    <t>如何政策客体的【政策维持】</t>
-  </si>
-  <si>
-    <t>政策本身需要稳定</t>
-  </si>
-  <si>
-    <t>复杂性</t>
-  </si>
-  <si>
-    <t>政策环境的创设</t>
-  </si>
-  <si>
-    <t>个政策主体之间沟通合作</t>
-  </si>
-  <si>
-    <t>失效性</t>
-  </si>
-  <si>
-    <t>政策法制化</t>
-  </si>
-  <si>
-    <t>建立完善的政策体质和机制</t>
-  </si>
-  <si>
-    <t>公共政策变动的含义</t>
-  </si>
-  <si>
-    <t>针对政策内外环境的变化所做的一种对策</t>
-  </si>
-  <si>
-    <t>失败性</t>
-  </si>
-  <si>
-    <t>政策绩效的提高</t>
-  </si>
-  <si>
-    <t>公共政策变动的原因</t>
-  </si>
-  <si>
-    <t>决策者的变动</t>
-  </si>
-  <si>
-    <t>断裂</t>
-  </si>
-  <si>
-    <t>政策终止</t>
-  </si>
-  <si>
-    <t>明确具体的政策界定问题</t>
-  </si>
-  <si>
-    <t>公共政策变动类型：</t>
-  </si>
-  <si>
-    <t>政策环境的变动</t>
-  </si>
-  <si>
-    <t>政策调整</t>
-  </si>
-  <si>
-    <t>扩大政策受益面</t>
-  </si>
-  <si>
-    <t>强度不同</t>
-  </si>
-  <si>
-    <t>政策资源的限制</t>
-  </si>
-  <si>
-    <t>部分</t>
-  </si>
-  <si>
-    <t>重大</t>
-  </si>
-  <si>
-    <t>缩小政策的受损面</t>
-  </si>
-  <si>
-    <t>程度不同</t>
-  </si>
-  <si>
-    <t>政策失效</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>计划</t>
-  </si>
-  <si>
-    <t>机构</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>争取政策观望着</t>
-  </si>
-  <si>
-    <t>内容不同</t>
-  </si>
-  <si>
-    <t>政策合法性收到质疑</t>
-  </si>
-  <si>
-    <t>代替</t>
-  </si>
-  <si>
-    <t>终结</t>
-  </si>
-  <si>
-    <t>创新</t>
-  </si>
-  <si>
-    <t>分解</t>
-  </si>
-  <si>
-    <t>合并</t>
-  </si>
-  <si>
-    <t>废止</t>
-  </si>
-  <si>
-    <t>形式</t>
-  </si>
-  <si>
-    <t>周期性</t>
-  </si>
-  <si>
-    <t>不规律</t>
-  </si>
-  <si>
-    <t>规律</t>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>动力</t>
-  </si>
-  <si>
-    <t>周期性，摆钟</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>血腥</t>
-  </si>
-  <si>
-    <t>公共政策变动模式（西方学者的看法）</t>
-  </si>
-  <si>
-    <t>根据环境变化的需求，主动改变政策</t>
-  </si>
-  <si>
-    <t>公共政策创新含义</t>
-  </si>
-  <si>
-    <t>要素，组合形态的过程</t>
-  </si>
-  <si>
-    <t>公共政策创新两种形式</t>
-  </si>
-  <si>
-    <t>根本性创新</t>
-  </si>
-  <si>
-    <t>政策内部的变革，政策本身发生变化</t>
-  </si>
-  <si>
-    <t>公共政策创新动力（为什么要创新）</t>
-  </si>
-  <si>
-    <t>渐进性创新</t>
-  </si>
-  <si>
-    <t>政策外部的变革，资金，环境，资源发生变化</t>
-  </si>
-  <si>
-    <t>说服</t>
-  </si>
-  <si>
-    <t>因势导利</t>
-  </si>
-  <si>
-    <t>公共政策调整与接续：</t>
-  </si>
-  <si>
-    <t>利益的刚性限制</t>
-  </si>
-  <si>
-    <t>通过政策评估，监控，对不适应的政策信息进行修改，增加，删除的过程</t>
-  </si>
-  <si>
-    <t>公开评估</t>
-  </si>
-  <si>
-    <t>公共政策调整的含义</t>
-  </si>
-  <si>
-    <t>现行政策的约束</t>
-  </si>
-  <si>
-    <t>渐进</t>
-  </si>
-  <si>
-    <t>新删</t>
-  </si>
-  <si>
-    <t>界定问题</t>
-  </si>
-  <si>
-    <t>实事求斯</t>
-  </si>
-  <si>
-    <t>废旧立新并存</t>
-  </si>
-  <si>
-    <t>公共政策调整的特点</t>
-  </si>
-  <si>
-    <t>公共意志的适中</t>
-  </si>
-  <si>
-    <t>局部</t>
-  </si>
-  <si>
-    <t>方案</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>提出方案</t>
-  </si>
-  <si>
-    <t>渐进调整</t>
-  </si>
-  <si>
-    <t>试探试点</t>
-  </si>
-  <si>
-    <t>公共政策调整的内容</t>
-  </si>
-  <si>
-    <t>成本的控制</t>
-  </si>
-  <si>
-    <t>动态</t>
-  </si>
-  <si>
-    <t>措施</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>调整方案</t>
-  </si>
-  <si>
-    <t>实时反馈</t>
-  </si>
-  <si>
-    <t>终结必要部分</t>
-  </si>
-  <si>
-    <t>公共政策的调整的形式</t>
-  </si>
-  <si>
-    <t>理性的局限</t>
-  </si>
-  <si>
-    <t>主客体</t>
-  </si>
-  <si>
-    <t>执行方案</t>
-  </si>
-  <si>
-    <t>公共政策的调整的程序</t>
-  </si>
-  <si>
-    <t>社会稳定的需要</t>
-  </si>
-  <si>
-    <t>关系</t>
-  </si>
-  <si>
-    <t>公共政策的调整的原则</t>
-  </si>
-  <si>
-    <t>及时纠正</t>
-  </si>
-  <si>
-    <t>协调关系</t>
-  </si>
-  <si>
-    <t>发展完善</t>
-  </si>
-  <si>
-    <t>公共政策调整的原因（政策为什么要调整）</t>
-  </si>
-  <si>
-    <t>公共政策调整的作用</t>
-  </si>
-  <si>
-    <t>以政策问题为中心，努力保持政策的稳定，连续的过程</t>
-  </si>
-  <si>
-    <t>一版是就政策被新政策替换的过程</t>
-  </si>
-  <si>
-    <t>公共政策的接续内涵</t>
-  </si>
-  <si>
-    <t>公共政策的接续意义</t>
-  </si>
-  <si>
-    <t>保持政策稳定</t>
-  </si>
-  <si>
-    <t>线性接续</t>
-  </si>
-  <si>
-    <t>明确政策的界定目标</t>
-  </si>
-  <si>
-    <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
-  </si>
-  <si>
-    <t>有利于政策变动</t>
-  </si>
-  <si>
-    <t>非正式接续</t>
-  </si>
-  <si>
-    <t>加强政策管理</t>
-  </si>
-  <si>
-    <t>公共政策的接续途经</t>
-  </si>
-  <si>
-    <t>得到政策的认同</t>
-  </si>
-  <si>
-    <t>政策合并</t>
-  </si>
-  <si>
-    <t>强调政策法制化</t>
-  </si>
-  <si>
-    <t>政策分解、</t>
-  </si>
-  <si>
-    <t>加强政策额评估</t>
-  </si>
-  <si>
-    <t>公共政策的终结：</t>
-  </si>
-  <si>
-    <t>政策不符，终止</t>
-  </si>
-  <si>
-    <t>公共政策的终结的含义</t>
-  </si>
-  <si>
-    <t>通过对政策评估，采取的重要措施，终止那些错误的多余的政策</t>
-  </si>
-  <si>
-    <t>完全政策而终结，部分中策中介</t>
-  </si>
-  <si>
-    <t>公共政策的终结的对象</t>
-  </si>
-  <si>
-    <t>公共政策的终结的方式</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>废纸</t>
-  </si>
-  <si>
-    <t>解决了政策目标，和问题，没有继续存在的必要</t>
-  </si>
-  <si>
-    <t>公共政策终结的原因</t>
-  </si>
-  <si>
-    <t>组织</t>
-  </si>
-  <si>
-    <t>无法解决目标，继续执行浪费资源</t>
-  </si>
-  <si>
-    <t>公共政策终结的作用</t>
-  </si>
-  <si>
-    <t>节省政策资源</t>
-  </si>
-  <si>
-    <t>组织的持久性</t>
-  </si>
-  <si>
-    <t>公共政策终结的障碍</t>
-  </si>
-  <si>
-    <t>计划/项目</t>
-  </si>
-  <si>
-    <t>提高政策绩效</t>
-  </si>
-  <si>
-    <t>代价</t>
-  </si>
-  <si>
-    <t>公共政策终结的策略</t>
-  </si>
-  <si>
-    <t>缩减</t>
-  </si>
-  <si>
-    <t>有利于政策优化</t>
-  </si>
-  <si>
-    <t>政策学的知识应用于政策分析：</t>
-  </si>
-  <si>
-    <t>发现</t>
-  </si>
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>知识的含义</t>
-  </si>
-  <si>
-    <t>观察和学习活得知识</t>
-  </si>
-  <si>
-    <t>显示知识</t>
-  </si>
-  <si>
-    <t>事实知识</t>
-  </si>
-  <si>
-    <t>不可逆性</t>
-  </si>
-  <si>
-    <t>减少</t>
-  </si>
-  <si>
-    <t>事务</t>
-  </si>
-  <si>
-    <t>知识的类型</t>
-  </si>
-  <si>
-    <t>通过好奇心将知识积累</t>
-  </si>
-  <si>
-    <t>原理知识</t>
-  </si>
-  <si>
-    <t>传播性</t>
-  </si>
-  <si>
-    <t>改善</t>
-  </si>
-  <si>
-    <t>抵消</t>
-  </si>
-  <si>
-    <t>知识的特征</t>
-  </si>
-  <si>
-    <t>在事物中使用的过程</t>
-  </si>
-  <si>
-    <t>共享性</t>
-  </si>
-  <si>
-    <t>增强</t>
-  </si>
-  <si>
-    <t>预期性和趋向性</t>
-  </si>
-  <si>
-    <t>政策学知识与政策知识</t>
-  </si>
-  <si>
-    <t>非磨损性</t>
   </si>
   <si>
     <t>政策分析的含义</t>
@@ -3031,11 +2674,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3066,13 +2709,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.349986266670736"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3119,27 +2755,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3148,8 +2763,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3164,45 +2780,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3216,15 +2801,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3241,8 +2817,75 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3251,13 +2894,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3272,151 +2908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3440,7 +2932,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3452,7 +2980,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3466,17 +3102,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3505,24 +3144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3534,6 +3155,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3569,10 +3205,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3581,137 +3217,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3730,30 +3366,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4083,308 +3716,308 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="8:11">
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="8:13">
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4412,118 +4045,118 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>904</v>
+        <v>784</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>905</v>
+        <v>785</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>906</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>907</v>
+        <v>787</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>908</v>
+        <v>788</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>909</v>
+        <v>789</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>910</v>
+        <v>790</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>911</v>
+        <v>791</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>912</v>
+        <v>792</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>913</v>
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>914</v>
+        <v>794</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>915</v>
+        <v>795</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>916</v>
+        <v>796</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>917</v>
+        <v>797</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>918</v>
+        <v>798</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>919</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>920</v>
+        <v>800</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>921</v>
+        <v>801</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>922</v>
+        <v>802</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>923</v>
+        <v>803</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>924</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>925</v>
+        <v>805</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>926</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>906</v>
+        <v>786</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>577</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>927</v>
+        <v>808</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>928</v>
+        <v>809</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>929</v>
+        <v>810</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>930</v>
+        <v>811</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>789</v>
+        <v>669</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>931</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>932</v>
+        <v>813</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>933</v>
+        <v>814</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>261</v>
@@ -4534,72 +4167,72 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>934</v>
+        <v>815</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>935</v>
+        <v>816</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>936</v>
+        <v>817</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>937</v>
+        <v>818</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>938</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>939</v>
+        <v>820</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>940</v>
+        <v>821</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>941</v>
+        <v>822</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>942</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>943</v>
+        <v>824</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>944</v>
+        <v>825</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>838</v>
+        <v>718</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>945</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>946</v>
+        <v>827</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>947</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>948</v>
+        <v>829</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>949</v>
+        <v>830</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>950</v>
+        <v>831</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>951</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4607,174 +4240,174 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>952</v>
+        <v>833</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>953</v>
+        <v>834</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>954</v>
+        <v>835</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>955</v>
+        <v>836</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>956</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>957</v>
+        <v>838</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>958</v>
+        <v>839</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>959</v>
+        <v>840</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>960</v>
+        <v>841</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>961</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
-        <v>962</v>
+        <v>843</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>963</v>
+        <v>844</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>964</v>
+        <v>845</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>965</v>
+        <v>846</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>966</v>
+        <v>847</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>967</v>
+        <v>848</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>968</v>
+        <v>849</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>969</v>
+        <v>850</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>970</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>971</v>
+        <v>852</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>972</v>
+        <v>853</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>973</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>974</v>
+        <v>855</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>975</v>
+        <v>856</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>976</v>
+        <v>857</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>977</v>
+        <v>858</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>978</v>
+        <v>859</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>979</v>
+        <v>860</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>980</v>
+        <v>861</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>981</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>982</v>
+        <v>863</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>983</v>
+        <v>864</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>984</v>
+        <v>865</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>985</v>
+        <v>866</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>986</v>
+        <v>867</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>987</v>
+        <v>868</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>988</v>
+        <v>869</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>989</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="7:11">
       <c r="G24" s="2" t="s">
-        <v>990</v>
+        <v>871</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>991</v>
+        <v>872</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>992</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="2" t="s">
-        <v>993</v>
+        <v>874</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>994</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="7:11">
       <c r="G26" s="2" t="s">
-        <v>995</v>
+        <v>876</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>996</v>
+        <v>877</v>
       </c>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" s="2" t="s">
-        <v>997</v>
+        <v>878</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>998</v>
+        <v>879</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="2" t="s">
-        <v>999</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -4794,12 +4427,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4810,7 +4443,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4824,7 +4457,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4838,7 +4471,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4852,7 +4485,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -4865,7 +4498,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -4879,7 +4512,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4890,7 +4523,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4901,7 +4534,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -4909,115 +4542,115 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -5025,7 +4658,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -5033,82 +4666,82 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5129,12 +4762,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>153</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -5148,7 +4781,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5164,7 +4797,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5178,7 +4811,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5186,7 +4819,7 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>166</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -5214,7 +4847,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>174</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5231,7 +4864,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>179</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -5259,7 +4892,7 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5293,7 +4926,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>197</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -5307,7 +4940,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>201</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -5324,7 +4957,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>206</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -5346,7 +4979,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>211</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -5362,12 +4995,12 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>215</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -5387,7 +5020,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -5407,7 +5040,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>227</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -5427,7 +5060,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>232</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -5444,7 +5077,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>235</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -5452,7 +5085,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>237</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -5463,7 +5096,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>240</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -5474,7 +5107,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>243</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -5488,7 +5121,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>247</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -5496,7 +5129,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>249</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -5510,7 +5143,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>253</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -5521,7 +5154,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>256</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -5532,7 +5165,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>259</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -5561,7 +5194,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>261</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -5569,15 +5202,15 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>264</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -5585,7 +5218,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>266</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -5593,7 +5226,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>268</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -5601,18 +5234,17 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>271</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="N8" s="2" t="s">
         <v>273</v>
       </c>
@@ -5621,7 +5253,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="10"/>
+      <c r="A9" s="7"/>
       <c r="N9" s="2" t="s">
         <v>275</v>
       </c>
@@ -5630,25 +5262,23 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>277</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J10" s="2"/>
       <c r="N10" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>280</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="N11" s="2" t="s">
         <v>282</v>
       </c>
@@ -5657,13 +5287,12 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>284</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J12" s="2"/>
       <c r="N12" s="2" t="s">
         <v>286</v>
       </c>
@@ -5672,7 +5301,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>288</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -5683,37 +5312,35 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>291</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>294</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="2"/>
       <c r="N15" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10"/>
+      <c r="A16" s="7"/>
       <c r="N16" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="10"/>
+      <c r="A17" s="7"/>
       <c r="I17" s="2" t="s">
         <v>298</v>
       </c>
@@ -5725,7 +5352,6 @@
       <c r="I18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J18" s="2"/>
       <c r="N18" s="2" t="s">
         <v>301</v>
       </c>
@@ -5739,7 +5365,6 @@
       <c r="I21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J21" s="2"/>
       <c r="M21" s="2" t="s">
         <v>304</v>
       </c>
@@ -5811,11 +5436,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>317</v>
       </c>
       <c r="H1" t="s">
@@ -5823,19 +5448,18 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>319</v>
       </c>
       <c r="H2" t="s">
         <v>320</v>
       </c>
-      <c r="I2"/>
       <c r="N2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>322</v>
       </c>
       <c r="N3" t="s">
@@ -5843,7 +5467,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>324</v>
       </c>
       <c r="H4" t="s">
@@ -5854,7 +5478,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>327</v>
       </c>
       <c r="N5" t="s">
@@ -5862,7 +5486,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>329</v>
       </c>
       <c r="H6" t="s">
@@ -5873,7 +5497,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>332</v>
       </c>
       <c r="H7" t="s">
@@ -5881,7 +5505,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>334</v>
       </c>
       <c r="H8" t="s">
@@ -5889,12 +5513,12 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>337</v>
       </c>
       <c r="H10" t="s">
@@ -5902,12 +5526,12 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>339</v>
       </c>
       <c r="H12" t="s">
@@ -5915,18 +5539,17 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>342</v>
       </c>
       <c r="H14" t="s">
         <v>343</v>
       </c>
-      <c r="I14"/>
       <c r="J14" t="s">
         <v>344</v>
       </c>
@@ -5935,13 +5558,12 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>346</v>
       </c>
       <c r="H15" t="s">
         <v>347</v>
       </c>
-      <c r="I15"/>
       <c r="J15" t="s">
         <v>348</v>
       </c>
@@ -5950,13 +5572,12 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>350</v>
       </c>
       <c r="H16" t="s">
         <v>351</v>
       </c>
-      <c r="I16"/>
       <c r="J16" t="s">
         <v>352</v>
       </c>
@@ -5968,7 +5589,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>355</v>
       </c>
       <c r="H17" t="s">
@@ -5976,13 +5597,12 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>357</v>
       </c>
       <c r="H18" t="s">
         <v>358</v>
       </c>
-      <c r="I18"/>
       <c r="J18" t="s">
         <v>317</v>
       </c>
@@ -5991,7 +5611,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>360</v>
       </c>
       <c r="H19" t="s">
@@ -6056,238 +5676,303 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="I2"/>
-      <c r="L2" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="I3"/>
-      <c r="L3" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="Q3" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="Q4" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="9" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" t="s">
         <v>388</v>
       </c>
-      <c r="Q5" t="s">
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="10" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="9" t="s">
+      <c r="N16" t="s">
         <v>390</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G17" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="8:17">
-      <c r="H7" t="s">
+      <c r="G18" t="s">
         <v>394</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="N18" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
         <v>396</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="10" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
+      <c r="G21" t="s">
         <v>399</v>
       </c>
-      <c r="I10" t="s">
+      <c r="N21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G22" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="P22" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+    <row r="23" spans="16:16">
+      <c r="P23" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="8" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="10" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="G24" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="G25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+    <row r="26" spans="7:7">
+      <c r="G26" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="10" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+      <c r="G27" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="8" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+      <c r="I28" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="10" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="G29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="G30" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="I30" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
+      <c r="G31" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
+      <c r="G32" t="s">
         <v>422</v>
       </c>
+      <c r="I32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G33" t="s">
+        <v>425</v>
+      </c>
+      <c r="I33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="I35" t="s">
+        <v>430</v>
+      </c>
+      <c r="K35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
-        <v>424</v>
+      <c r="A37" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="G38" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8" t="s">
-        <v>425</v>
+      <c r="A39" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="7:11">
+      <c r="G40" t="s">
+        <v>437</v>
+      </c>
+      <c r="K40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="G42" t="s">
+        <v>440</v>
+      </c>
+      <c r="J42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -6299,604 +5984,403 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>432</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="6:12">
-      <c r="F4" s="5" t="s">
-        <v>435</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="8:10">
+      <c r="H4" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
-        <v>438</v>
+      <c r="A5" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>457</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>454</v>
+        <v>459</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>461</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="N15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I17" s="5" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="8:15">
-      <c r="H19" s="5" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="F22" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="M19" s="5" t="s">
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="F23" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E20" s="5" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="N20" s="5" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="P20" s="5" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="Q20" s="5" t="s">
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="R20" s="5" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="F21" s="5" t="s">
+    <row r="29" spans="1:13">
+      <c r="A29" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="M29" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="M30" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="L22" s="5" t="s">
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="M31" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="M32" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="M33" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="L26" s="5" t="s">
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="7" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E29" s="5" t="s">
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="G29" s="5" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7" t="s">
+    <row r="37" spans="9:9">
+      <c r="I37" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E30" s="5" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="G30" s="5" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="O30" s="5" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E31" s="5" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="F31" s="5" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="G31" s="5" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="1:8">
-      <c r="A35" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="5" t="s">
-        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -6908,591 +6392,321 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13">
+      <c r="E7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="15" spans="8:8">
+      <c r="H15" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="I3" s="5" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="L3" s="5" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="O3" s="5" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="I4" s="5" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="L4" s="5" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="O4" s="5" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="I5" s="5" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="L5" s="5" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="O5" s="5" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="Q5" s="5" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="6" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="F6" s="5" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="I6" s="5" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="O6" s="5" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="Q6" s="5" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="6"/>
-      <c r="Q7" s="5" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="6" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="15" spans="15:15">
-      <c r="O15" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="I25" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="I41" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="5" t="s">
-        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -7518,637 +6732,637 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>734</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>735</v>
+        <v>612</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>736</v>
+        <v>613</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>737</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>738</v>
+        <v>615</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>739</v>
+        <v>616</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>740</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>741</v>
+        <v>618</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>742</v>
+        <v>619</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>743</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>744</v>
+        <v>621</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>745</v>
+        <v>622</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>746</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>747</v>
+        <v>624</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>748</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>749</v>
+        <v>626</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>750</v>
+        <v>627</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>751</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>752</v>
+        <v>629</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>753</v>
+        <v>630</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>754</v>
+        <v>632</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>755</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>756</v>
+        <v>634</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>757</v>
+        <v>635</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>758</v>
+        <v>636</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>760</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
-        <v>761</v>
+        <v>639</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>762</v>
+        <v>640</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>763</v>
+        <v>641</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>764</v>
+        <v>642</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="9:14">
       <c r="I11" s="5" t="s">
-        <v>766</v>
+        <v>644</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>767</v>
+        <v>645</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>768</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>769</v>
+        <v>647</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>770</v>
+        <v>648</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>771</v>
+        <v>649</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>772</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
-        <v>773</v>
+        <v>651</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>774</v>
+        <v>652</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>775</v>
+        <v>653</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>776</v>
+        <v>654</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>777</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>778</v>
+        <v>656</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>779</v>
+        <v>657</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>537</v>
+        <v>658</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>780</v>
+        <v>659</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>781</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>782</v>
+        <v>661</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>783</v>
+        <v>662</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>784</v>
+        <v>663</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>785</v>
+        <v>664</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>532</v>
+        <v>665</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>786</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
-        <v>787</v>
+        <v>667</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>788</v>
+        <v>668</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>789</v>
+        <v>669</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>791</v>
+        <v>671</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>792</v>
+        <v>672</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>793</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>794</v>
+        <v>674</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>795</v>
+        <v>675</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>796</v>
+        <v>676</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>797</v>
+        <v>677</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>798</v>
+        <v>678</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>799</v>
+        <v>679</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>801</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>802</v>
+        <v>682</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>803</v>
+        <v>683</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>804</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>805</v>
+        <v>685</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>806</v>
+        <v>686</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>807</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>808</v>
+        <v>688</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>809</v>
+        <v>689</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>810</v>
+        <v>690</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>811</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>812</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" s="5" t="s">
-        <v>813</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>814</v>
+        <v>694</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>815</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
-        <v>816</v>
+        <v>696</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>817</v>
+        <v>697</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>818</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="6" t="s">
-        <v>819</v>
+        <v>699</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>820</v>
+        <v>700</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>821</v>
+        <v>701</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>822</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" s="5" t="s">
-        <v>823</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" ht="17.1" customHeight="1" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>824</v>
+        <v>704</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>825</v>
+        <v>705</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>826</v>
+        <v>706</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>827</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28" ht="17.1" customHeight="1" spans="1:15">
       <c r="A28" s="6" t="s">
-        <v>828</v>
+        <v>708</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>829</v>
+        <v>709</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>789</v>
+        <v>669</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>832</v>
+        <v>712</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>833</v>
+        <v>713</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>834</v>
+        <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="6" t="s">
-        <v>835</v>
+        <v>715</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>836</v>
+        <v>716</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>837</v>
+        <v>717</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>838</v>
+        <v>718</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>839</v>
+        <v>719</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>841</v>
+        <v>721</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>842</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
-        <v>843</v>
+        <v>723</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>844</v>
+        <v>724</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>845</v>
+        <v>725</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>846</v>
+        <v>726</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>847</v>
+        <v>727</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>848</v>
+        <v>728</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>849</v>
+        <v>729</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>850</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>851</v>
+        <v>731</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>852</v>
+        <v>732</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>853</v>
+        <v>733</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>854</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
-        <v>855</v>
+        <v>735</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>856</v>
+        <v>736</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>857</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>858</v>
+        <v>738</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>859</v>
+        <v>739</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>861</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>862</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
-        <v>863</v>
+        <v>743</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>864</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" s="5" t="s">
-        <v>865</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>866</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
-        <v>867</v>
+        <v>747</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>868</v>
+        <v>748</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>869</v>
+        <v>749</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>870</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="6" t="s">
-        <v>871</v>
+        <v>751</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>872</v>
+        <v>752</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>873</v>
+        <v>753</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>874</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="6" t="s">
-        <v>875</v>
+        <v>755</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>876</v>
+        <v>756</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>877</v>
+        <v>757</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>878</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="9:11">
       <c r="I41" s="5" t="s">
-        <v>879</v>
+        <v>759</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>880</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>881</v>
+        <v>761</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>882</v>
+        <v>762</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="6" t="s">
-        <v>883</v>
+        <v>763</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>884</v>
+        <v>764</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>885</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>886</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
-        <v>887</v>
+        <v>767</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>888</v>
+        <v>768</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>889</v>
+        <v>769</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>890</v>
+        <v>770</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
-        <v>891</v>
+        <v>771</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>892</v>
+        <v>772</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>796</v>
+        <v>676</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>893</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="6" t="s">
-        <v>894</v>
+        <v>774</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>792</v>
+        <v>672</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>799</v>
+        <v>679</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>895</v>
+        <v>775</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>896</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="6" t="s">
-        <v>897</v>
+        <v>777</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>898</v>
+        <v>778</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>800</v>
+        <v>680</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>899</v>
+        <v>779</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>900</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
-        <v>901</v>
+        <v>781</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>902</v>
+        <v>782</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>903</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="946" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="946" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="927">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -1768,6 +1768,9 @@
     <t>价值</t>
   </si>
   <si>
+    <t>多样化</t>
+  </si>
+  <si>
     <t>公共政策评估的内容</t>
   </si>
   <si>
@@ -1777,85 +1780,220 @@
     <t>过程</t>
   </si>
   <si>
+    <t>技术化</t>
+  </si>
+  <si>
     <t>影响需求</t>
   </si>
   <si>
+    <t>数量化</t>
+  </si>
+  <si>
     <t>公共政策评估的过程，标准与影响因素：</t>
   </si>
   <si>
     <t>公共政策评估的过程</t>
   </si>
   <si>
+    <t>评估筹划，评估实施，评估总结</t>
+  </si>
+  <si>
+    <t>实施标准</t>
+  </si>
+  <si>
     <t>评估筹划解决的问题</t>
   </si>
   <si>
+    <t>明确评估目的</t>
+  </si>
+  <si>
+    <t>价值标准</t>
+  </si>
+  <si>
+    <t>政策效率</t>
+  </si>
+  <si>
     <t>公共政策评估的标准</t>
   </si>
   <si>
+    <t>选择评估对象</t>
+  </si>
+  <si>
+    <t>投入的成本</t>
+  </si>
+  <si>
+    <t>技术标准</t>
+  </si>
+  <si>
+    <t>政策效益</t>
+  </si>
+  <si>
     <t>事实标准包含哪些</t>
   </si>
   <si>
+    <t>指定评估计划</t>
+  </si>
+  <si>
+    <t>行政开支</t>
+  </si>
+  <si>
+    <t>政策影响</t>
+  </si>
+  <si>
     <t>政策效率衡量标准</t>
   </si>
   <si>
+    <t>明确评估条件</t>
+  </si>
+  <si>
+    <t>人均开支</t>
+  </si>
+  <si>
+    <t>社会生产力发展</t>
+  </si>
+  <si>
     <t>技术标准内容</t>
   </si>
   <si>
+    <t>社会公正</t>
+  </si>
+  <si>
     <t>价值标准包括那些</t>
   </si>
   <si>
+    <t>政策信息资料</t>
+  </si>
+  <si>
+    <t>社会可持续发展</t>
+  </si>
+  <si>
     <t>影响公共政策评估的主要原因</t>
   </si>
   <si>
+    <t>政策制定者执行者</t>
+  </si>
+  <si>
+    <t>定量</t>
+  </si>
+  <si>
     <t>公共政策评估的方法：</t>
   </si>
   <si>
+    <t>政策的沉淀成本</t>
+  </si>
+  <si>
+    <t>定性</t>
+  </si>
+  <si>
     <t>以定量分析为主的评估方法</t>
   </si>
   <si>
+    <t>政策评估方法，方式，规范</t>
+  </si>
+  <si>
     <t>政策指标体系三类价值取向</t>
   </si>
   <si>
     <t>回归分析法</t>
   </si>
   <si>
+    <t>指标法</t>
+  </si>
+  <si>
+    <t>经济效益取向</t>
+  </si>
+  <si>
     <t>以定性分析为主的评估方法含义</t>
   </si>
   <si>
+    <t>回归分析伐</t>
+  </si>
+  <si>
+    <t>主观福利取向</t>
+  </si>
+  <si>
     <t>以定性分析为主的评估方法程序</t>
   </si>
   <si>
+    <t>实验法</t>
+  </si>
+  <si>
+    <t>公平取向</t>
+  </si>
+  <si>
     <t>公共政策监控：</t>
   </si>
   <si>
     <t>公共政策监控的含义</t>
   </si>
   <si>
+    <t>对政策运行各环节，进行检查，督促</t>
+  </si>
+  <si>
+    <t>实施时间</t>
+  </si>
+  <si>
+    <t>预防性监控</t>
+  </si>
+  <si>
     <t>政策监控内容</t>
   </si>
   <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>监控的频率</t>
+  </si>
+  <si>
+    <t>过程性监控</t>
+  </si>
+  <si>
     <t>公共政策监控的类型</t>
   </si>
   <si>
-    <t>实施时间</t>
-  </si>
-  <si>
-    <t>监控的频率</t>
-  </si>
-  <si>
     <t>参与程度</t>
   </si>
   <si>
+    <t>结果监控</t>
+  </si>
+  <si>
+    <t>使政策制定过程合法化</t>
+  </si>
+  <si>
     <t>公共政策监控的功能（为什么要对政策进行监控）</t>
   </si>
   <si>
+    <t>确保政策执行过程和有效性</t>
+  </si>
+  <si>
+    <t>体现政策评估活动价值取向</t>
+  </si>
+  <si>
     <t>公共政策监控机制的构成：</t>
   </si>
   <si>
+    <t>明确政策调整活动的方向</t>
+  </si>
+  <si>
     <t>内部监控机制（通过监控方向）</t>
   </si>
   <si>
     <t>监控过程</t>
+  </si>
+  <si>
+    <t>公共政策制定过程的监控</t>
+  </si>
+  <si>
+    <t>执行过程</t>
+  </si>
+  <si>
+    <t>评估过程</t>
+  </si>
+  <si>
+    <t>调整</t>
   </si>
   <si>
     <t>公共政策的稳定和变动：</t>
@@ -2673,10 +2811,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2755,17 +2893,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2780,7 +2909,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2793,16 +2922,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2811,22 +2940,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2847,6 +2960,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -2854,8 +2975,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2863,22 +2985,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2891,9 +3030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2908,7 +3046,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,25 +3082,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,7 +3124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2968,7 +3148,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2980,7 +3178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2992,13 +3190,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3010,85 +3226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3099,48 +3237,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3175,6 +3271,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3199,16 +3310,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3217,133 +3355,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4045,118 +4183,118 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>784</v>
+        <v>830</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>785</v>
+        <v>831</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>786</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>787</v>
+        <v>833</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>788</v>
+        <v>834</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>789</v>
+        <v>835</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>790</v>
+        <v>836</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>791</v>
+        <v>837</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>793</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>794</v>
+        <v>840</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>795</v>
+        <v>841</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>796</v>
+        <v>842</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>797</v>
+        <v>843</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>798</v>
+        <v>844</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>799</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>800</v>
+        <v>846</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>802</v>
+        <v>848</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>803</v>
+        <v>849</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>804</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>805</v>
+        <v>851</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>806</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="O6" s="2" t="s">
-        <v>786</v>
+        <v>832</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>807</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
-        <v>808</v>
+        <v>854</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>809</v>
+        <v>855</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>810</v>
+        <v>856</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>811</v>
+        <v>857</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>812</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
-        <v>813</v>
+        <v>859</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>814</v>
+        <v>860</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>261</v>
@@ -4167,72 +4305,72 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
-        <v>815</v>
+        <v>861</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>816</v>
+        <v>862</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>817</v>
+        <v>863</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>818</v>
+        <v>864</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>819</v>
+        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
-        <v>820</v>
+        <v>866</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>821</v>
+        <v>867</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>483</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>823</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3" t="s">
-        <v>824</v>
+        <v>870</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>826</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>827</v>
+        <v>873</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>828</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>829</v>
+        <v>875</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>830</v>
+        <v>876</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>831</v>
+        <v>877</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>832</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -4240,174 +4378,174 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>833</v>
+        <v>879</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>834</v>
+        <v>880</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>835</v>
+        <v>881</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>836</v>
+        <v>882</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>837</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>838</v>
+        <v>884</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>839</v>
+        <v>885</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>840</v>
+        <v>886</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>841</v>
+        <v>887</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>842</v>
+        <v>888</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
-        <v>843</v>
+        <v>889</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>844</v>
+        <v>890</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>845</v>
+        <v>891</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>846</v>
+        <v>892</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>847</v>
+        <v>893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
-        <v>848</v>
+        <v>894</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>849</v>
+        <v>895</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>850</v>
+        <v>896</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>851</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
-        <v>852</v>
+        <v>898</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>853</v>
+        <v>899</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>854</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>855</v>
+        <v>901</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>856</v>
+        <v>902</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>857</v>
+        <v>903</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>859</v>
+        <v>905</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>860</v>
+        <v>906</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>861</v>
+        <v>907</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>862</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>863</v>
+        <v>909</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>865</v>
+        <v>911</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>866</v>
+        <v>912</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>867</v>
+        <v>913</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>868</v>
+        <v>914</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>870</v>
+        <v>916</v>
       </c>
     </row>
     <row r="24" spans="7:11">
       <c r="G24" s="2" t="s">
-        <v>871</v>
+        <v>917</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>872</v>
+        <v>918</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>873</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" s="2" t="s">
-        <v>874</v>
+        <v>920</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>875</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" spans="7:11">
       <c r="G26" s="2" t="s">
-        <v>876</v>
+        <v>922</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>877</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" s="2" t="s">
-        <v>878</v>
+        <v>924</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>879</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="2" t="s">
-        <v>880</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -6213,7 +6351,6 @@
       <c r="D24" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
         <v>498</v>
       </c>
@@ -6251,8 +6388,6 @@
       <c r="E29" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
       <c r="M29" s="5" t="s">
         <v>507</v>
       </c>
@@ -6264,8 +6399,6 @@
       <c r="E30" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
       <c r="M30" s="5" t="s">
         <v>510</v>
       </c>
@@ -6277,8 +6410,6 @@
       <c r="E31" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
       <c r="M31" s="5" t="s">
         <v>513</v>
       </c>
@@ -6318,7 +6449,6 @@
       <c r="E34" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
         <v>524</v>
       </c>
@@ -6392,10 +6522,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6449,11 +6579,9 @@
       <c r="H5" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="I5" s="5"/>
       <c r="K5" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
         <v>552</v>
       </c>
@@ -6465,11 +6593,9 @@
       <c r="E6" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="I6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>556</v>
       </c>
@@ -6498,7 +6624,6 @@
       <c r="E8" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>564</v>
       </c>
@@ -6521,7 +6646,6 @@
       <c r="E10" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="F10" s="5"/>
       <c r="J10" s="5" t="s">
         <v>570</v>
       </c>
@@ -6533,7 +6657,6 @@
       <c r="E11" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="F11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>573</v>
       </c>
@@ -6552,7 +6675,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
         <v>578</v>
       </c>
@@ -6562,151 +6685,317 @@
       <c r="H13" s="5" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
+        <v>584</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10">
       <c r="H15" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="K18" s="5" t="s">
         <v>595</v>
       </c>
     </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>626</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7" t="s">
-        <v>599</v>
+        <v>629</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>603</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>604</v>
+      <c r="A37" s="8" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
-        <v>608</v>
+        <v>649</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
-        <v>610</v>
+      <c r="A43" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="5" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6720,7 +7009,7 @@
   <sheetPr/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -6732,637 +7021,637 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>611</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>612</v>
+        <v>658</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>622</v>
+        <v>668</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>624</v>
+        <v>670</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>640</v>
+        <v>686</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="9:14">
       <c r="I11" s="5" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
-        <v>667</v>
+        <v>713</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>477</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>673</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>674</v>
+        <v>720</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>678</v>
+        <v>724</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>682</v>
+        <v>728</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>685</v>
+        <v>731</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>686</v>
+        <v>732</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>687</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>689</v>
+        <v>735</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>690</v>
+        <v>736</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>691</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>692</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" s="5" t="s">
-        <v>693</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>694</v>
+        <v>740</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
-        <v>696</v>
+        <v>742</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>697</v>
+        <v>743</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>698</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="6" t="s">
-        <v>699</v>
+        <v>745</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>701</v>
+        <v>747</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>702</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="15:15">
       <c r="O26" s="5" t="s">
-        <v>703</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" ht="17.1" customHeight="1" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" ht="17.1" customHeight="1" spans="1:15">
       <c r="A28" s="6" t="s">
-        <v>708</v>
+        <v>754</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>709</v>
+        <v>755</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>710</v>
+        <v>756</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>711</v>
+        <v>757</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>712</v>
+        <v>758</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>713</v>
+        <v>759</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="6" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>717</v>
+        <v>763</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>719</v>
+        <v>765</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>720</v>
+        <v>766</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>721</v>
+        <v>767</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>722</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="6" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>724</v>
+        <v>770</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>726</v>
+        <v>772</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>727</v>
+        <v>773</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>728</v>
+        <v>774</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>729</v>
+        <v>775</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>730</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>731</v>
+        <v>777</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>733</v>
+        <v>779</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>734</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
-        <v>735</v>
+        <v>781</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>736</v>
+        <v>782</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>737</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
-        <v>738</v>
+        <v>784</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>739</v>
+        <v>785</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>740</v>
+        <v>786</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" s="5" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="6" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>752</v>
+        <v>798</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>753</v>
+        <v>799</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>754</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="6" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>756</v>
+        <v>802</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>758</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="9:11">
       <c r="I41" s="5" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>760</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>761</v>
+        <v>807</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="6" t="s">
-        <v>763</v>
+        <v>809</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>765</v>
+        <v>811</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>766</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
-        <v>767</v>
+        <v>813</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>768</v>
+        <v>814</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
-        <v>771</v>
+        <v>817</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>773</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="6" t="s">
-        <v>774</v>
+        <v>820</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>775</v>
+        <v>821</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>776</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="6" t="s">
-        <v>777</v>
+        <v>823</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>778</v>
+        <v>824</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>680</v>
+        <v>726</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>780</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
-        <v>781</v>
+        <v>827</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>782</v>
+        <v>828</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>783</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="946" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="946" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="890">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -2002,154 +2002,145 @@
     <t>政策稳定的内涵</t>
   </si>
   <si>
-    <t>政策在受到内外环境的影响下，保持既定目标不变</t>
-  </si>
-  <si>
-    <t>有利于国家和社会的稳定</t>
+    <t>在内外部环境的影响下，政策目标保持稳定，并且根据制定的方向，继续实施</t>
   </si>
   <si>
     <t>稳定是相对的，表现在两个方面</t>
   </si>
   <si>
-    <t>还在按照既定方向实施</t>
-  </si>
-  <si>
-    <t>降低政策实施的成本</t>
+    <t>有利于国家稳定</t>
   </si>
   <si>
     <t>政策稳定的积极意义</t>
   </si>
   <si>
-    <t>时间上看，阶段和连续的统一</t>
-  </si>
-  <si>
-    <t>有利于政策执行者坚定不移的执行政策，实现政策目标</t>
+    <t>有利于政策执行者取得预期效果</t>
+  </si>
+  <si>
+    <t>政策本身的稳定</t>
+  </si>
+  <si>
+    <t>政策长期性</t>
   </si>
   <si>
     <t>政策稳定的消极意义</t>
   </si>
   <si>
-    <t>空间，局部和全局的统一</t>
-  </si>
-  <si>
-    <t>提高政策的可预见性，提高政策效率</t>
+    <t>有利于提高政策的效率</t>
+  </si>
+  <si>
+    <t>政策环境的问题</t>
+  </si>
+  <si>
+    <t>政策有效性</t>
   </si>
   <si>
     <t>政策稳定的动力因素</t>
   </si>
   <si>
-    <t>过于稳定，政策趋于保守</t>
+    <t>有利于降低成本</t>
+  </si>
+  <si>
+    <t>政策主体和执行者的稳定</t>
+  </si>
+  <si>
+    <t>政策合法性</t>
   </si>
   <si>
     <t>政策本身的稳定因素</t>
   </si>
   <si>
-    <t>政策主体和网络要相对稳定</t>
-  </si>
-  <si>
-    <t>长期性</t>
+    <t>问题的解决需要一个过程</t>
+  </si>
+  <si>
+    <t>修改的复杂性</t>
   </si>
   <si>
     <t>政策维持的对策和措施</t>
   </si>
   <si>
-    <t>政策问题的解决需要一个过程</t>
-  </si>
-  <si>
-    <t>有效性</t>
-  </si>
-  <si>
-    <t>政策主体的政策维持</t>
-  </si>
-  <si>
-    <t>保持政策主体的稳定</t>
+    <t>主体的政策维持</t>
+  </si>
+  <si>
+    <t>对目标的认可</t>
+  </si>
+  <si>
+    <t>接续政策的时效性</t>
   </si>
   <si>
     <t>如何政策主体的【政策维持】</t>
   </si>
   <si>
-    <t>政策环境需要稳定</t>
-  </si>
-  <si>
-    <t>合法性</t>
-  </si>
-  <si>
-    <t>政策客体的政策维持</t>
-  </si>
-  <si>
-    <t>政策对政策目标的认可</t>
+    <t>客体的政策维持</t>
+  </si>
+  <si>
+    <t>保持主体之间的沟通</t>
+  </si>
+  <si>
+    <t>政策终结的失败性</t>
   </si>
   <si>
     <t>如何政策客体的【政策维持】</t>
   </si>
   <si>
-    <t>政策本身需要稳定</t>
-  </si>
-  <si>
-    <t>复杂性</t>
-  </si>
-  <si>
-    <t>政策环境的创设</t>
-  </si>
-  <si>
-    <t>个政策主体之间沟通合作</t>
-  </si>
-  <si>
-    <t>失效性</t>
-  </si>
-  <si>
-    <t>政策法制化</t>
-  </si>
-  <si>
-    <t>建立完善的政策体质和机制</t>
+    <t>保持主体的稳定</t>
+  </si>
+  <si>
+    <t>决策者的变动</t>
+  </si>
+  <si>
+    <t>提高绩效</t>
+  </si>
+  <si>
+    <t>建立完善的体制</t>
+  </si>
+  <si>
+    <t>政策环境的变化</t>
   </si>
   <si>
     <t>公共政策变动的含义</t>
   </si>
   <si>
-    <t>针对政策内外环境的变化所做的一种对策</t>
-  </si>
-  <si>
-    <t>失败性</t>
-  </si>
-  <si>
-    <t>政策绩效的提高</t>
+    <t>法制化</t>
+  </si>
+  <si>
+    <t>政策资源的限制</t>
   </si>
   <si>
     <t>公共政策变动的原因</t>
   </si>
   <si>
-    <t>决策者的变动</t>
-  </si>
-  <si>
-    <t>断裂</t>
-  </si>
-  <si>
-    <t>政策终止</t>
-  </si>
-  <si>
-    <t>明确具体的政策界定问题</t>
+    <t>明确具体的边界</t>
+  </si>
+  <si>
+    <t>政策失效或低效</t>
   </si>
   <si>
     <t>公共政策变动类型：</t>
   </si>
   <si>
-    <t>政策环境的变动</t>
-  </si>
-  <si>
-    <t>渐变</t>
-  </si>
-  <si>
-    <t>政策调整</t>
-  </si>
-  <si>
-    <t>扩大政策受益面</t>
+    <t>公共政策根据主客观环境的变化，做出的变革</t>
+  </si>
+  <si>
+    <t>增加收益</t>
+  </si>
+  <si>
+    <t>政策合法性得到之一</t>
   </si>
   <si>
     <t>强度不同</t>
   </si>
   <si>
-    <t>政策资源的限制</t>
+    <t>断裂性</t>
+  </si>
+  <si>
+    <t>渐变性</t>
+  </si>
+  <si>
+    <t>减少损失</t>
+  </si>
+  <si>
+    <t>程度不同</t>
   </si>
   <si>
     <t>部分</t>
@@ -2161,13 +2152,10 @@
     <t>完全</t>
   </si>
   <si>
-    <t>缩小政策的受损面</t>
-  </si>
-  <si>
-    <t>程度不同</t>
-  </si>
-  <si>
-    <t>政策失效</t>
+    <t>争取政策观望着</t>
+  </si>
+  <si>
+    <t>内容不同</t>
   </si>
   <si>
     <t>目标</t>
@@ -2182,43 +2170,34 @@
     <t>政策</t>
   </si>
   <si>
-    <t>争取政策观望着</t>
-  </si>
-  <si>
-    <t>内容不同</t>
-  </si>
-  <si>
-    <t>政策合法性收到质疑</t>
+    <t>形式</t>
   </si>
   <si>
     <t>代替</t>
   </si>
   <si>
-    <t>终结</t>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>分解</t>
   </si>
   <si>
     <t>创新</t>
   </si>
   <si>
-    <t>分解</t>
-  </si>
-  <si>
-    <t>合并</t>
-  </si>
-  <si>
     <t>废止</t>
   </si>
   <si>
-    <t>形式</t>
-  </si>
-  <si>
-    <t>周期性</t>
+    <t>规律</t>
+  </si>
+  <si>
+    <t>周期</t>
   </si>
   <si>
     <t>不规律</t>
   </si>
   <si>
-    <t>规律</t>
+    <t>动力</t>
   </si>
   <si>
     <t>主动</t>
@@ -2227,28 +2206,22 @@
     <t>被动</t>
   </si>
   <si>
-    <t>动力</t>
-  </si>
-  <si>
-    <t>周期性，摆钟</t>
+    <t>公共政策变动模式（西方学者的看法）</t>
+  </si>
+  <si>
+    <t>政策主体根据环境变化发生改变</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>血腥</t>
-  </si>
-  <si>
-    <t>公共政策变动模式（西方学者的看法）</t>
-  </si>
-  <si>
-    <t>根据环境变化的需求，主动改变政策</t>
+    <t>创造性的政策的过程</t>
   </si>
   <si>
     <t>公共政策创新含义</t>
   </si>
   <si>
-    <t>要素，组合形态的过程</t>
+    <t>学习型</t>
   </si>
   <si>
     <t>公共政策创新两种形式</t>
@@ -2257,553 +2230,469 @@
     <t>根本性创新</t>
   </si>
   <si>
-    <t>政策内部的变革，政策本身发生变化</t>
+    <t>渐进性创新</t>
+  </si>
+  <si>
+    <t>内部东里</t>
   </si>
   <si>
     <t>公共政策创新动力（为什么要创新）</t>
   </si>
   <si>
-    <t>渐进性创新</t>
-  </si>
-  <si>
-    <t>政策外部的变革，资金，环境，资源发生变化</t>
+    <t>外部动力</t>
+  </si>
+  <si>
+    <t>公共政策调整与接续：</t>
+  </si>
+  <si>
+    <t>根据政策评估和监控的反馈信息，对不适应的政策对象进行增删改查</t>
+  </si>
+  <si>
+    <t>公共政策调整的含义</t>
+  </si>
+  <si>
+    <t>渐进性</t>
+  </si>
+  <si>
+    <t>调整方案</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>重新节点</t>
+  </si>
+  <si>
+    <t>实事求是</t>
+  </si>
+  <si>
+    <t>利益的限制</t>
+  </si>
+  <si>
+    <t>及时纠偏，预防失误</t>
+  </si>
+  <si>
+    <t>公共政策调整的特点</t>
+  </si>
+  <si>
+    <t>局部行</t>
+  </si>
+  <si>
+    <t>调整目标</t>
+  </si>
+  <si>
+    <t>修正</t>
+  </si>
+  <si>
+    <t>提出方案</t>
+  </si>
+  <si>
+    <t>渐进调整</t>
+  </si>
+  <si>
+    <t>现行政策的制约</t>
+  </si>
+  <si>
+    <t>协调关系，有序运行</t>
+  </si>
+  <si>
+    <t>公共政策调整的内容</t>
+  </si>
+  <si>
+    <t>动态性</t>
+  </si>
+  <si>
+    <t>调整政策措施</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>选择方案</t>
+  </si>
+  <si>
+    <t>追踪反馈</t>
+  </si>
+  <si>
+    <t>公共意志</t>
+  </si>
+  <si>
+    <t>发展完善，保持稳定</t>
+  </si>
+  <si>
+    <t>公共政策的调整的形式</t>
+  </si>
+  <si>
+    <t>政策关系的调整</t>
+  </si>
+  <si>
+    <t>执行调整方案</t>
+  </si>
+  <si>
+    <t>变革成本</t>
+  </si>
+  <si>
+    <t>公共政策的调整的程序</t>
+  </si>
+  <si>
+    <t>主客体调整</t>
+  </si>
+  <si>
+    <t>人类理性</t>
+  </si>
+  <si>
+    <t>公共政策的调整的原则</t>
+  </si>
+  <si>
+    <t>社会稳定</t>
+  </si>
+  <si>
+    <t>公共政策调整的原因（政策为什么要调整）</t>
+  </si>
+  <si>
+    <t>公共政策调整的作用</t>
+  </si>
+  <si>
+    <t>以政策问题为中心，努力保证政策目标稳定和连续的行为过程</t>
+  </si>
+  <si>
+    <t>有利于节省资源</t>
+  </si>
+  <si>
+    <t>有利于提高效率</t>
+  </si>
+  <si>
+    <t>公共政策的接续内涵</t>
+  </si>
+  <si>
+    <t>有利于保持政策的稳定</t>
+  </si>
+  <si>
+    <t>线性接续</t>
+  </si>
+  <si>
+    <t>有利于优化</t>
+  </si>
+  <si>
+    <t>公共政策的接续意义</t>
+  </si>
+  <si>
+    <t>保持政策的变动</t>
+  </si>
+  <si>
+    <t>政策合并</t>
+  </si>
+  <si>
+    <t>推进目标管理</t>
+  </si>
+  <si>
+    <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
+  </si>
+  <si>
+    <t>保持政策得到认可</t>
+  </si>
+  <si>
+    <t>政策分解</t>
+  </si>
+  <si>
+    <t>价钱该政策过程评估</t>
+  </si>
+  <si>
+    <t>公共政策的接续途经</t>
+  </si>
+  <si>
+    <t>政策不符终结</t>
+  </si>
+  <si>
+    <t>政策目标法制化</t>
+  </si>
+  <si>
+    <t>公共政策的终结：</t>
+  </si>
+  <si>
+    <t>经过政策额评估后对那些政策错误，多余的政策进行终止，的一种行为</t>
+  </si>
+  <si>
+    <t>公共政策的终结的含义</t>
   </si>
   <si>
     <t>说服</t>
   </si>
   <si>
-    <t>因势导利</t>
-  </si>
-  <si>
-    <t>公共政策调整与接续：</t>
-  </si>
-  <si>
-    <t>利益的刚性限制</t>
-  </si>
-  <si>
-    <t>通过政策评估，监控，对不适应的政策信息进行修改，增加，删除的过程</t>
-  </si>
-  <si>
-    <t>公开评估</t>
-  </si>
-  <si>
-    <t>公共政策调整的含义</t>
-  </si>
-  <si>
-    <t>现行政策的约束</t>
-  </si>
-  <si>
-    <t>渐进</t>
-  </si>
-  <si>
-    <t>新删</t>
-  </si>
-  <si>
-    <t>界定问题</t>
-  </si>
-  <si>
-    <t>实事求斯</t>
-  </si>
-  <si>
-    <t>废旧立新并存</t>
-  </si>
-  <si>
-    <t>公共政策调整的特点</t>
-  </si>
-  <si>
-    <t>公共意志的适中</t>
-  </si>
-  <si>
-    <t>局部</t>
-  </si>
-  <si>
-    <t>方案</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>提出方案</t>
-  </si>
-  <si>
-    <t>渐进调整</t>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>计划/项目</t>
+  </si>
+  <si>
+    <t>公共政策的终结的对象</t>
+  </si>
+  <si>
+    <t>因势利导</t>
+  </si>
+  <si>
+    <t>政策废止</t>
+  </si>
+  <si>
+    <t>实现了政策目标，解决了政策问题，没有存在的必要</t>
+  </si>
+  <si>
+    <t>公共政策的终结的方式</t>
+  </si>
+  <si>
+    <t>公开评估结果</t>
+  </si>
+  <si>
+    <t>政策无法解决政策问题，继续存在浪费</t>
+  </si>
+  <si>
+    <t>公共政策终结的原因</t>
+  </si>
+  <si>
+    <t>废旧立新</t>
+  </si>
+  <si>
+    <t>公共政策终结的作用</t>
   </si>
   <si>
     <t>试探试点</t>
   </si>
   <si>
-    <t>公共政策调整的内容</t>
-  </si>
-  <si>
-    <t>成本的控制</t>
-  </si>
-  <si>
-    <t>动态</t>
-  </si>
-  <si>
-    <t>措施</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>调整方案</t>
-  </si>
-  <si>
-    <t>实时反馈</t>
+    <t>政策缩减</t>
+  </si>
+  <si>
+    <t>组织持久化，只能机构保守</t>
+  </si>
+  <si>
+    <t>公共政策终结的障碍</t>
   </si>
   <si>
     <t>终结必要部分</t>
   </si>
   <si>
-    <t>公共政策的调整的形式</t>
-  </si>
-  <si>
-    <t>理性的局限</t>
-  </si>
-  <si>
-    <t>主客体</t>
-  </si>
-  <si>
-    <t>执行方案</t>
-  </si>
-  <si>
-    <t>公共政策的调整的程序</t>
-  </si>
-  <si>
-    <t>社会稳定的需要</t>
-  </si>
-  <si>
-    <t>关系</t>
-  </si>
-  <si>
-    <t>公共政策的调整的原则</t>
-  </si>
-  <si>
-    <t>及时纠正</t>
-  </si>
-  <si>
-    <t>协调关系</t>
-  </si>
-  <si>
-    <t>发展完善</t>
-  </si>
-  <si>
-    <t>公共政策调整的原因（政策为什么要调整）</t>
-  </si>
-  <si>
-    <t>公共政策调整的作用</t>
-  </si>
-  <si>
-    <t>以政策问题为中心，努力保持政策的稳定，连续的过程</t>
-  </si>
-  <si>
-    <t>一版是就政策被新政策替换的过程</t>
-  </si>
-  <si>
-    <t>公共政策的接续内涵</t>
-  </si>
-  <si>
-    <t>公共政策的接续意义</t>
-  </si>
-  <si>
-    <t>保持政策稳定</t>
-  </si>
-  <si>
-    <t>线性接续</t>
-  </si>
-  <si>
-    <t>明确政策的界定目标</t>
-  </si>
-  <si>
-    <t>公共政策的接续形式（霍格伍德，彼得斯）</t>
-  </si>
-  <si>
-    <t>有利于政策变动</t>
-  </si>
-  <si>
-    <t>非正式接续</t>
-  </si>
-  <si>
-    <t>加强政策管理</t>
-  </si>
-  <si>
-    <t>公共政策的接续途经</t>
-  </si>
-  <si>
-    <t>得到政策的认同</t>
-  </si>
-  <si>
-    <t>政策合并</t>
-  </si>
-  <si>
-    <t>强调政策法制化</t>
-  </si>
-  <si>
-    <t>政策分解、</t>
-  </si>
-  <si>
-    <t>加强政策额评估</t>
-  </si>
-  <si>
-    <t>公共政策的终结：</t>
-  </si>
-  <si>
-    <t>政策不符，终止</t>
-  </si>
-  <si>
-    <t>公共政策的终结的含义</t>
-  </si>
-  <si>
-    <t>通过对政策评估，采取的重要措施，终止那些错误的多余的政策</t>
-  </si>
-  <si>
-    <t>完全政策而终结，部分中策中介</t>
-  </si>
-  <si>
-    <t>公共政策的终结的对象</t>
-  </si>
-  <si>
-    <t>公共政策的终结的方式</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>废纸</t>
-  </si>
-  <si>
-    <t>解决了政策目标，和问题，没有继续存在的必要</t>
-  </si>
-  <si>
-    <t>公共政策终结的原因</t>
-  </si>
-  <si>
-    <t>组织</t>
-  </si>
-  <si>
-    <t>无法解决目标，继续执行浪费资源</t>
-  </si>
-  <si>
-    <t>公共政策终结的作用</t>
-  </si>
-  <si>
-    <t>节省政策资源</t>
-  </si>
-  <si>
-    <t>组织的持久性</t>
-  </si>
-  <si>
-    <t>公共政策终结的障碍</t>
-  </si>
-  <si>
-    <t>计划/项目</t>
-  </si>
-  <si>
-    <t>提高政策绩效</t>
-  </si>
-  <si>
-    <t>代价</t>
+    <t>代价，情感政治上的代价</t>
   </si>
   <si>
     <t>公共政策终结的策略</t>
   </si>
   <si>
-    <t>缩减</t>
-  </si>
-  <si>
-    <t>有利于政策优化</t>
-  </si>
-  <si>
     <t>政策学的知识应用于政策分析：</t>
   </si>
   <si>
-    <t>发现</t>
-  </si>
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
     <t>知识的含义</t>
   </si>
   <si>
-    <t>观察和学习活得知识</t>
-  </si>
-  <si>
-    <t>显示知识</t>
+    <t>知识的类型</t>
+  </si>
+  <si>
+    <t>人民通过观察获得事务的信息，通过记忆力，想象力，进行发展，传承，最终在活动中运用的过程</t>
+  </si>
+  <si>
+    <t>知识的特征</t>
+  </si>
+  <si>
+    <t>显性知识</t>
   </si>
   <si>
     <t>事实知识</t>
   </si>
   <si>
-    <t>不可逆性</t>
-  </si>
-  <si>
-    <t>减少</t>
-  </si>
-  <si>
-    <t>事务</t>
-  </si>
-  <si>
-    <t>知识的类型</t>
-  </si>
-  <si>
-    <t>通过好奇心将知识积累</t>
-  </si>
-  <si>
     <t>原理知识</t>
   </si>
   <si>
-    <t>传播性</t>
-  </si>
-  <si>
-    <t>改善</t>
-  </si>
-  <si>
-    <t>抵消</t>
-  </si>
-  <si>
-    <t>知识的特征</t>
-  </si>
-  <si>
-    <t>在事物中使用的过程</t>
-  </si>
-  <si>
-    <t>共享性</t>
-  </si>
-  <si>
-    <t>增强</t>
-  </si>
-  <si>
-    <t>预期性和趋向性</t>
+    <t>不可逆</t>
+  </si>
+  <si>
+    <t>发现问题的症结</t>
   </si>
   <si>
     <t>政策学知识与政策知识</t>
   </si>
   <si>
-    <t>非磨损性</t>
-  </si>
-  <si>
-    <t>民主</t>
+    <t>隐性知识</t>
+  </si>
+  <si>
+    <t>技能知识</t>
+  </si>
+  <si>
+    <t>人际知识</t>
+  </si>
+  <si>
+    <t>共享</t>
+  </si>
+  <si>
+    <t>提高效率</t>
+  </si>
+  <si>
+    <t>非磨损</t>
+  </si>
+  <si>
+    <t>减少失误</t>
   </si>
   <si>
     <t>政策分析的含义</t>
   </si>
   <si>
-    <t>隐示知识</t>
-  </si>
-  <si>
-    <t>技术知识</t>
+    <t>政策研究者将科学知识和方法应用于解决公共问题</t>
   </si>
   <si>
     <t>交换不对称</t>
   </si>
   <si>
-    <t>系统</t>
+    <t>增强决策的预见性</t>
   </si>
   <si>
     <t>两种政策分析</t>
   </si>
   <si>
-    <t>人际关系</t>
+    <t>职业的政策分析</t>
+  </si>
+  <si>
+    <t>可传播</t>
   </si>
   <si>
     <t>政策分析的价值（意义）</t>
   </si>
   <si>
-    <t>政策学知识，通过政策研究获得知识</t>
-  </si>
-  <si>
-    <t>职业政策分析，政策</t>
-  </si>
-  <si>
-    <t>信息</t>
-  </si>
-  <si>
-    <t>多样</t>
+    <t>学术的政策分析</t>
+  </si>
+  <si>
+    <t>定义</t>
   </si>
   <si>
     <t>政策分析的要素（8要素）</t>
   </si>
   <si>
-    <t>在公共政策的领域内，创造和应用知识的社会过程</t>
-  </si>
-  <si>
-    <t>学术政策问题，对政策本身的分析</t>
-  </si>
-  <si>
-    <t>分析综合</t>
+    <t>预测</t>
   </si>
   <si>
     <t>政策分析的原则（6原则）</t>
   </si>
   <si>
-    <t>将科学方法应用于解决公共问题</t>
-  </si>
-  <si>
-    <t>预测性</t>
+    <t>规定</t>
   </si>
   <si>
     <t>政策分析的过程</t>
   </si>
   <si>
-    <t>评估价标准</t>
+    <t>描述</t>
   </si>
   <si>
     <t>政策分析的注意事项</t>
   </si>
   <si>
-    <t>定义问题</t>
-  </si>
-  <si>
-    <t>墨守成规</t>
-  </si>
-  <si>
-    <t>事实结果</t>
+    <t>评估</t>
   </si>
   <si>
     <t>应用性政策研究组织与政策分析师：</t>
   </si>
   <si>
-    <t>预测</t>
-  </si>
-  <si>
-    <t>姗姗来迟</t>
-  </si>
-  <si>
-    <t>在系统调查的基础上</t>
+    <t>在系统调查的基础上，为中政府组织出谋划策，影响政策行为的社会组织</t>
+  </si>
+  <si>
+    <t>应用性政策研究组织含义</t>
+  </si>
+  <si>
+    <t>政策制定的补充单元</t>
+  </si>
+  <si>
+    <t>应用性政策研究组织作用</t>
   </si>
   <si>
     <t>提供政策建议</t>
   </si>
   <si>
-    <t>应用性政策研究组织含义</t>
-  </si>
-  <si>
-    <t>规定，建议</t>
-  </si>
-  <si>
-    <t>脱离政治</t>
-  </si>
-  <si>
-    <t>为政府，公司，社团出谋划策</t>
+    <t>行政型</t>
+  </si>
+  <si>
+    <t>应用型的政策研究组织</t>
+  </si>
+  <si>
+    <t>科学政治的桥梁</t>
+  </si>
+  <si>
+    <t>应用性政策研究组织类型（与政府的关系）</t>
   </si>
   <si>
     <t>提供理论方法</t>
   </si>
   <si>
-    <t>应用性政策研究组织作用</t>
-  </si>
-  <si>
-    <t>描述，监控</t>
-  </si>
-  <si>
-    <t>反复无常</t>
-  </si>
-  <si>
-    <t>提供决策行为的社会组织</t>
-  </si>
-  <si>
-    <t>提供解决方案</t>
-  </si>
-  <si>
-    <t>应用性政策研究组织类型（与政府的关系）</t>
-  </si>
-  <si>
-    <t>评估</t>
-  </si>
-  <si>
-    <t>一知半解</t>
-  </si>
-  <si>
-    <t>传输高质量人才</t>
+    <t>事业单位</t>
+  </si>
+  <si>
+    <t>政策分析师</t>
+  </si>
+  <si>
+    <t>价值的中立者</t>
   </si>
   <si>
     <t>政策学知识的主要应用者包括</t>
   </si>
   <si>
-    <t>生搬硬套</t>
-  </si>
-  <si>
-    <t>输送政策思想</t>
+    <t>提供解决方法</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>职业化意见提供者</t>
   </si>
   <si>
     <t>政策分析师的角色定位（德罗尔）</t>
   </si>
   <si>
-    <t>应用型政策研究组织</t>
-  </si>
-  <si>
-    <t>行政</t>
-  </si>
-  <si>
-    <t>政策制定的补充单元</t>
+    <t>输送专家</t>
+  </si>
+  <si>
+    <t>器噢耶</t>
   </si>
   <si>
     <t>【政策分析师】的【素质要求】（德罗尔）</t>
   </si>
   <si>
-    <t>政策分析师</t>
-  </si>
-  <si>
-    <t>事业</t>
-  </si>
-  <si>
-    <t>科学和政治的桥梁</t>
+    <t>传递观念</t>
+  </si>
+  <si>
+    <t>民办非企业</t>
   </si>
   <si>
     <t>政策分析师职业伦理</t>
   </si>
   <si>
-    <t>产业型</t>
-  </si>
-  <si>
-    <t>价值中立者</t>
+    <t>道德</t>
+  </si>
+  <si>
+    <t>的价值</t>
+  </si>
+  <si>
+    <t>行为规范</t>
   </si>
   <si>
     <t>政策分析师职业伦理的核心是</t>
   </si>
   <si>
-    <t>政治头脑</t>
-  </si>
-  <si>
-    <t>道德品质</t>
-  </si>
-  <si>
-    <t>民办非法人</t>
-  </si>
-  <si>
-    <t>职业化的政策意见提供者</t>
-  </si>
-  <si>
-    <t>具有洞察力</t>
-  </si>
-  <si>
-    <t>行为规范</t>
-  </si>
-  <si>
-    <t>学术性</t>
-  </si>
-  <si>
-    <t>创新能力</t>
-  </si>
-  <si>
-    <t>价值判断</t>
-  </si>
-  <si>
-    <t>总体观念</t>
-  </si>
-  <si>
-    <t>公共责任</t>
+    <t>政治观念</t>
+  </si>
+  <si>
+    <t>创新思维</t>
+  </si>
+  <si>
+    <t>公共责任和公共利益</t>
+  </si>
+  <si>
+    <t>总体观念看</t>
+  </si>
+  <si>
+    <t>洞察力</t>
+  </si>
+  <si>
+    <t>着眼于未来</t>
   </si>
   <si>
     <t>弹性思维</t>
-  </si>
-  <si>
-    <t>公共利益</t>
-  </si>
-  <si>
-    <t>着眼于未来</t>
   </si>
 </sst>
 </file>
@@ -2811,12 +2700,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2827,7 +2716,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2840,7 +2728,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="0" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2853,13 +2741,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2900,11 +2782,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2915,18 +2873,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2946,30 +2905,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2978,60 +2914,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3052,7 +2934,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3064,31 +3072,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3100,127 +3102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,17 +3122,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3285,17 +3185,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3310,43 +3219,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3355,137 +3237,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3504,27 +3386,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3854,308 +3727,308 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="8:11">
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="8:13">
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="12" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4171,8 +4044,8 @@
   <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4181,371 +4054,279 @@
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="6" spans="12:14">
+      <c r="L6" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="M3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="M4" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="P4" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="M5" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3"/>
-      <c r="O6" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="K7" s="2" t="s">
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="P7" s="2" t="s">
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="3" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="L9" s="2" t="s">
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="L10" s="2" t="s">
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="P11" s="2" t="s">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="3" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="O13" s="2" t="s">
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="L15" s="2" t="s">
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
+    <row r="24" spans="9:11">
+      <c r="I24" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="J16" s="2" t="s">
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="L16" s="2" t="s">
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="O16" s="2" t="s">
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
+    <row r="28" spans="9:9">
+      <c r="I28" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11">
-      <c r="G24" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8">
-      <c r="G25" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="26" spans="7:11">
-      <c r="G26" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="27" spans="7:11">
-      <c r="G27" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" s="2" t="s">
-        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -4565,12 +4346,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4581,7 +4362,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4595,7 +4376,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4609,7 +4390,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4623,7 +4404,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -4636,7 +4417,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -4650,7 +4431,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -4661,7 +4442,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -4672,7 +4453,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -4680,115 +4461,115 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -4796,7 +4577,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -4804,82 +4585,82 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4900,12 +4681,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>153</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4919,7 +4700,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4935,7 +4716,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -4949,7 +4730,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -4957,7 +4738,7 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -4985,7 +4766,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>174</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5002,7 +4783,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>179</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -5030,7 +4811,7 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5064,7 +4845,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>197</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -5078,7 +4859,7 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>201</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -5095,7 +4876,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>206</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -5117,7 +4898,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>211</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -5133,12 +4914,12 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>215</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -5158,7 +4939,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -5178,7 +4959,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>227</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -5198,7 +4979,7 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>232</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -5215,7 +4996,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>235</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -5223,7 +5004,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>237</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -5234,7 +5015,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>240</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -5245,7 +5026,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>243</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -5259,7 +5040,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>247</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -5267,7 +5048,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>249</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -5281,7 +5062,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -5292,7 +5073,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>256</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -5303,7 +5084,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>259</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -5327,12 +5108,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>261</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -5340,15 +5121,15 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>264</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -5356,7 +5137,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>266</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -5364,7 +5145,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>268</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -5372,12 +5153,12 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>271</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -5391,7 +5172,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="7"/>
+      <c r="A9" s="4"/>
       <c r="N9" s="2" t="s">
         <v>275</v>
       </c>
@@ -5400,7 +5181,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>277</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -5411,7 +5192,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>280</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -5425,7 +5206,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>284</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -5439,7 +5220,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>288</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -5450,7 +5231,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>291</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -5461,7 +5242,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>294</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -5472,13 +5253,13 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="7"/>
+      <c r="A16" s="4"/>
       <c r="N16" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="7"/>
+      <c r="A17" s="4"/>
       <c r="I17" s="2" t="s">
         <v>298</v>
       </c>
@@ -5574,11 +5355,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>317</v>
       </c>
       <c r="H1" t="s">
@@ -5586,7 +5367,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>319</v>
       </c>
       <c r="H2" t="s">
@@ -5597,7 +5378,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>322</v>
       </c>
       <c r="N3" t="s">
@@ -5605,7 +5386,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>324</v>
       </c>
       <c r="H4" t="s">
@@ -5616,7 +5397,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>327</v>
       </c>
       <c r="N5" t="s">
@@ -5624,7 +5405,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>329</v>
       </c>
       <c r="H6" t="s">
@@ -5635,7 +5416,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>332</v>
       </c>
       <c r="H7" t="s">
@@ -5643,7 +5424,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>334</v>
       </c>
       <c r="H8" t="s">
@@ -5651,12 +5432,12 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>337</v>
       </c>
       <c r="H10" t="s">
@@ -5664,12 +5445,12 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>339</v>
       </c>
       <c r="H12" t="s">
@@ -5677,12 +5458,12 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>342</v>
       </c>
       <c r="H14" t="s">
@@ -5696,7 +5477,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>346</v>
       </c>
       <c r="H15" t="s">
@@ -5710,7 +5491,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>350</v>
       </c>
       <c r="H16" t="s">
@@ -5727,7 +5508,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>355</v>
       </c>
       <c r="H17" t="s">
@@ -5735,7 +5516,7 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>357</v>
       </c>
       <c r="H18" t="s">
@@ -5749,7 +5530,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>360</v>
       </c>
       <c r="H19" t="s">
@@ -5822,71 +5603,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="3" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="3" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5896,7 +5677,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="3" t="s">
         <v>389</v>
       </c>
       <c r="N16" t="s">
@@ -5904,7 +5685,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="3" t="s">
         <v>391</v>
       </c>
       <c r="G17" t="s">
@@ -5912,7 +5693,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>393</v>
       </c>
       <c r="G18" t="s">
@@ -5928,12 +5709,12 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="3" t="s">
         <v>398</v>
       </c>
       <c r="G21" t="s">
@@ -5944,7 +5725,7 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="3" t="s">
         <v>401</v>
       </c>
       <c r="G22" t="s">
@@ -5960,7 +5741,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="3" t="s">
         <v>405</v>
       </c>
       <c r="G24" t="s">
@@ -5968,7 +5749,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="3" t="s">
         <v>407</v>
       </c>
       <c r="G25" t="s">
@@ -5981,7 +5762,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="3" t="s">
         <v>410</v>
       </c>
       <c r="G27" t="s">
@@ -5989,7 +5770,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="3" t="s">
         <v>412</v>
       </c>
       <c r="I28" t="s">
@@ -5997,7 +5778,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="3" t="s">
         <v>414</v>
       </c>
       <c r="G29" t="s">
@@ -6005,7 +5786,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="3" t="s">
         <v>416</v>
       </c>
       <c r="G30" t="s">
@@ -6016,7 +5797,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="3" t="s">
         <v>419</v>
       </c>
       <c r="G31" t="s">
@@ -6024,7 +5805,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="3" t="s">
         <v>421</v>
       </c>
       <c r="G32" t="s">
@@ -6035,7 +5816,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="3" t="s">
         <v>424</v>
       </c>
       <c r="G33" t="s">
@@ -6046,7 +5827,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="3" t="s">
         <v>427</v>
       </c>
       <c r="G34" t="s">
@@ -6054,7 +5835,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="3" t="s">
         <v>429</v>
       </c>
       <c r="I35" t="s">
@@ -6070,12 +5851,12 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="3" t="s">
         <v>434</v>
       </c>
       <c r="G38" t="s">
@@ -6083,7 +5864,7 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="3" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6130,12 +5911,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>443</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -6143,12 +5924,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>446</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -6167,7 +5948,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>451</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -6178,7 +5959,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>454</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -6191,7 +5972,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>457</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -6199,7 +5980,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>459</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -6210,7 +5991,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>462</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -6221,7 +6002,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>465</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -6232,7 +6013,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>468</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -6243,7 +6024,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>471</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -6254,7 +6035,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>474</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -6265,7 +6046,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>476</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -6276,7 +6057,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>479</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -6287,7 +6068,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>482</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -6298,7 +6079,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>485</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -6306,7 +6087,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>487</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -6317,7 +6098,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>490</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -6328,7 +6109,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>492</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -6345,7 +6126,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>496</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -6359,7 +6140,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>500</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -6367,7 +6148,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6377,12 +6158,12 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>505</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -6393,7 +6174,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>508</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -6404,7 +6185,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>511</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -6415,7 +6196,7 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>514</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -6429,7 +6210,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>518</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -6443,7 +6224,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>522</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -6453,16 +6234,16 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" spans="1:7">
-      <c r="A35" s="8" t="s">
+    <row r="35" s="7" customFormat="1" spans="1:7">
+      <c r="A35" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>527</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -6475,7 +6256,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>530</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -6483,7 +6264,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>532</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -6491,7 +6272,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>534</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -6499,17 +6280,17 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6524,23 +6305,23 @@
   <sheetPr/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>540</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -6551,7 +6332,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>543</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -6562,7 +6343,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>546</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -6570,7 +6351,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>548</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -6587,7 +6368,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>553</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -6618,7 +6399,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>562</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -6629,7 +6410,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>565</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -6640,7 +6421,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>568</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -6651,7 +6432,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>571</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6665,7 +6446,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>575</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6676,7 +6457,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>578</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6690,7 +6471,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>582</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -6712,12 +6493,12 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>589</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -6728,7 +6509,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>592</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -6742,7 +6523,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>596</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -6759,7 +6540,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>601</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -6773,7 +6554,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>605</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -6787,7 +6568,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>609</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -6795,7 +6576,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>611</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -6806,7 +6587,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>614</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -6822,7 +6603,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>617</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -6833,7 +6614,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>620</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -6841,12 +6622,12 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>623</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -6857,7 +6638,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>626</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -6868,7 +6649,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>629</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -6879,12 +6660,12 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>633</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -6898,7 +6679,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>637</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -6921,7 +6702,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>642</v>
       </c>
       <c r="I36" s="5" t="s">
@@ -6932,17 +6713,17 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>643</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -6950,7 +6731,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>646</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -6963,7 +6744,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>649</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -6971,12 +6752,12 @@
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>652</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -7007,10 +6788,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7024,634 +6805,616 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="K2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="K4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
         <v>670</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>671</v>
+      </c>
       <c r="K6" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>672</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="I7" s="5" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="I8" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="K8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="F9" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="K9" s="5"/>
+      <c r="O9" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="K10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="K10" s="5" t="s">
+    </row>
+    <row r="11" spans="7:13">
+      <c r="G11" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="11" spans="9:14">
-      <c r="I11" s="5" t="s">
+      <c r="K11" s="5"/>
+      <c r="M11" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="K11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="E12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="N13" s="5" t="s">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="I14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="I15" s="5" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="6" t="s">
+      <c r="G17" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="H18" s="5" t="s">
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" ht="17.1" customHeight="1" spans="1:6">
+      <c r="A27" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="28" ht="17.1" customHeight="1" spans="1:16">
+      <c r="A28" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="15:15">
-      <c r="O26" s="5" t="s">
+    <row r="29" spans="1:16">
+      <c r="A29" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="27" ht="17.1" customHeight="1" spans="1:15">
-      <c r="A27" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="28" ht="17.1" customHeight="1" spans="1:15">
-      <c r="A28" s="6" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="N29" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="I28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="N30" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="I29" s="5" t="s">
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="H31" s="5"/>
+      <c r="J31" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H32" s="5"/>
+      <c r="N32" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="H30" s="5" t="s">
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="N33" s="5" t="s">
         <v>773</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>775</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14">
+      <c r="N36" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="6" t="s">
-        <v>792</v>
+        <v>779</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="6" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="41" spans="9:11">
-      <c r="I41" s="5" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4" t="s">
+      <c r="G45" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="I42" s="5" t="s">
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G46" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="6" t="s">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="F45" s="5" t="s">
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="6" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
         <v>817</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="946" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="946"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
     <sheet name="2.公共政策与政策工具" sheetId="2" r:id="rId2"/>
     <sheet name="3.政策系统与公共决策体制" sheetId="3" r:id="rId3"/>
-    <sheet name="4.政策过程及其理论模型" sheetId="4" r:id="rId4"/>
+    <sheet name="4.5.政策过程及其理论模型" sheetId="4" r:id="rId4"/>
     <sheet name="5.政策问题与议程设定" sheetId="5" r:id="rId5"/>
     <sheet name="6.政策方案的规划与抉择" sheetId="6" r:id="rId6"/>
     <sheet name="7.公共政策执行" sheetId="7" r:id="rId7"/>
@@ -963,10 +963,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1024,10 +1024,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,7 +1094,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,6 +1109,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,95 +1139,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,8 +1154,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,7 +1177,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,49 +1285,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,43 +1339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,67 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,16 +1371,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1388,8 +1388,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1419,6 +1421,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1434,21 +1460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1457,27 +1468,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,133 +1486,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1965,8 +1965,8 @@
   <sheetPr/>
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1975,7 +1975,7 @@
     <col min="2" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="15" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2107,8 +2107,8 @@
   <sheetPr/>
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2662,8 +2662,8 @@
   <sheetPr/>
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2855,7 +2855,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:A19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/ggzc/Q.xlsx
+++ b/ggzc/Q.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZK\ggzc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B57FD-E0C0-40FE-A84D-54D4B01EDFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="946"/>
+    <workbookView xWindow="-25320" yWindow="165" windowWidth="25440" windowHeight="15540" tabRatio="946" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.公共政策的学科要素" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="326">
   <si>
     <t>1.公共政策的学科要素</t>
   </si>
@@ -541,9 +547,6 @@
     <t>“上下来去”模型内涵</t>
   </si>
   <si>
-    <t>给予西方经验的政策执行理论模型</t>
-  </si>
-  <si>
     <t>过程模型（史密斯模型）影响政策执行的因素</t>
   </si>
   <si>
@@ -956,19 +959,77 @@
   </si>
   <si>
     <t>政策分析师职业伦理的核心是</t>
+  </si>
+  <si>
+    <t>中国人大主决策要采取的形式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策网络主要可以分为</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部监控机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>立法机关对公共政策的监控表现几方面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法机关对公共政策的监控表现在几方面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政党组织对公共政策的监控是的几种方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益集团对公共政策的监控主要表现在几方面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策执行理论模型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界分析法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>多角度问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别分析</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>层次分析法</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>头脑风暴</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设分析</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非正式评估</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共产党的政策变成国家意志的法定程序有三种类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,345 +1085,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1370,253 +1113,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1644,62 +1145,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1957,15 +1420,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1975,7 +1438,7 @@
     <col min="2" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:1">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2096,15 +1559,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2119,127 +1581,126 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2400,113 +1861,122 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2651,19 +2121,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2803,59 +2272,93 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>124</v>
+      <c r="A30" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2919,54 +2422,88 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>124</v>
+      <c r="A12" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="2" customFormat="1">
+      <c r="A15" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="2" customFormat="1">
+      <c r="A16" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="2" customFormat="1">
+      <c r="A17" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="2" customFormat="1">
+      <c r="A19" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="2" customFormat="1">
+      <c r="A20" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3151,19 +2688,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3203,179 +2739,178 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>172</v>
+      <c r="A9" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="7" customFormat="1">
+      <c r="A36" s="4" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3386,214 +2921,243 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>213</v>
+      <c r="A11" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row